--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -21,15 +21,24 @@
     <sheet state="visible" name="other_academic" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1006</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">awards!$A$1:$B$1005</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">teaching!$A$1:$I$1006</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">awards!$A$1:$C$1005</definedName>
+    <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$J$16</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$4</definedName>
+    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">dissertations!$A$1:$E$8</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="252">
   <si>
     <t>title</t>
   </si>
@@ -185,15 +194,9 @@
     <t>Intensive course about meta-analysis with the `metafor` package held by Professor Wolfgang Viechtbauer</t>
   </si>
   <si>
-    <t>date_start</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
-    <t>date_end</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>Free University of Bozen-Bolzano</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>I held a workshop introducing meta-analysis with Monte Carlo simulations</t>
   </si>
   <si>
@@ -218,9 +224,6 @@
     <t>University of Padova</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>I held the Generalized Linear Models course (Part A and B) within the PhD program in Psychological Sciences, University of Padova</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
     <t>Lectures about R programming and data analysis (*Didattica Integrativa*) of the course "Data Analysis in Developmental Psychology" (Prof. Massimilano Pastore), Master's degree in Psychology of Community, Wellness Promotion, and Social Change, University of Padova</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Psychological Testing [*didattica integrativa*]</t>
   </si>
   <si>
@@ -281,6 +287,9 @@
     <t>Neural Correlates of Consciousness</t>
   </si>
   <si>
+    <t>2020 - ongoing</t>
+  </si>
+  <si>
     <t>I regularly held a two hours lecture during the course "Mechanism of Consciousness" (Prof. Roberto Dell'Acqua), Master's degree in Applied Cognitive Psychology, University of Padova</t>
   </si>
   <si>
@@ -290,10 +299,13 @@
     <t>EEG laboratory training</t>
   </si>
   <si>
+    <t>2017-2019</t>
+  </si>
+  <si>
     <t>Supervision and coordinations of students during the training in the EEG laboratory</t>
   </si>
   <si>
-    <t>year</t>
+    <t>2024</t>
   </si>
   <si>
     <t>Reproducibility Award - Italian Reproducibility Network (ITRN)</t>
@@ -351,9 +363,6 @@
     <t>Gambarota2022-kr</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Neurosci. Biobehav. Rev.</t>
   </si>
   <si>
@@ -375,9 +384,6 @@
     <t>Quettier2023-yx</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>Front. Syst. Neurosci.</t>
   </si>
   <si>
@@ -645,15 +651,15 @@
     <t>abbr</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
     <t>Italian Reproducibility Network</t>
   </si>
   <si>
     <t>ITRN</t>
   </si>
   <si>
+    <t>2023 - ongoing</t>
+  </si>
+  <si>
     <t>The Society for the Improvement of Psychological Science</t>
   </si>
   <si>
@@ -666,6 +672,9 @@
     <t>AIP</t>
   </si>
   <si>
+    <t>2022 - ongoing</t>
+  </si>
+  <si>
     <t>responsabile</t>
   </si>
   <si>
@@ -675,9 +684,6 @@
     <t>Sito web [https://psicostat.dpss.psy.unipd.it/](https://psicostat.dpss.psy.unipd.it/) del gruppo di ricerca multidisciplinare "Psicostat".</t>
   </si>
   <si>
-    <t>2023 - ongoing</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
@@ -705,19 +711,13 @@
     <t xml:space="preserve">PEN-2435  </t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>degree</t>
   </si>
   <si>
     <t>Tania</t>
@@ -891,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -911,14 +911,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -931,6 +931,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -7280,48 +7283,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$E$2"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
   </hyperlinks>
@@ -7353,13 +7357,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7371,30 +7375,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -7402,19 +7406,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -7422,19 +7426,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -7442,129 +7446,129 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>161</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -7572,19 +7576,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -7592,19 +7596,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -7612,19 +7616,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -7632,19 +7636,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -7652,87 +7656,88 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>187</v>
+        <v>141</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>196</v>
+        <v>156</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$J$16"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="I5"/>
     <hyperlink r:id="rId2" location="1" ref="I6"/>
@@ -7764,18 +7769,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>2023.0</v>
+        <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3">
@@ -7783,7 +7788,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
@@ -7791,10 +7796,11 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$B$4"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7815,49 +7821,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2023.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2023.0</v>
+      <c r="C3" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="1">
-        <v>2022.0</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$C$4"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7902,43 +7909,44 @@
         <v>211</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$AA$1000"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7954,143 +7962,145 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.0"/>
+    <col customWidth="1" min="3" max="3" width="93.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>236</v>
+        <v>232</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>235</v>
+        <v>243</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$E$8"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8130,35 +8140,36 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$E$3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8212,7 +8223,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
@@ -8230,7 +8241,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -8248,7 +8259,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
@@ -8268,7 +8279,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>25</v>
@@ -8288,7 +8299,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -8308,7 +8319,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>31</v>
@@ -8328,7 +8339,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>36</v>
@@ -8346,7 +8357,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -14400,9 +14411,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="51.25"/>
     <col customWidth="1" min="2" max="2" width="25.88"/>
-    <col customWidth="1" min="7" max="8" width="11.75"/>
-    <col customWidth="1" min="9" max="9" width="186.38"/>
-    <col customWidth="1" min="10" max="10" width="101.0"/>
+    <col customWidth="1" min="6" max="7" width="11.75"/>
+    <col customWidth="1" min="8" max="8" width="186.38"/>
+    <col customWidth="1" min="9" max="9" width="101.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14412,402 +14423,382 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2023.0</v>
       </c>
       <c r="D2" s="8">
         <v>45323.0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7">
+      <c r="E2" s="9">
         <v>3.0</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>1.0</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="11"/>
+      <c r="H2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="7">
-        <v>2023.0</v>
+      <c r="C3" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="8">
         <v>45231.0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="9">
         <v>15.0</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="H3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2023.0</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="8">
         <v>45170.0</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7">
+      <c r="E4" s="9">
         <v>5.0</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>1.0</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2023.0</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="8">
         <v>45017.0</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7">
+      <c r="E5" s="9">
         <v>21.0</v>
       </c>
+      <c r="F5" s="3">
+        <v>3.0</v>
+      </c>
       <c r="G5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="3">
         <v>1.0</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>66</v>
+      <c r="H5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2023.0</v>
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="8">
         <v>44986.0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="E6" s="14">
         <v>20.0</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
         <v>1.0</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="17">
+        <v>44986.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2023.0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>44986.0</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="18">
+        <v>44866.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>44866.0</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="17">
+        <v>44621.0</v>
+      </c>
+      <c r="E9" s="1">
         <v>20.0</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>1.0</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="H9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>44621.0</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="17">
+        <v>44805.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>44805.0</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="18">
+        <v>44470.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>44470.0</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="17">
+        <v>44287.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>44287.0</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="17">
+        <v>44287.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="D13" s="16">
-        <v>44287.0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2020.0</v>
-      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
         <v>2.0</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="I14" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14816,5037 +14807,6023 @@
         <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2017.0</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>2019.0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>84</v>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="18">
+        <v>45352.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>45352.0</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
     </row>
     <row r="17">
+      <c r="C17" s="5"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
     </row>
     <row r="18">
+      <c r="C18" s="5"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
     </row>
     <row r="19">
+      <c r="C19" s="5"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
     </row>
     <row r="20">
+      <c r="C20" s="5"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
     </row>
     <row r="21">
+      <c r="C21" s="5"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22">
+      <c r="C22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
     </row>
     <row r="23">
+      <c r="C23" s="5"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
     </row>
     <row r="24">
+      <c r="C24" s="5"/>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
     </row>
     <row r="25">
+      <c r="C25" s="5"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
     </row>
     <row r="26">
+      <c r="C26" s="5"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
     </row>
     <row r="27">
+      <c r="C27" s="5"/>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
     </row>
     <row r="28">
+      <c r="C28" s="5"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
     </row>
     <row r="29">
+      <c r="C29" s="5"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
     </row>
     <row r="30">
+      <c r="C30" s="5"/>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
     </row>
     <row r="31">
+      <c r="C31" s="5"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
     </row>
     <row r="32">
+      <c r="C32" s="5"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
     </row>
     <row r="33">
+      <c r="C33" s="5"/>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
     </row>
     <row r="34">
+      <c r="C34" s="5"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
     </row>
     <row r="35">
+      <c r="C35" s="5"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
     </row>
     <row r="36">
+      <c r="C36" s="5"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
     </row>
     <row r="37">
+      <c r="C37" s="5"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
     </row>
     <row r="38">
+      <c r="C38" s="5"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
     </row>
     <row r="39">
+      <c r="C39" s="5"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
     </row>
     <row r="40">
+      <c r="C40" s="5"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
     </row>
     <row r="41">
+      <c r="C41" s="5"/>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
     </row>
     <row r="42">
+      <c r="C42" s="5"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
     </row>
     <row r="43">
+      <c r="C43" s="5"/>
+      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
     </row>
     <row r="44">
+      <c r="C44" s="5"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
     </row>
     <row r="45">
+      <c r="C45" s="5"/>
+      <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
     </row>
     <row r="46">
+      <c r="C46" s="5"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
     </row>
     <row r="47">
+      <c r="C47" s="5"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
     </row>
     <row r="48">
+      <c r="C48" s="5"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
     </row>
     <row r="49">
+      <c r="C49" s="5"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
     </row>
     <row r="50">
+      <c r="C50" s="5"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
     </row>
     <row r="51">
+      <c r="C51" s="5"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
     </row>
     <row r="52">
+      <c r="C52" s="5"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
     </row>
     <row r="53">
+      <c r="C53" s="5"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
     </row>
     <row r="54">
+      <c r="C54" s="5"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
     </row>
     <row r="55">
+      <c r="C55" s="5"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
     </row>
     <row r="56">
+      <c r="C56" s="5"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
     </row>
     <row r="57">
+      <c r="C57" s="5"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
     </row>
     <row r="58">
+      <c r="C58" s="5"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
     </row>
     <row r="59">
+      <c r="C59" s="5"/>
+      <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
     </row>
     <row r="60">
+      <c r="C60" s="5"/>
+      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
     </row>
     <row r="61">
+      <c r="C61" s="5"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
     </row>
     <row r="62">
+      <c r="C62" s="5"/>
+      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
     </row>
     <row r="63">
+      <c r="C63" s="5"/>
+      <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
     </row>
     <row r="64">
+      <c r="C64" s="5"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
     </row>
     <row r="65">
+      <c r="C65" s="5"/>
+      <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
     </row>
     <row r="66">
+      <c r="C66" s="5"/>
+      <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
     </row>
     <row r="67">
+      <c r="C67" s="5"/>
+      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
     </row>
     <row r="68">
+      <c r="C68" s="5"/>
+      <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
     </row>
     <row r="69">
+      <c r="C69" s="5"/>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
     </row>
     <row r="70">
+      <c r="C70" s="5"/>
+      <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
     </row>
     <row r="71">
+      <c r="C71" s="5"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
     </row>
     <row r="72">
+      <c r="C72" s="5"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
     </row>
     <row r="73">
+      <c r="C73" s="5"/>
+      <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
     </row>
     <row r="74">
+      <c r="C74" s="5"/>
+      <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
     </row>
     <row r="75">
+      <c r="C75" s="5"/>
+      <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
     </row>
     <row r="76">
+      <c r="C76" s="5"/>
+      <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
     </row>
     <row r="77">
+      <c r="C77" s="5"/>
+      <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
     </row>
     <row r="78">
+      <c r="C78" s="5"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
     </row>
     <row r="79">
+      <c r="C79" s="5"/>
+      <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
     </row>
     <row r="80">
+      <c r="C80" s="5"/>
+      <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
     </row>
     <row r="81">
+      <c r="C81" s="5"/>
+      <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
     </row>
     <row r="82">
+      <c r="C82" s="5"/>
+      <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
     </row>
     <row r="83">
+      <c r="C83" s="5"/>
+      <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
     </row>
     <row r="84">
+      <c r="C84" s="5"/>
+      <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
     </row>
     <row r="85">
+      <c r="C85" s="5"/>
+      <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
     </row>
     <row r="86">
+      <c r="C86" s="5"/>
+      <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
     </row>
     <row r="87">
+      <c r="C87" s="5"/>
+      <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
     </row>
     <row r="88">
+      <c r="C88" s="5"/>
+      <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
     </row>
     <row r="89">
+      <c r="C89" s="5"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
     </row>
     <row r="90">
+      <c r="C90" s="5"/>
+      <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
     </row>
     <row r="91">
+      <c r="C91" s="5"/>
+      <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
     </row>
     <row r="92">
+      <c r="C92" s="5"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
     </row>
     <row r="93">
+      <c r="C93" s="5"/>
+      <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
     </row>
     <row r="94">
+      <c r="C94" s="5"/>
+      <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
     </row>
     <row r="95">
+      <c r="C95" s="5"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
     </row>
     <row r="96">
+      <c r="C96" s="5"/>
+      <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
     </row>
     <row r="97">
+      <c r="C97" s="5"/>
+      <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
     </row>
     <row r="98">
+      <c r="C98" s="5"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
     </row>
     <row r="99">
+      <c r="C99" s="5"/>
+      <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
     </row>
     <row r="100">
+      <c r="C100" s="5"/>
+      <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
     </row>
     <row r="101">
+      <c r="C101" s="5"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
     </row>
     <row r="102">
+      <c r="C102" s="5"/>
+      <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
     </row>
     <row r="103">
+      <c r="C103" s="5"/>
+      <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
     </row>
     <row r="104">
+      <c r="C104" s="5"/>
+      <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
     </row>
     <row r="105">
+      <c r="C105" s="5"/>
+      <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
     </row>
     <row r="106">
+      <c r="C106" s="5"/>
+      <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
     </row>
     <row r="107">
+      <c r="C107" s="5"/>
+      <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
     </row>
     <row r="108">
+      <c r="C108" s="5"/>
+      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
     </row>
     <row r="109">
+      <c r="C109" s="5"/>
+      <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
     </row>
     <row r="110">
+      <c r="C110" s="5"/>
+      <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
     </row>
     <row r="111">
+      <c r="C111" s="5"/>
+      <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
     </row>
     <row r="112">
+      <c r="C112" s="5"/>
+      <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
     </row>
     <row r="113">
+      <c r="C113" s="5"/>
+      <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
     </row>
     <row r="114">
+      <c r="C114" s="5"/>
+      <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
     </row>
     <row r="115">
+      <c r="C115" s="5"/>
+      <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
     </row>
     <row r="116">
+      <c r="C116" s="5"/>
+      <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
     </row>
     <row r="117">
+      <c r="C117" s="5"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
     </row>
     <row r="118">
+      <c r="C118" s="5"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
     </row>
     <row r="119">
+      <c r="C119" s="5"/>
+      <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
     </row>
     <row r="120">
+      <c r="C120" s="5"/>
+      <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
     </row>
     <row r="121">
+      <c r="C121" s="5"/>
+      <c r="F121" s="4"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
     </row>
     <row r="122">
+      <c r="C122" s="5"/>
+      <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
     </row>
     <row r="123">
+      <c r="C123" s="5"/>
+      <c r="F123" s="4"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
     </row>
     <row r="124">
+      <c r="C124" s="5"/>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
     </row>
     <row r="125">
+      <c r="C125" s="5"/>
+      <c r="F125" s="4"/>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
     </row>
     <row r="126">
+      <c r="C126" s="5"/>
+      <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
     </row>
     <row r="127">
+      <c r="C127" s="5"/>
+      <c r="F127" s="4"/>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
     </row>
     <row r="128">
+      <c r="C128" s="5"/>
+      <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
     </row>
     <row r="129">
+      <c r="C129" s="5"/>
+      <c r="F129" s="4"/>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
     </row>
     <row r="130">
+      <c r="C130" s="5"/>
+      <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
     </row>
     <row r="131">
+      <c r="C131" s="5"/>
+      <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
     </row>
     <row r="132">
+      <c r="C132" s="5"/>
+      <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
     </row>
     <row r="133">
+      <c r="C133" s="5"/>
+      <c r="F133" s="4"/>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
     </row>
     <row r="134">
+      <c r="C134" s="5"/>
+      <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
     </row>
     <row r="135">
+      <c r="C135" s="5"/>
+      <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
     </row>
     <row r="136">
+      <c r="C136" s="5"/>
+      <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
     </row>
     <row r="137">
+      <c r="C137" s="5"/>
+      <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
     </row>
     <row r="138">
+      <c r="C138" s="5"/>
+      <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
     </row>
     <row r="139">
+      <c r="C139" s="5"/>
+      <c r="F139" s="4"/>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
     </row>
     <row r="140">
+      <c r="C140" s="5"/>
+      <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
     </row>
     <row r="141">
+      <c r="C141" s="5"/>
+      <c r="F141" s="4"/>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
     </row>
     <row r="142">
+      <c r="C142" s="5"/>
+      <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
     </row>
     <row r="143">
+      <c r="C143" s="5"/>
+      <c r="F143" s="4"/>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
     </row>
     <row r="144">
+      <c r="C144" s="5"/>
+      <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
     </row>
     <row r="145">
+      <c r="C145" s="5"/>
+      <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
     </row>
     <row r="146">
+      <c r="C146" s="5"/>
+      <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
     </row>
     <row r="147">
+      <c r="C147" s="5"/>
+      <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
     </row>
     <row r="148">
+      <c r="C148" s="5"/>
+      <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
     </row>
     <row r="149">
+      <c r="C149" s="5"/>
+      <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
     </row>
     <row r="150">
+      <c r="C150" s="5"/>
+      <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
     </row>
     <row r="151">
+      <c r="C151" s="5"/>
+      <c r="F151" s="4"/>
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
     </row>
     <row r="152">
+      <c r="C152" s="5"/>
+      <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
     </row>
     <row r="153">
+      <c r="C153" s="5"/>
+      <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
     </row>
     <row r="154">
+      <c r="C154" s="5"/>
+      <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
     </row>
     <row r="155">
+      <c r="C155" s="5"/>
+      <c r="F155" s="4"/>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
     </row>
     <row r="156">
+      <c r="C156" s="5"/>
+      <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
     </row>
     <row r="157">
+      <c r="C157" s="5"/>
+      <c r="F157" s="4"/>
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
     </row>
     <row r="158">
+      <c r="C158" s="5"/>
+      <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
     </row>
     <row r="159">
+      <c r="C159" s="5"/>
+      <c r="F159" s="4"/>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
     </row>
     <row r="160">
+      <c r="C160" s="5"/>
+      <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
     </row>
     <row r="161">
+      <c r="C161" s="5"/>
+      <c r="F161" s="4"/>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
     </row>
     <row r="162">
+      <c r="C162" s="5"/>
+      <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="4"/>
     </row>
     <row r="163">
+      <c r="C163" s="5"/>
+      <c r="F163" s="4"/>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
     </row>
     <row r="164">
+      <c r="C164" s="5"/>
+      <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
     </row>
     <row r="165">
+      <c r="C165" s="5"/>
+      <c r="F165" s="4"/>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
     </row>
     <row r="166">
+      <c r="C166" s="5"/>
+      <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
     </row>
     <row r="167">
+      <c r="C167" s="5"/>
+      <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
     </row>
     <row r="168">
+      <c r="C168" s="5"/>
+      <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
     </row>
     <row r="169">
+      <c r="C169" s="5"/>
+      <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
     </row>
     <row r="170">
+      <c r="C170" s="5"/>
+      <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
     </row>
     <row r="171">
+      <c r="C171" s="5"/>
+      <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
     </row>
     <row r="172">
+      <c r="C172" s="5"/>
+      <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
     </row>
     <row r="173">
+      <c r="C173" s="5"/>
+      <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
     </row>
     <row r="174">
+      <c r="C174" s="5"/>
+      <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
     </row>
     <row r="175">
+      <c r="C175" s="5"/>
+      <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
     </row>
     <row r="176">
+      <c r="C176" s="5"/>
+      <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
     </row>
     <row r="177">
+      <c r="C177" s="5"/>
+      <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-      <c r="I177" s="4"/>
     </row>
     <row r="178">
+      <c r="C178" s="5"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
     </row>
     <row r="179">
+      <c r="C179" s="5"/>
+      <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
     </row>
     <row r="180">
+      <c r="C180" s="5"/>
+      <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
     </row>
     <row r="181">
+      <c r="C181" s="5"/>
+      <c r="F181" s="4"/>
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
     </row>
     <row r="182">
+      <c r="C182" s="5"/>
+      <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
     </row>
     <row r="183">
+      <c r="C183" s="5"/>
+      <c r="F183" s="4"/>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
-      <c r="I183" s="4"/>
     </row>
     <row r="184">
+      <c r="C184" s="5"/>
+      <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
     </row>
     <row r="185">
+      <c r="C185" s="5"/>
+      <c r="F185" s="4"/>
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
     </row>
     <row r="186">
+      <c r="C186" s="5"/>
+      <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="4"/>
     </row>
     <row r="187">
+      <c r="C187" s="5"/>
+      <c r="F187" s="4"/>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
     </row>
     <row r="188">
+      <c r="C188" s="5"/>
+      <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="4"/>
     </row>
     <row r="189">
+      <c r="C189" s="5"/>
+      <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
-      <c r="I189" s="4"/>
     </row>
     <row r="190">
+      <c r="C190" s="5"/>
+      <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
     </row>
     <row r="191">
+      <c r="C191" s="5"/>
+      <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
-      <c r="I191" s="4"/>
     </row>
     <row r="192">
+      <c r="C192" s="5"/>
+      <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
-      <c r="I192" s="4"/>
     </row>
     <row r="193">
+      <c r="C193" s="5"/>
+      <c r="F193" s="4"/>
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
     </row>
     <row r="194">
+      <c r="C194" s="5"/>
+      <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="4"/>
     </row>
     <row r="195">
+      <c r="C195" s="5"/>
+      <c r="F195" s="4"/>
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-      <c r="I195" s="4"/>
     </row>
     <row r="196">
+      <c r="C196" s="5"/>
+      <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="4"/>
     </row>
     <row r="197">
+      <c r="C197" s="5"/>
+      <c r="F197" s="4"/>
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
-      <c r="I197" s="4"/>
     </row>
     <row r="198">
+      <c r="C198" s="5"/>
+      <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="4"/>
     </row>
     <row r="199">
+      <c r="C199" s="5"/>
+      <c r="F199" s="4"/>
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
-      <c r="I199" s="4"/>
     </row>
     <row r="200">
+      <c r="C200" s="5"/>
+      <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="4"/>
     </row>
     <row r="201">
+      <c r="C201" s="5"/>
+      <c r="F201" s="4"/>
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
     </row>
     <row r="202">
+      <c r="C202" s="5"/>
+      <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
-      <c r="I202" s="4"/>
     </row>
     <row r="203">
+      <c r="C203" s="5"/>
+      <c r="F203" s="4"/>
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
-      <c r="I203" s="4"/>
     </row>
     <row r="204">
+      <c r="C204" s="5"/>
+      <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
-      <c r="I204" s="4"/>
     </row>
     <row r="205">
+      <c r="C205" s="5"/>
+      <c r="F205" s="4"/>
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
-      <c r="I205" s="4"/>
     </row>
     <row r="206">
+      <c r="C206" s="5"/>
+      <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
-      <c r="I206" s="4"/>
     </row>
     <row r="207">
+      <c r="C207" s="5"/>
+      <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
-      <c r="I207" s="4"/>
     </row>
     <row r="208">
+      <c r="C208" s="5"/>
+      <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="4"/>
     </row>
     <row r="209">
+      <c r="C209" s="5"/>
+      <c r="F209" s="4"/>
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
-      <c r="I209" s="4"/>
     </row>
     <row r="210">
+      <c r="C210" s="5"/>
+      <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
-      <c r="I210" s="4"/>
     </row>
     <row r="211">
+      <c r="C211" s="5"/>
+      <c r="F211" s="4"/>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
-      <c r="I211" s="4"/>
     </row>
     <row r="212">
+      <c r="C212" s="5"/>
+      <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
-      <c r="I212" s="4"/>
     </row>
     <row r="213">
+      <c r="C213" s="5"/>
+      <c r="F213" s="4"/>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
-      <c r="I213" s="4"/>
     </row>
     <row r="214">
+      <c r="C214" s="5"/>
+      <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="4"/>
     </row>
     <row r="215">
+      <c r="C215" s="5"/>
+      <c r="F215" s="4"/>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
-      <c r="I215" s="4"/>
     </row>
     <row r="216">
+      <c r="C216" s="5"/>
+      <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
-      <c r="I216" s="4"/>
     </row>
     <row r="217">
+      <c r="C217" s="5"/>
+      <c r="F217" s="4"/>
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
-      <c r="I217" s="4"/>
     </row>
     <row r="218">
+      <c r="C218" s="5"/>
+      <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
-      <c r="I218" s="4"/>
     </row>
     <row r="219">
+      <c r="C219" s="5"/>
+      <c r="F219" s="4"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
-      <c r="I219" s="4"/>
     </row>
     <row r="220">
+      <c r="C220" s="5"/>
+      <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
-      <c r="I220" s="4"/>
     </row>
     <row r="221">
+      <c r="C221" s="5"/>
+      <c r="F221" s="4"/>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
     </row>
     <row r="222">
+      <c r="C222" s="5"/>
+      <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
-      <c r="I222" s="4"/>
     </row>
     <row r="223">
+      <c r="C223" s="5"/>
+      <c r="F223" s="4"/>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
-      <c r="I223" s="4"/>
     </row>
     <row r="224">
+      <c r="C224" s="5"/>
+      <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
-      <c r="I224" s="4"/>
     </row>
     <row r="225">
+      <c r="C225" s="5"/>
+      <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
-      <c r="I225" s="4"/>
     </row>
     <row r="226">
+      <c r="C226" s="5"/>
+      <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
-      <c r="I226" s="4"/>
     </row>
     <row r="227">
+      <c r="C227" s="5"/>
+      <c r="F227" s="4"/>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
-      <c r="I227" s="4"/>
     </row>
     <row r="228">
+      <c r="C228" s="5"/>
+      <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
-      <c r="I228" s="4"/>
     </row>
     <row r="229">
+      <c r="C229" s="5"/>
+      <c r="F229" s="4"/>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
-      <c r="I229" s="4"/>
     </row>
     <row r="230">
+      <c r="C230" s="5"/>
+      <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
-      <c r="I230" s="4"/>
     </row>
     <row r="231">
+      <c r="C231" s="5"/>
+      <c r="F231" s="4"/>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
-      <c r="I231" s="4"/>
     </row>
     <row r="232">
+      <c r="C232" s="5"/>
+      <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
-      <c r="I232" s="4"/>
     </row>
     <row r="233">
+      <c r="C233" s="5"/>
+      <c r="F233" s="4"/>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
-      <c r="I233" s="4"/>
     </row>
     <row r="234">
+      <c r="C234" s="5"/>
+      <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
-      <c r="I234" s="4"/>
     </row>
     <row r="235">
+      <c r="C235" s="5"/>
+      <c r="F235" s="4"/>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
-      <c r="I235" s="4"/>
     </row>
     <row r="236">
+      <c r="C236" s="5"/>
+      <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
-      <c r="I236" s="4"/>
     </row>
     <row r="237">
+      <c r="C237" s="5"/>
+      <c r="F237" s="4"/>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
-      <c r="I237" s="4"/>
     </row>
     <row r="238">
+      <c r="C238" s="5"/>
+      <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
-      <c r="I238" s="4"/>
     </row>
     <row r="239">
+      <c r="C239" s="5"/>
+      <c r="F239" s="4"/>
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
-      <c r="I239" s="4"/>
     </row>
     <row r="240">
+      <c r="C240" s="5"/>
+      <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
-      <c r="I240" s="4"/>
     </row>
     <row r="241">
+      <c r="C241" s="5"/>
+      <c r="F241" s="4"/>
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
-      <c r="I241" s="4"/>
     </row>
     <row r="242">
+      <c r="C242" s="5"/>
+      <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
-      <c r="I242" s="4"/>
     </row>
     <row r="243">
+      <c r="C243" s="5"/>
+      <c r="F243" s="4"/>
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
-      <c r="I243" s="4"/>
     </row>
     <row r="244">
+      <c r="C244" s="5"/>
+      <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
-      <c r="I244" s="4"/>
     </row>
     <row r="245">
+      <c r="C245" s="5"/>
+      <c r="F245" s="4"/>
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
-      <c r="I245" s="4"/>
     </row>
     <row r="246">
+      <c r="C246" s="5"/>
+      <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
-      <c r="I246" s="4"/>
     </row>
     <row r="247">
+      <c r="C247" s="5"/>
+      <c r="F247" s="4"/>
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
-      <c r="I247" s="4"/>
     </row>
     <row r="248">
+      <c r="C248" s="5"/>
+      <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
-      <c r="I248" s="4"/>
     </row>
     <row r="249">
+      <c r="C249" s="5"/>
+      <c r="F249" s="4"/>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
-      <c r="I249" s="4"/>
     </row>
     <row r="250">
+      <c r="C250" s="5"/>
+      <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
-      <c r="I250" s="4"/>
     </row>
     <row r="251">
+      <c r="C251" s="5"/>
+      <c r="F251" s="4"/>
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
-      <c r="I251" s="4"/>
     </row>
     <row r="252">
+      <c r="C252" s="5"/>
+      <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
-      <c r="I252" s="4"/>
     </row>
     <row r="253">
+      <c r="C253" s="5"/>
+      <c r="F253" s="4"/>
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
     </row>
     <row r="254">
+      <c r="C254" s="5"/>
+      <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
     </row>
     <row r="255">
+      <c r="C255" s="5"/>
+      <c r="F255" s="4"/>
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
     </row>
     <row r="256">
+      <c r="C256" s="5"/>
+      <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
     </row>
     <row r="257">
+      <c r="C257" s="5"/>
+      <c r="F257" s="4"/>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
-      <c r="I257" s="4"/>
     </row>
     <row r="258">
+      <c r="C258" s="5"/>
+      <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
-      <c r="I258" s="4"/>
     </row>
     <row r="259">
+      <c r="C259" s="5"/>
+      <c r="F259" s="4"/>
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
-      <c r="I259" s="4"/>
     </row>
     <row r="260">
+      <c r="C260" s="5"/>
+      <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
-      <c r="I260" s="4"/>
     </row>
     <row r="261">
+      <c r="C261" s="5"/>
+      <c r="F261" s="4"/>
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
-      <c r="I261" s="4"/>
     </row>
     <row r="262">
+      <c r="C262" s="5"/>
+      <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
-      <c r="I262" s="4"/>
     </row>
     <row r="263">
+      <c r="C263" s="5"/>
+      <c r="F263" s="4"/>
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
-      <c r="I263" s="4"/>
     </row>
     <row r="264">
+      <c r="C264" s="5"/>
+      <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
-      <c r="I264" s="4"/>
     </row>
     <row r="265">
+      <c r="C265" s="5"/>
+      <c r="F265" s="4"/>
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
-      <c r="I265" s="4"/>
     </row>
     <row r="266">
+      <c r="C266" s="5"/>
+      <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
-      <c r="I266" s="4"/>
     </row>
     <row r="267">
+      <c r="C267" s="5"/>
+      <c r="F267" s="4"/>
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
-      <c r="I267" s="4"/>
     </row>
     <row r="268">
+      <c r="C268" s="5"/>
+      <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
-      <c r="I268" s="4"/>
     </row>
     <row r="269">
+      <c r="C269" s="5"/>
+      <c r="F269" s="4"/>
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
-      <c r="I269" s="4"/>
     </row>
     <row r="270">
+      <c r="C270" s="5"/>
+      <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
-      <c r="I270" s="4"/>
     </row>
     <row r="271">
+      <c r="C271" s="5"/>
+      <c r="F271" s="4"/>
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
-      <c r="I271" s="4"/>
     </row>
     <row r="272">
+      <c r="C272" s="5"/>
+      <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
-      <c r="I272" s="4"/>
     </row>
     <row r="273">
+      <c r="C273" s="5"/>
+      <c r="F273" s="4"/>
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
-      <c r="I273" s="4"/>
     </row>
     <row r="274">
+      <c r="C274" s="5"/>
+      <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
-      <c r="I274" s="4"/>
     </row>
     <row r="275">
+      <c r="C275" s="5"/>
+      <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
-      <c r="I275" s="4"/>
     </row>
     <row r="276">
+      <c r="C276" s="5"/>
+      <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
-      <c r="I276" s="4"/>
     </row>
     <row r="277">
+      <c r="C277" s="5"/>
+      <c r="F277" s="4"/>
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
-      <c r="I277" s="4"/>
     </row>
     <row r="278">
+      <c r="C278" s="5"/>
+      <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
-      <c r="I278" s="4"/>
     </row>
     <row r="279">
+      <c r="C279" s="5"/>
+      <c r="F279" s="4"/>
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
-      <c r="I279" s="4"/>
     </row>
     <row r="280">
+      <c r="C280" s="5"/>
+      <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
-      <c r="I280" s="4"/>
     </row>
     <row r="281">
+      <c r="C281" s="5"/>
+      <c r="F281" s="4"/>
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
-      <c r="I281" s="4"/>
     </row>
     <row r="282">
+      <c r="C282" s="5"/>
+      <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
-      <c r="I282" s="4"/>
     </row>
     <row r="283">
+      <c r="C283" s="5"/>
+      <c r="F283" s="4"/>
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
-      <c r="I283" s="4"/>
     </row>
     <row r="284">
+      <c r="C284" s="5"/>
+      <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
-      <c r="I284" s="4"/>
     </row>
     <row r="285">
+      <c r="C285" s="5"/>
+      <c r="F285" s="4"/>
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
-      <c r="I285" s="4"/>
     </row>
     <row r="286">
+      <c r="C286" s="5"/>
+      <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
-      <c r="I286" s="4"/>
     </row>
     <row r="287">
+      <c r="C287" s="5"/>
+      <c r="F287" s="4"/>
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
-      <c r="I287" s="4"/>
     </row>
     <row r="288">
+      <c r="C288" s="5"/>
+      <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
-      <c r="I288" s="4"/>
     </row>
     <row r="289">
+      <c r="C289" s="5"/>
+      <c r="F289" s="4"/>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
-      <c r="I289" s="4"/>
     </row>
     <row r="290">
+      <c r="C290" s="5"/>
+      <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
-      <c r="I290" s="4"/>
     </row>
     <row r="291">
+      <c r="C291" s="5"/>
+      <c r="F291" s="4"/>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
-      <c r="I291" s="4"/>
     </row>
     <row r="292">
+      <c r="C292" s="5"/>
+      <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
-      <c r="I292" s="4"/>
     </row>
     <row r="293">
+      <c r="C293" s="5"/>
+      <c r="F293" s="4"/>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
-      <c r="I293" s="4"/>
     </row>
     <row r="294">
+      <c r="C294" s="5"/>
+      <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
-      <c r="I294" s="4"/>
     </row>
     <row r="295">
+      <c r="C295" s="5"/>
+      <c r="F295" s="4"/>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
-      <c r="I295" s="4"/>
     </row>
     <row r="296">
+      <c r="C296" s="5"/>
+      <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
-      <c r="I296" s="4"/>
     </row>
     <row r="297">
+      <c r="C297" s="5"/>
+      <c r="F297" s="4"/>
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
-      <c r="I297" s="4"/>
     </row>
     <row r="298">
+      <c r="C298" s="5"/>
+      <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
-      <c r="I298" s="4"/>
     </row>
     <row r="299">
+      <c r="C299" s="5"/>
+      <c r="F299" s="4"/>
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
-      <c r="I299" s="4"/>
     </row>
     <row r="300">
+      <c r="C300" s="5"/>
+      <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
-      <c r="I300" s="4"/>
     </row>
     <row r="301">
+      <c r="C301" s="5"/>
+      <c r="F301" s="4"/>
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
-      <c r="I301" s="4"/>
     </row>
     <row r="302">
+      <c r="C302" s="5"/>
+      <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
-      <c r="I302" s="4"/>
     </row>
     <row r="303">
+      <c r="C303" s="5"/>
+      <c r="F303" s="4"/>
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
-      <c r="I303" s="4"/>
     </row>
     <row r="304">
+      <c r="C304" s="5"/>
+      <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
-      <c r="I304" s="4"/>
     </row>
     <row r="305">
+      <c r="C305" s="5"/>
+      <c r="F305" s="4"/>
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
-      <c r="I305" s="4"/>
     </row>
     <row r="306">
+      <c r="C306" s="5"/>
+      <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
-      <c r="I306" s="4"/>
     </row>
     <row r="307">
+      <c r="C307" s="5"/>
+      <c r="F307" s="4"/>
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
-      <c r="I307" s="4"/>
     </row>
     <row r="308">
+      <c r="C308" s="5"/>
+      <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
-      <c r="I308" s="4"/>
     </row>
     <row r="309">
+      <c r="C309" s="5"/>
+      <c r="F309" s="4"/>
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
-      <c r="I309" s="4"/>
     </row>
     <row r="310">
+      <c r="C310" s="5"/>
+      <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
-      <c r="I310" s="4"/>
     </row>
     <row r="311">
+      <c r="C311" s="5"/>
+      <c r="F311" s="4"/>
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
-      <c r="I311" s="4"/>
     </row>
     <row r="312">
+      <c r="C312" s="5"/>
+      <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
-      <c r="I312" s="4"/>
     </row>
     <row r="313">
+      <c r="C313" s="5"/>
+      <c r="F313" s="4"/>
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
-      <c r="I313" s="4"/>
     </row>
     <row r="314">
+      <c r="C314" s="5"/>
+      <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
-      <c r="I314" s="4"/>
     </row>
     <row r="315">
+      <c r="C315" s="5"/>
+      <c r="F315" s="4"/>
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
-      <c r="I315" s="4"/>
     </row>
     <row r="316">
+      <c r="C316" s="5"/>
+      <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
-      <c r="I316" s="4"/>
     </row>
     <row r="317">
+      <c r="C317" s="5"/>
+      <c r="F317" s="4"/>
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
-      <c r="I317" s="4"/>
     </row>
     <row r="318">
+      <c r="C318" s="5"/>
+      <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
-      <c r="I318" s="4"/>
     </row>
     <row r="319">
+      <c r="C319" s="5"/>
+      <c r="F319" s="4"/>
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
-      <c r="I319" s="4"/>
     </row>
     <row r="320">
+      <c r="C320" s="5"/>
+      <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
-      <c r="I320" s="4"/>
     </row>
     <row r="321">
+      <c r="C321" s="5"/>
+      <c r="F321" s="4"/>
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
-      <c r="I321" s="4"/>
     </row>
     <row r="322">
+      <c r="C322" s="5"/>
+      <c r="F322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
-      <c r="I322" s="4"/>
     </row>
     <row r="323">
+      <c r="C323" s="5"/>
+      <c r="F323" s="4"/>
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
-      <c r="I323" s="4"/>
     </row>
     <row r="324">
+      <c r="C324" s="5"/>
+      <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
-      <c r="I324" s="4"/>
     </row>
     <row r="325">
+      <c r="C325" s="5"/>
+      <c r="F325" s="4"/>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
-      <c r="I325" s="4"/>
     </row>
     <row r="326">
+      <c r="C326" s="5"/>
+      <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
-      <c r="I326" s="4"/>
     </row>
     <row r="327">
+      <c r="C327" s="5"/>
+      <c r="F327" s="4"/>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
-      <c r="I327" s="4"/>
     </row>
     <row r="328">
+      <c r="C328" s="5"/>
+      <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
-      <c r="I328" s="4"/>
     </row>
     <row r="329">
+      <c r="C329" s="5"/>
+      <c r="F329" s="4"/>
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
-      <c r="I329" s="4"/>
     </row>
     <row r="330">
+      <c r="C330" s="5"/>
+      <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
-      <c r="I330" s="4"/>
     </row>
     <row r="331">
+      <c r="C331" s="5"/>
+      <c r="F331" s="4"/>
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
-      <c r="I331" s="4"/>
     </row>
     <row r="332">
+      <c r="C332" s="5"/>
+      <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
-      <c r="I332" s="4"/>
     </row>
     <row r="333">
+      <c r="C333" s="5"/>
+      <c r="F333" s="4"/>
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
-      <c r="I333" s="4"/>
     </row>
     <row r="334">
+      <c r="C334" s="5"/>
+      <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
-      <c r="I334" s="4"/>
     </row>
     <row r="335">
+      <c r="C335" s="5"/>
+      <c r="F335" s="4"/>
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
-      <c r="I335" s="4"/>
     </row>
     <row r="336">
+      <c r="C336" s="5"/>
+      <c r="F336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
-      <c r="I336" s="4"/>
     </row>
     <row r="337">
+      <c r="C337" s="5"/>
+      <c r="F337" s="4"/>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
-      <c r="I337" s="4"/>
     </row>
     <row r="338">
+      <c r="C338" s="5"/>
+      <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
-      <c r="I338" s="4"/>
     </row>
     <row r="339">
+      <c r="C339" s="5"/>
+      <c r="F339" s="4"/>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
-      <c r="I339" s="4"/>
     </row>
     <row r="340">
+      <c r="C340" s="5"/>
+      <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
-      <c r="I340" s="4"/>
     </row>
     <row r="341">
+      <c r="C341" s="5"/>
+      <c r="F341" s="4"/>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
-      <c r="I341" s="4"/>
     </row>
     <row r="342">
+      <c r="C342" s="5"/>
+      <c r="F342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
-      <c r="I342" s="4"/>
     </row>
     <row r="343">
+      <c r="C343" s="5"/>
+      <c r="F343" s="4"/>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
-      <c r="I343" s="4"/>
     </row>
     <row r="344">
+      <c r="C344" s="5"/>
+      <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
-      <c r="I344" s="4"/>
     </row>
     <row r="345">
+      <c r="C345" s="5"/>
+      <c r="F345" s="4"/>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
-      <c r="I345" s="4"/>
     </row>
     <row r="346">
+      <c r="C346" s="5"/>
+      <c r="F346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
-      <c r="I346" s="4"/>
     </row>
     <row r="347">
+      <c r="C347" s="5"/>
+      <c r="F347" s="4"/>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
-      <c r="I347" s="4"/>
     </row>
     <row r="348">
+      <c r="C348" s="5"/>
+      <c r="F348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
-      <c r="I348" s="4"/>
     </row>
     <row r="349">
+      <c r="C349" s="5"/>
+      <c r="F349" s="4"/>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
-      <c r="I349" s="4"/>
     </row>
     <row r="350">
+      <c r="C350" s="5"/>
+      <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
-      <c r="I350" s="4"/>
     </row>
     <row r="351">
+      <c r="C351" s="5"/>
+      <c r="F351" s="4"/>
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
-      <c r="I351" s="4"/>
     </row>
     <row r="352">
+      <c r="C352" s="5"/>
+      <c r="F352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
-      <c r="I352" s="4"/>
     </row>
     <row r="353">
+      <c r="C353" s="5"/>
+      <c r="F353" s="4"/>
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
-      <c r="I353" s="4"/>
     </row>
     <row r="354">
+      <c r="C354" s="5"/>
+      <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
-      <c r="I354" s="4"/>
     </row>
     <row r="355">
+      <c r="C355" s="5"/>
+      <c r="F355" s="4"/>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
-      <c r="I355" s="4"/>
     </row>
     <row r="356">
+      <c r="C356" s="5"/>
+      <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
-      <c r="I356" s="4"/>
     </row>
     <row r="357">
+      <c r="C357" s="5"/>
+      <c r="F357" s="4"/>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
-      <c r="I357" s="4"/>
     </row>
     <row r="358">
+      <c r="C358" s="5"/>
+      <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
-      <c r="I358" s="4"/>
     </row>
     <row r="359">
+      <c r="C359" s="5"/>
+      <c r="F359" s="4"/>
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
-      <c r="I359" s="4"/>
     </row>
     <row r="360">
+      <c r="C360" s="5"/>
+      <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
-      <c r="I360" s="4"/>
     </row>
     <row r="361">
+      <c r="C361" s="5"/>
+      <c r="F361" s="4"/>
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
-      <c r="I361" s="4"/>
     </row>
     <row r="362">
+      <c r="C362" s="5"/>
+      <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
-      <c r="I362" s="4"/>
     </row>
     <row r="363">
+      <c r="C363" s="5"/>
+      <c r="F363" s="4"/>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
-      <c r="I363" s="4"/>
     </row>
     <row r="364">
+      <c r="C364" s="5"/>
+      <c r="F364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
-      <c r="I364" s="4"/>
     </row>
     <row r="365">
+      <c r="C365" s="5"/>
+      <c r="F365" s="4"/>
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
-      <c r="I365" s="4"/>
     </row>
     <row r="366">
+      <c r="C366" s="5"/>
+      <c r="F366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
-      <c r="I366" s="4"/>
     </row>
     <row r="367">
+      <c r="C367" s="5"/>
+      <c r="F367" s="4"/>
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
-      <c r="I367" s="4"/>
     </row>
     <row r="368">
+      <c r="C368" s="5"/>
+      <c r="F368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
-      <c r="I368" s="4"/>
     </row>
     <row r="369">
+      <c r="C369" s="5"/>
+      <c r="F369" s="4"/>
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
-      <c r="I369" s="4"/>
     </row>
     <row r="370">
+      <c r="C370" s="5"/>
+      <c r="F370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
-      <c r="I370" s="4"/>
     </row>
     <row r="371">
+      <c r="C371" s="5"/>
+      <c r="F371" s="4"/>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
-      <c r="I371" s="4"/>
     </row>
     <row r="372">
+      <c r="C372" s="5"/>
+      <c r="F372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
-      <c r="I372" s="4"/>
     </row>
     <row r="373">
+      <c r="C373" s="5"/>
+      <c r="F373" s="4"/>
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
-      <c r="I373" s="4"/>
     </row>
     <row r="374">
+      <c r="C374" s="5"/>
+      <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
-      <c r="I374" s="4"/>
     </row>
     <row r="375">
+      <c r="C375" s="5"/>
+      <c r="F375" s="4"/>
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
-      <c r="I375" s="4"/>
     </row>
     <row r="376">
+      <c r="C376" s="5"/>
+      <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
-      <c r="I376" s="4"/>
     </row>
     <row r="377">
+      <c r="C377" s="5"/>
+      <c r="F377" s="4"/>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
-      <c r="I377" s="4"/>
     </row>
     <row r="378">
+      <c r="C378" s="5"/>
+      <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
-      <c r="I378" s="4"/>
     </row>
     <row r="379">
+      <c r="C379" s="5"/>
+      <c r="F379" s="4"/>
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
-      <c r="I379" s="4"/>
     </row>
     <row r="380">
+      <c r="C380" s="5"/>
+      <c r="F380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
-      <c r="I380" s="4"/>
     </row>
     <row r="381">
+      <c r="C381" s="5"/>
+      <c r="F381" s="4"/>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
-      <c r="I381" s="4"/>
     </row>
     <row r="382">
+      <c r="C382" s="5"/>
+      <c r="F382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
-      <c r="I382" s="4"/>
     </row>
     <row r="383">
+      <c r="C383" s="5"/>
+      <c r="F383" s="4"/>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
-      <c r="I383" s="4"/>
     </row>
     <row r="384">
+      <c r="C384" s="5"/>
+      <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
-      <c r="I384" s="4"/>
     </row>
     <row r="385">
+      <c r="C385" s="5"/>
+      <c r="F385" s="4"/>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
-      <c r="I385" s="4"/>
     </row>
     <row r="386">
+      <c r="C386" s="5"/>
+      <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
-      <c r="I386" s="4"/>
     </row>
     <row r="387">
+      <c r="C387" s="5"/>
+      <c r="F387" s="4"/>
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
-      <c r="I387" s="4"/>
     </row>
     <row r="388">
+      <c r="C388" s="5"/>
+      <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
-      <c r="I388" s="4"/>
     </row>
     <row r="389">
+      <c r="C389" s="5"/>
+      <c r="F389" s="4"/>
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
-      <c r="I389" s="4"/>
     </row>
     <row r="390">
+      <c r="C390" s="5"/>
+      <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
-      <c r="I390" s="4"/>
     </row>
     <row r="391">
+      <c r="C391" s="5"/>
+      <c r="F391" s="4"/>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
-      <c r="I391" s="4"/>
     </row>
     <row r="392">
+      <c r="C392" s="5"/>
+      <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
-      <c r="I392" s="4"/>
     </row>
     <row r="393">
+      <c r="C393" s="5"/>
+      <c r="F393" s="4"/>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
-      <c r="I393" s="4"/>
     </row>
     <row r="394">
+      <c r="C394" s="5"/>
+      <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
-      <c r="I394" s="4"/>
     </row>
     <row r="395">
+      <c r="C395" s="5"/>
+      <c r="F395" s="4"/>
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
-      <c r="I395" s="4"/>
     </row>
     <row r="396">
+      <c r="C396" s="5"/>
+      <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
-      <c r="I396" s="4"/>
     </row>
     <row r="397">
+      <c r="C397" s="5"/>
+      <c r="F397" s="4"/>
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
-      <c r="I397" s="4"/>
     </row>
     <row r="398">
+      <c r="C398" s="5"/>
+      <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
-      <c r="I398" s="4"/>
     </row>
     <row r="399">
+      <c r="C399" s="5"/>
+      <c r="F399" s="4"/>
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
-      <c r="I399" s="4"/>
     </row>
     <row r="400">
+      <c r="C400" s="5"/>
+      <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
-      <c r="I400" s="4"/>
     </row>
     <row r="401">
+      <c r="C401" s="5"/>
+      <c r="F401" s="4"/>
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
-      <c r="I401" s="4"/>
     </row>
     <row r="402">
+      <c r="C402" s="5"/>
+      <c r="F402" s="4"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
-      <c r="I402" s="4"/>
     </row>
     <row r="403">
+      <c r="C403" s="5"/>
+      <c r="F403" s="4"/>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
-      <c r="I403" s="4"/>
     </row>
     <row r="404">
+      <c r="C404" s="5"/>
+      <c r="F404" s="4"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
-      <c r="I404" s="4"/>
     </row>
     <row r="405">
+      <c r="C405" s="5"/>
+      <c r="F405" s="4"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
-      <c r="I405" s="4"/>
     </row>
     <row r="406">
+      <c r="C406" s="5"/>
+      <c r="F406" s="4"/>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
-      <c r="I406" s="4"/>
     </row>
     <row r="407">
+      <c r="C407" s="5"/>
+      <c r="F407" s="4"/>
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
-      <c r="I407" s="4"/>
     </row>
     <row r="408">
+      <c r="C408" s="5"/>
+      <c r="F408" s="4"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
-      <c r="I408" s="4"/>
     </row>
     <row r="409">
+      <c r="C409" s="5"/>
+      <c r="F409" s="4"/>
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
-      <c r="I409" s="4"/>
     </row>
     <row r="410">
+      <c r="C410" s="5"/>
+      <c r="F410" s="4"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
-      <c r="I410" s="4"/>
     </row>
     <row r="411">
+      <c r="C411" s="5"/>
+      <c r="F411" s="4"/>
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
-      <c r="I411" s="4"/>
     </row>
     <row r="412">
+      <c r="C412" s="5"/>
+      <c r="F412" s="4"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
-      <c r="I412" s="4"/>
     </row>
     <row r="413">
+      <c r="C413" s="5"/>
+      <c r="F413" s="4"/>
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
-      <c r="I413" s="4"/>
     </row>
     <row r="414">
+      <c r="C414" s="5"/>
+      <c r="F414" s="4"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
-      <c r="I414" s="4"/>
     </row>
     <row r="415">
+      <c r="C415" s="5"/>
+      <c r="F415" s="4"/>
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
-      <c r="I415" s="4"/>
     </row>
     <row r="416">
+      <c r="C416" s="5"/>
+      <c r="F416" s="4"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
-      <c r="I416" s="4"/>
     </row>
     <row r="417">
+      <c r="C417" s="5"/>
+      <c r="F417" s="4"/>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
-      <c r="I417" s="4"/>
     </row>
     <row r="418">
+      <c r="C418" s="5"/>
+      <c r="F418" s="4"/>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
-      <c r="I418" s="4"/>
     </row>
     <row r="419">
+      <c r="C419" s="5"/>
+      <c r="F419" s="4"/>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
-      <c r="I419" s="4"/>
     </row>
     <row r="420">
+      <c r="C420" s="5"/>
+      <c r="F420" s="4"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
-      <c r="I420" s="4"/>
     </row>
     <row r="421">
+      <c r="C421" s="5"/>
+      <c r="F421" s="4"/>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
-      <c r="I421" s="4"/>
     </row>
     <row r="422">
+      <c r="C422" s="5"/>
+      <c r="F422" s="4"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
-      <c r="I422" s="4"/>
     </row>
     <row r="423">
+      <c r="C423" s="5"/>
+      <c r="F423" s="4"/>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
-      <c r="I423" s="4"/>
     </row>
     <row r="424">
+      <c r="C424" s="5"/>
+      <c r="F424" s="4"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
-      <c r="I424" s="4"/>
     </row>
     <row r="425">
+      <c r="C425" s="5"/>
+      <c r="F425" s="4"/>
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
-      <c r="I425" s="4"/>
     </row>
     <row r="426">
+      <c r="C426" s="5"/>
+      <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
-      <c r="I426" s="4"/>
     </row>
     <row r="427">
+      <c r="C427" s="5"/>
+      <c r="F427" s="4"/>
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
-      <c r="I427" s="4"/>
     </row>
     <row r="428">
+      <c r="C428" s="5"/>
+      <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
-      <c r="I428" s="4"/>
     </row>
     <row r="429">
+      <c r="C429" s="5"/>
+      <c r="F429" s="4"/>
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
-      <c r="I429" s="4"/>
     </row>
     <row r="430">
+      <c r="C430" s="5"/>
+      <c r="F430" s="4"/>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
-      <c r="I430" s="4"/>
     </row>
     <row r="431">
+      <c r="C431" s="5"/>
+      <c r="F431" s="4"/>
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
-      <c r="I431" s="4"/>
     </row>
     <row r="432">
+      <c r="C432" s="5"/>
+      <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
-      <c r="I432" s="4"/>
     </row>
     <row r="433">
+      <c r="C433" s="5"/>
+      <c r="F433" s="4"/>
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
-      <c r="I433" s="4"/>
     </row>
     <row r="434">
+      <c r="C434" s="5"/>
+      <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
-      <c r="I434" s="4"/>
     </row>
     <row r="435">
+      <c r="C435" s="5"/>
+      <c r="F435" s="4"/>
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
-      <c r="I435" s="4"/>
     </row>
     <row r="436">
+      <c r="C436" s="5"/>
+      <c r="F436" s="4"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
-      <c r="I436" s="4"/>
     </row>
     <row r="437">
+      <c r="C437" s="5"/>
+      <c r="F437" s="4"/>
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
-      <c r="I437" s="4"/>
     </row>
     <row r="438">
+      <c r="C438" s="5"/>
+      <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
-      <c r="I438" s="4"/>
     </row>
     <row r="439">
+      <c r="C439" s="5"/>
+      <c r="F439" s="4"/>
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
-      <c r="I439" s="4"/>
     </row>
     <row r="440">
+      <c r="C440" s="5"/>
+      <c r="F440" s="4"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
-      <c r="I440" s="4"/>
     </row>
     <row r="441">
+      <c r="C441" s="5"/>
+      <c r="F441" s="4"/>
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
-      <c r="I441" s="4"/>
     </row>
     <row r="442">
+      <c r="C442" s="5"/>
+      <c r="F442" s="4"/>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
-      <c r="I442" s="4"/>
     </row>
     <row r="443">
+      <c r="C443" s="5"/>
+      <c r="F443" s="4"/>
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
-      <c r="I443" s="4"/>
     </row>
     <row r="444">
+      <c r="C444" s="5"/>
+      <c r="F444" s="4"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
-      <c r="I444" s="4"/>
     </row>
     <row r="445">
+      <c r="C445" s="5"/>
+      <c r="F445" s="4"/>
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
-      <c r="I445" s="4"/>
     </row>
     <row r="446">
+      <c r="C446" s="5"/>
+      <c r="F446" s="4"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
-      <c r="I446" s="4"/>
     </row>
     <row r="447">
+      <c r="C447" s="5"/>
+      <c r="F447" s="4"/>
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
-      <c r="I447" s="4"/>
     </row>
     <row r="448">
+      <c r="C448" s="5"/>
+      <c r="F448" s="4"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
-      <c r="I448" s="4"/>
     </row>
     <row r="449">
+      <c r="C449" s="5"/>
+      <c r="F449" s="4"/>
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
-      <c r="I449" s="4"/>
     </row>
     <row r="450">
+      <c r="C450" s="5"/>
+      <c r="F450" s="4"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
-      <c r="I450" s="4"/>
     </row>
     <row r="451">
+      <c r="C451" s="5"/>
+      <c r="F451" s="4"/>
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
-      <c r="I451" s="4"/>
     </row>
     <row r="452">
+      <c r="C452" s="5"/>
+      <c r="F452" s="4"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
-      <c r="I452" s="4"/>
     </row>
     <row r="453">
+      <c r="C453" s="5"/>
+      <c r="F453" s="4"/>
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
-      <c r="I453" s="4"/>
     </row>
     <row r="454">
+      <c r="C454" s="5"/>
+      <c r="F454" s="4"/>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
-      <c r="I454" s="4"/>
     </row>
     <row r="455">
+      <c r="C455" s="5"/>
+      <c r="F455" s="4"/>
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
-      <c r="I455" s="4"/>
     </row>
     <row r="456">
+      <c r="C456" s="5"/>
+      <c r="F456" s="4"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
-      <c r="I456" s="4"/>
     </row>
     <row r="457">
+      <c r="C457" s="5"/>
+      <c r="F457" s="4"/>
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
-      <c r="I457" s="4"/>
     </row>
     <row r="458">
+      <c r="C458" s="5"/>
+      <c r="F458" s="4"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
-      <c r="I458" s="4"/>
     </row>
     <row r="459">
+      <c r="C459" s="5"/>
+      <c r="F459" s="4"/>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
-      <c r="I459" s="4"/>
     </row>
     <row r="460">
+      <c r="C460" s="5"/>
+      <c r="F460" s="4"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
-      <c r="I460" s="4"/>
     </row>
     <row r="461">
+      <c r="C461" s="5"/>
+      <c r="F461" s="4"/>
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
-      <c r="I461" s="4"/>
     </row>
     <row r="462">
+      <c r="C462" s="5"/>
+      <c r="F462" s="4"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
-      <c r="I462" s="4"/>
     </row>
     <row r="463">
+      <c r="C463" s="5"/>
+      <c r="F463" s="4"/>
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
-      <c r="I463" s="4"/>
     </row>
     <row r="464">
+      <c r="C464" s="5"/>
+      <c r="F464" s="4"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
-      <c r="I464" s="4"/>
     </row>
     <row r="465">
+      <c r="C465" s="5"/>
+      <c r="F465" s="4"/>
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
-      <c r="I465" s="4"/>
     </row>
     <row r="466">
+      <c r="C466" s="5"/>
+      <c r="F466" s="4"/>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
-      <c r="I466" s="4"/>
     </row>
     <row r="467">
+      <c r="C467" s="5"/>
+      <c r="F467" s="4"/>
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
-      <c r="I467" s="4"/>
     </row>
     <row r="468">
+      <c r="C468" s="5"/>
+      <c r="F468" s="4"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
-      <c r="I468" s="4"/>
     </row>
     <row r="469">
+      <c r="C469" s="5"/>
+      <c r="F469" s="4"/>
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
-      <c r="I469" s="4"/>
     </row>
     <row r="470">
+      <c r="C470" s="5"/>
+      <c r="F470" s="4"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
-      <c r="I470" s="4"/>
     </row>
     <row r="471">
+      <c r="C471" s="5"/>
+      <c r="F471" s="4"/>
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
-      <c r="I471" s="4"/>
     </row>
     <row r="472">
+      <c r="C472" s="5"/>
+      <c r="F472" s="4"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
-      <c r="I472" s="4"/>
     </row>
     <row r="473">
+      <c r="C473" s="5"/>
+      <c r="F473" s="4"/>
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
-      <c r="I473" s="4"/>
     </row>
     <row r="474">
+      <c r="C474" s="5"/>
+      <c r="F474" s="4"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
-      <c r="I474" s="4"/>
     </row>
     <row r="475">
+      <c r="C475" s="5"/>
+      <c r="F475" s="4"/>
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
-      <c r="I475" s="4"/>
     </row>
     <row r="476">
+      <c r="C476" s="5"/>
+      <c r="F476" s="4"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
-      <c r="I476" s="4"/>
     </row>
     <row r="477">
+      <c r="C477" s="5"/>
+      <c r="F477" s="4"/>
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
-      <c r="I477" s="4"/>
     </row>
     <row r="478">
+      <c r="C478" s="5"/>
+      <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
-      <c r="I478" s="4"/>
     </row>
     <row r="479">
+      <c r="C479" s="5"/>
+      <c r="F479" s="4"/>
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
-      <c r="I479" s="4"/>
     </row>
     <row r="480">
+      <c r="C480" s="5"/>
+      <c r="F480" s="4"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
-      <c r="I480" s="4"/>
     </row>
     <row r="481">
+      <c r="C481" s="5"/>
+      <c r="F481" s="4"/>
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
-      <c r="I481" s="4"/>
     </row>
     <row r="482">
+      <c r="C482" s="5"/>
+      <c r="F482" s="4"/>
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
-      <c r="I482" s="4"/>
     </row>
     <row r="483">
+      <c r="C483" s="5"/>
+      <c r="F483" s="4"/>
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
-      <c r="I483" s="4"/>
     </row>
     <row r="484">
+      <c r="C484" s="5"/>
+      <c r="F484" s="4"/>
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
-      <c r="I484" s="4"/>
     </row>
     <row r="485">
+      <c r="C485" s="5"/>
+      <c r="F485" s="4"/>
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
-      <c r="I485" s="4"/>
     </row>
     <row r="486">
+      <c r="C486" s="5"/>
+      <c r="F486" s="4"/>
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
-      <c r="I486" s="4"/>
     </row>
     <row r="487">
+      <c r="C487" s="5"/>
+      <c r="F487" s="4"/>
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
-      <c r="I487" s="4"/>
     </row>
     <row r="488">
+      <c r="C488" s="5"/>
+      <c r="F488" s="4"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
-      <c r="I488" s="4"/>
     </row>
     <row r="489">
+      <c r="C489" s="5"/>
+      <c r="F489" s="4"/>
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
-      <c r="I489" s="4"/>
     </row>
     <row r="490">
+      <c r="C490" s="5"/>
+      <c r="F490" s="4"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
-      <c r="I490" s="4"/>
     </row>
     <row r="491">
+      <c r="C491" s="5"/>
+      <c r="F491" s="4"/>
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
-      <c r="I491" s="4"/>
     </row>
     <row r="492">
+      <c r="C492" s="5"/>
+      <c r="F492" s="4"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
-      <c r="I492" s="4"/>
     </row>
     <row r="493">
+      <c r="C493" s="5"/>
+      <c r="F493" s="4"/>
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
-      <c r="I493" s="4"/>
     </row>
     <row r="494">
+      <c r="C494" s="5"/>
+      <c r="F494" s="4"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
-      <c r="I494" s="4"/>
     </row>
     <row r="495">
+      <c r="C495" s="5"/>
+      <c r="F495" s="4"/>
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
-      <c r="I495" s="4"/>
     </row>
     <row r="496">
+      <c r="C496" s="5"/>
+      <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
-      <c r="I496" s="4"/>
     </row>
     <row r="497">
+      <c r="C497" s="5"/>
+      <c r="F497" s="4"/>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
-      <c r="I497" s="4"/>
     </row>
     <row r="498">
+      <c r="C498" s="5"/>
+      <c r="F498" s="4"/>
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
-      <c r="I498" s="4"/>
     </row>
     <row r="499">
+      <c r="C499" s="5"/>
+      <c r="F499" s="4"/>
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
-      <c r="I499" s="4"/>
     </row>
     <row r="500">
+      <c r="C500" s="5"/>
+      <c r="F500" s="4"/>
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
-      <c r="I500" s="4"/>
     </row>
     <row r="501">
+      <c r="C501" s="5"/>
+      <c r="F501" s="4"/>
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
-      <c r="I501" s="4"/>
     </row>
     <row r="502">
+      <c r="C502" s="5"/>
+      <c r="F502" s="4"/>
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
-      <c r="I502" s="4"/>
     </row>
     <row r="503">
+      <c r="C503" s="5"/>
+      <c r="F503" s="4"/>
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
-      <c r="I503" s="4"/>
     </row>
     <row r="504">
+      <c r="C504" s="5"/>
+      <c r="F504" s="4"/>
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
-      <c r="I504" s="4"/>
     </row>
     <row r="505">
+      <c r="C505" s="5"/>
+      <c r="F505" s="4"/>
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
-      <c r="I505" s="4"/>
     </row>
     <row r="506">
+      <c r="C506" s="5"/>
+      <c r="F506" s="4"/>
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
-      <c r="I506" s="4"/>
     </row>
     <row r="507">
+      <c r="C507" s="5"/>
+      <c r="F507" s="4"/>
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
-      <c r="I507" s="4"/>
     </row>
     <row r="508">
+      <c r="C508" s="5"/>
+      <c r="F508" s="4"/>
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
-      <c r="I508" s="4"/>
     </row>
     <row r="509">
+      <c r="C509" s="5"/>
+      <c r="F509" s="4"/>
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
-      <c r="I509" s="4"/>
     </row>
     <row r="510">
+      <c r="C510" s="5"/>
+      <c r="F510" s="4"/>
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
-      <c r="I510" s="4"/>
     </row>
     <row r="511">
+      <c r="C511" s="5"/>
+      <c r="F511" s="4"/>
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
-      <c r="I511" s="4"/>
     </row>
     <row r="512">
+      <c r="C512" s="5"/>
+      <c r="F512" s="4"/>
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
-      <c r="I512" s="4"/>
     </row>
     <row r="513">
+      <c r="C513" s="5"/>
+      <c r="F513" s="4"/>
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
-      <c r="I513" s="4"/>
     </row>
     <row r="514">
+      <c r="C514" s="5"/>
+      <c r="F514" s="4"/>
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
-      <c r="I514" s="4"/>
     </row>
     <row r="515">
+      <c r="C515" s="5"/>
+      <c r="F515" s="4"/>
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
-      <c r="I515" s="4"/>
     </row>
     <row r="516">
+      <c r="C516" s="5"/>
+      <c r="F516" s="4"/>
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
-      <c r="I516" s="4"/>
     </row>
     <row r="517">
+      <c r="C517" s="5"/>
+      <c r="F517" s="4"/>
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
-      <c r="I517" s="4"/>
     </row>
     <row r="518">
+      <c r="C518" s="5"/>
+      <c r="F518" s="4"/>
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
-      <c r="I518" s="4"/>
     </row>
     <row r="519">
+      <c r="C519" s="5"/>
+      <c r="F519" s="4"/>
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
-      <c r="I519" s="4"/>
     </row>
     <row r="520">
+      <c r="C520" s="5"/>
+      <c r="F520" s="4"/>
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
-      <c r="I520" s="4"/>
     </row>
     <row r="521">
+      <c r="C521" s="5"/>
+      <c r="F521" s="4"/>
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
-      <c r="I521" s="4"/>
     </row>
     <row r="522">
+      <c r="C522" s="5"/>
+      <c r="F522" s="4"/>
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
-      <c r="I522" s="4"/>
     </row>
     <row r="523">
+      <c r="C523" s="5"/>
+      <c r="F523" s="4"/>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
-      <c r="I523" s="4"/>
     </row>
     <row r="524">
+      <c r="C524" s="5"/>
+      <c r="F524" s="4"/>
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
-      <c r="I524" s="4"/>
     </row>
     <row r="525">
+      <c r="C525" s="5"/>
+      <c r="F525" s="4"/>
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
-      <c r="I525" s="4"/>
     </row>
     <row r="526">
+      <c r="C526" s="5"/>
+      <c r="F526" s="4"/>
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
-      <c r="I526" s="4"/>
     </row>
     <row r="527">
+      <c r="C527" s="5"/>
+      <c r="F527" s="4"/>
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
-      <c r="I527" s="4"/>
     </row>
     <row r="528">
+      <c r="C528" s="5"/>
+      <c r="F528" s="4"/>
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
-      <c r="I528" s="4"/>
     </row>
     <row r="529">
+      <c r="C529" s="5"/>
+      <c r="F529" s="4"/>
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
-      <c r="I529" s="4"/>
     </row>
     <row r="530">
+      <c r="C530" s="5"/>
+      <c r="F530" s="4"/>
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
-      <c r="I530" s="4"/>
     </row>
     <row r="531">
+      <c r="C531" s="5"/>
+      <c r="F531" s="4"/>
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
-      <c r="I531" s="4"/>
     </row>
     <row r="532">
+      <c r="C532" s="5"/>
+      <c r="F532" s="4"/>
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
-      <c r="I532" s="4"/>
     </row>
     <row r="533">
+      <c r="C533" s="5"/>
+      <c r="F533" s="4"/>
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
-      <c r="I533" s="4"/>
     </row>
     <row r="534">
+      <c r="C534" s="5"/>
+      <c r="F534" s="4"/>
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
-      <c r="I534" s="4"/>
     </row>
     <row r="535">
+      <c r="C535" s="5"/>
+      <c r="F535" s="4"/>
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
-      <c r="I535" s="4"/>
     </row>
     <row r="536">
+      <c r="C536" s="5"/>
+      <c r="F536" s="4"/>
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
-      <c r="I536" s="4"/>
     </row>
     <row r="537">
+      <c r="C537" s="5"/>
+      <c r="F537" s="4"/>
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
-      <c r="I537" s="4"/>
     </row>
     <row r="538">
+      <c r="C538" s="5"/>
+      <c r="F538" s="4"/>
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
-      <c r="I538" s="4"/>
     </row>
     <row r="539">
+      <c r="C539" s="5"/>
+      <c r="F539" s="4"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
-      <c r="I539" s="4"/>
     </row>
     <row r="540">
+      <c r="C540" s="5"/>
+      <c r="F540" s="4"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
-      <c r="I540" s="4"/>
     </row>
     <row r="541">
+      <c r="C541" s="5"/>
+      <c r="F541" s="4"/>
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
-      <c r="I541" s="4"/>
     </row>
     <row r="542">
+      <c r="C542" s="5"/>
+      <c r="F542" s="4"/>
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
-      <c r="I542" s="4"/>
     </row>
     <row r="543">
+      <c r="C543" s="5"/>
+      <c r="F543" s="4"/>
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
-      <c r="I543" s="4"/>
     </row>
     <row r="544">
+      <c r="C544" s="5"/>
+      <c r="F544" s="4"/>
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
-      <c r="I544" s="4"/>
     </row>
     <row r="545">
+      <c r="C545" s="5"/>
+      <c r="F545" s="4"/>
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
-      <c r="I545" s="4"/>
     </row>
     <row r="546">
+      <c r="C546" s="5"/>
+      <c r="F546" s="4"/>
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
-      <c r="I546" s="4"/>
     </row>
     <row r="547">
+      <c r="C547" s="5"/>
+      <c r="F547" s="4"/>
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
-      <c r="I547" s="4"/>
     </row>
     <row r="548">
+      <c r="C548" s="5"/>
+      <c r="F548" s="4"/>
       <c r="G548" s="4"/>
       <c r="H548" s="4"/>
-      <c r="I548" s="4"/>
     </row>
     <row r="549">
+      <c r="C549" s="5"/>
+      <c r="F549" s="4"/>
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
-      <c r="I549" s="4"/>
     </row>
     <row r="550">
+      <c r="C550" s="5"/>
+      <c r="F550" s="4"/>
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
-      <c r="I550" s="4"/>
     </row>
     <row r="551">
+      <c r="C551" s="5"/>
+      <c r="F551" s="4"/>
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
-      <c r="I551" s="4"/>
     </row>
     <row r="552">
+      <c r="C552" s="5"/>
+      <c r="F552" s="4"/>
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
-      <c r="I552" s="4"/>
     </row>
     <row r="553">
+      <c r="C553" s="5"/>
+      <c r="F553" s="4"/>
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
-      <c r="I553" s="4"/>
     </row>
     <row r="554">
+      <c r="C554" s="5"/>
+      <c r="F554" s="4"/>
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
-      <c r="I554" s="4"/>
     </row>
     <row r="555">
+      <c r="C555" s="5"/>
+      <c r="F555" s="4"/>
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
-      <c r="I555" s="4"/>
     </row>
     <row r="556">
+      <c r="C556" s="5"/>
+      <c r="F556" s="4"/>
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
-      <c r="I556" s="4"/>
     </row>
     <row r="557">
+      <c r="C557" s="5"/>
+      <c r="F557" s="4"/>
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
-      <c r="I557" s="4"/>
     </row>
     <row r="558">
+      <c r="C558" s="5"/>
+      <c r="F558" s="4"/>
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
-      <c r="I558" s="4"/>
     </row>
     <row r="559">
+      <c r="C559" s="5"/>
+      <c r="F559" s="4"/>
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
-      <c r="I559" s="4"/>
     </row>
     <row r="560">
+      <c r="C560" s="5"/>
+      <c r="F560" s="4"/>
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
-      <c r="I560" s="4"/>
     </row>
     <row r="561">
+      <c r="C561" s="5"/>
+      <c r="F561" s="4"/>
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
-      <c r="I561" s="4"/>
     </row>
     <row r="562">
+      <c r="C562" s="5"/>
+      <c r="F562" s="4"/>
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
-      <c r="I562" s="4"/>
     </row>
     <row r="563">
+      <c r="C563" s="5"/>
+      <c r="F563" s="4"/>
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
-      <c r="I563" s="4"/>
     </row>
     <row r="564">
+      <c r="C564" s="5"/>
+      <c r="F564" s="4"/>
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
-      <c r="I564" s="4"/>
     </row>
     <row r="565">
+      <c r="C565" s="5"/>
+      <c r="F565" s="4"/>
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
-      <c r="I565" s="4"/>
     </row>
     <row r="566">
+      <c r="C566" s="5"/>
+      <c r="F566" s="4"/>
       <c r="G566" s="4"/>
       <c r="H566" s="4"/>
-      <c r="I566" s="4"/>
     </row>
     <row r="567">
+      <c r="C567" s="5"/>
+      <c r="F567" s="4"/>
       <c r="G567" s="4"/>
       <c r="H567" s="4"/>
-      <c r="I567" s="4"/>
     </row>
     <row r="568">
+      <c r="C568" s="5"/>
+      <c r="F568" s="4"/>
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
-      <c r="I568" s="4"/>
     </row>
     <row r="569">
+      <c r="C569" s="5"/>
+      <c r="F569" s="4"/>
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
-      <c r="I569" s="4"/>
     </row>
     <row r="570">
+      <c r="C570" s="5"/>
+      <c r="F570" s="4"/>
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
-      <c r="I570" s="4"/>
     </row>
     <row r="571">
+      <c r="C571" s="5"/>
+      <c r="F571" s="4"/>
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
-      <c r="I571" s="4"/>
     </row>
     <row r="572">
+      <c r="C572" s="5"/>
+      <c r="F572" s="4"/>
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
-      <c r="I572" s="4"/>
     </row>
     <row r="573">
+      <c r="C573" s="5"/>
+      <c r="F573" s="4"/>
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
-      <c r="I573" s="4"/>
     </row>
     <row r="574">
+      <c r="C574" s="5"/>
+      <c r="F574" s="4"/>
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
-      <c r="I574" s="4"/>
     </row>
     <row r="575">
+      <c r="C575" s="5"/>
+      <c r="F575" s="4"/>
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
-      <c r="I575" s="4"/>
     </row>
     <row r="576">
+      <c r="C576" s="5"/>
+      <c r="F576" s="4"/>
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
-      <c r="I576" s="4"/>
     </row>
     <row r="577">
+      <c r="C577" s="5"/>
+      <c r="F577" s="4"/>
       <c r="G577" s="4"/>
       <c r="H577" s="4"/>
-      <c r="I577" s="4"/>
     </row>
     <row r="578">
+      <c r="C578" s="5"/>
+      <c r="F578" s="4"/>
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
-      <c r="I578" s="4"/>
     </row>
     <row r="579">
+      <c r="C579" s="5"/>
+      <c r="F579" s="4"/>
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
-      <c r="I579" s="4"/>
     </row>
     <row r="580">
+      <c r="C580" s="5"/>
+      <c r="F580" s="4"/>
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
-      <c r="I580" s="4"/>
     </row>
     <row r="581">
+      <c r="C581" s="5"/>
+      <c r="F581" s="4"/>
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
-      <c r="I581" s="4"/>
     </row>
     <row r="582">
+      <c r="C582" s="5"/>
+      <c r="F582" s="4"/>
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
-      <c r="I582" s="4"/>
     </row>
     <row r="583">
+      <c r="C583" s="5"/>
+      <c r="F583" s="4"/>
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
-      <c r="I583" s="4"/>
     </row>
     <row r="584">
+      <c r="C584" s="5"/>
+      <c r="F584" s="4"/>
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
-      <c r="I584" s="4"/>
     </row>
     <row r="585">
+      <c r="C585" s="5"/>
+      <c r="F585" s="4"/>
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
-      <c r="I585" s="4"/>
     </row>
     <row r="586">
+      <c r="C586" s="5"/>
+      <c r="F586" s="4"/>
       <c r="G586" s="4"/>
       <c r="H586" s="4"/>
-      <c r="I586" s="4"/>
     </row>
     <row r="587">
+      <c r="C587" s="5"/>
+      <c r="F587" s="4"/>
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
-      <c r="I587" s="4"/>
     </row>
     <row r="588">
+      <c r="C588" s="5"/>
+      <c r="F588" s="4"/>
       <c r="G588" s="4"/>
       <c r="H588" s="4"/>
-      <c r="I588" s="4"/>
     </row>
     <row r="589">
+      <c r="C589" s="5"/>
+      <c r="F589" s="4"/>
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
-      <c r="I589" s="4"/>
     </row>
     <row r="590">
+      <c r="C590" s="5"/>
+      <c r="F590" s="4"/>
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
-      <c r="I590" s="4"/>
     </row>
     <row r="591">
+      <c r="C591" s="5"/>
+      <c r="F591" s="4"/>
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
-      <c r="I591" s="4"/>
     </row>
     <row r="592">
+      <c r="C592" s="5"/>
+      <c r="F592" s="4"/>
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
-      <c r="I592" s="4"/>
     </row>
     <row r="593">
+      <c r="C593" s="5"/>
+      <c r="F593" s="4"/>
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
-      <c r="I593" s="4"/>
     </row>
     <row r="594">
+      <c r="C594" s="5"/>
+      <c r="F594" s="4"/>
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
-      <c r="I594" s="4"/>
     </row>
     <row r="595">
+      <c r="C595" s="5"/>
+      <c r="F595" s="4"/>
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
-      <c r="I595" s="4"/>
     </row>
     <row r="596">
+      <c r="C596" s="5"/>
+      <c r="F596" s="4"/>
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
-      <c r="I596" s="4"/>
     </row>
     <row r="597">
+      <c r="C597" s="5"/>
+      <c r="F597" s="4"/>
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
-      <c r="I597" s="4"/>
     </row>
     <row r="598">
+      <c r="C598" s="5"/>
+      <c r="F598" s="4"/>
       <c r="G598" s="4"/>
       <c r="H598" s="4"/>
-      <c r="I598" s="4"/>
     </row>
     <row r="599">
+      <c r="C599" s="5"/>
+      <c r="F599" s="4"/>
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
-      <c r="I599" s="4"/>
     </row>
     <row r="600">
+      <c r="C600" s="5"/>
+      <c r="F600" s="4"/>
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
-      <c r="I600" s="4"/>
     </row>
     <row r="601">
+      <c r="C601" s="5"/>
+      <c r="F601" s="4"/>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
-      <c r="I601" s="4"/>
     </row>
     <row r="602">
+      <c r="C602" s="5"/>
+      <c r="F602" s="4"/>
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
-      <c r="I602" s="4"/>
     </row>
     <row r="603">
+      <c r="C603" s="5"/>
+      <c r="F603" s="4"/>
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
-      <c r="I603" s="4"/>
     </row>
     <row r="604">
+      <c r="C604" s="5"/>
+      <c r="F604" s="4"/>
       <c r="G604" s="4"/>
       <c r="H604" s="4"/>
-      <c r="I604" s="4"/>
     </row>
     <row r="605">
+      <c r="C605" s="5"/>
+      <c r="F605" s="4"/>
       <c r="G605" s="4"/>
       <c r="H605" s="4"/>
-      <c r="I605" s="4"/>
     </row>
     <row r="606">
+      <c r="C606" s="5"/>
+      <c r="F606" s="4"/>
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
-      <c r="I606" s="4"/>
     </row>
     <row r="607">
+      <c r="C607" s="5"/>
+      <c r="F607" s="4"/>
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
-      <c r="I607" s="4"/>
     </row>
     <row r="608">
+      <c r="C608" s="5"/>
+      <c r="F608" s="4"/>
       <c r="G608" s="4"/>
       <c r="H608" s="4"/>
-      <c r="I608" s="4"/>
     </row>
     <row r="609">
+      <c r="C609" s="5"/>
+      <c r="F609" s="4"/>
       <c r="G609" s="4"/>
       <c r="H609" s="4"/>
-      <c r="I609" s="4"/>
     </row>
     <row r="610">
+      <c r="C610" s="5"/>
+      <c r="F610" s="4"/>
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
-      <c r="I610" s="4"/>
     </row>
     <row r="611">
+      <c r="C611" s="5"/>
+      <c r="F611" s="4"/>
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
-      <c r="I611" s="4"/>
     </row>
     <row r="612">
+      <c r="C612" s="5"/>
+      <c r="F612" s="4"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
-      <c r="I612" s="4"/>
     </row>
     <row r="613">
+      <c r="C613" s="5"/>
+      <c r="F613" s="4"/>
       <c r="G613" s="4"/>
       <c r="H613" s="4"/>
-      <c r="I613" s="4"/>
     </row>
     <row r="614">
+      <c r="C614" s="5"/>
+      <c r="F614" s="4"/>
       <c r="G614" s="4"/>
       <c r="H614" s="4"/>
-      <c r="I614" s="4"/>
     </row>
     <row r="615">
+      <c r="C615" s="5"/>
+      <c r="F615" s="4"/>
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
-      <c r="I615" s="4"/>
     </row>
     <row r="616">
+      <c r="C616" s="5"/>
+      <c r="F616" s="4"/>
       <c r="G616" s="4"/>
       <c r="H616" s="4"/>
-      <c r="I616" s="4"/>
     </row>
     <row r="617">
+      <c r="C617" s="5"/>
+      <c r="F617" s="4"/>
       <c r="G617" s="4"/>
       <c r="H617" s="4"/>
-      <c r="I617" s="4"/>
     </row>
     <row r="618">
+      <c r="C618" s="5"/>
+      <c r="F618" s="4"/>
       <c r="G618" s="4"/>
       <c r="H618" s="4"/>
-      <c r="I618" s="4"/>
     </row>
     <row r="619">
+      <c r="C619" s="5"/>
+      <c r="F619" s="4"/>
       <c r="G619" s="4"/>
       <c r="H619" s="4"/>
-      <c r="I619" s="4"/>
     </row>
     <row r="620">
+      <c r="C620" s="5"/>
+      <c r="F620" s="4"/>
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
-      <c r="I620" s="4"/>
     </row>
     <row r="621">
+      <c r="C621" s="5"/>
+      <c r="F621" s="4"/>
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
-      <c r="I621" s="4"/>
     </row>
     <row r="622">
+      <c r="C622" s="5"/>
+      <c r="F622" s="4"/>
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
-      <c r="I622" s="4"/>
     </row>
     <row r="623">
+      <c r="C623" s="5"/>
+      <c r="F623" s="4"/>
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
-      <c r="I623" s="4"/>
     </row>
     <row r="624">
+      <c r="C624" s="5"/>
+      <c r="F624" s="4"/>
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
-      <c r="I624" s="4"/>
     </row>
     <row r="625">
+      <c r="C625" s="5"/>
+      <c r="F625" s="4"/>
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
-      <c r="I625" s="4"/>
     </row>
     <row r="626">
+      <c r="C626" s="5"/>
+      <c r="F626" s="4"/>
       <c r="G626" s="4"/>
       <c r="H626" s="4"/>
-      <c r="I626" s="4"/>
     </row>
     <row r="627">
+      <c r="C627" s="5"/>
+      <c r="F627" s="4"/>
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
-      <c r="I627" s="4"/>
     </row>
     <row r="628">
+      <c r="C628" s="5"/>
+      <c r="F628" s="4"/>
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
-      <c r="I628" s="4"/>
     </row>
     <row r="629">
+      <c r="C629" s="5"/>
+      <c r="F629" s="4"/>
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
-      <c r="I629" s="4"/>
     </row>
     <row r="630">
+      <c r="C630" s="5"/>
+      <c r="F630" s="4"/>
       <c r="G630" s="4"/>
       <c r="H630" s="4"/>
-      <c r="I630" s="4"/>
     </row>
     <row r="631">
+      <c r="C631" s="5"/>
+      <c r="F631" s="4"/>
       <c r="G631" s="4"/>
       <c r="H631" s="4"/>
-      <c r="I631" s="4"/>
     </row>
     <row r="632">
+      <c r="C632" s="5"/>
+      <c r="F632" s="4"/>
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
-      <c r="I632" s="4"/>
     </row>
     <row r="633">
+      <c r="C633" s="5"/>
+      <c r="F633" s="4"/>
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
-      <c r="I633" s="4"/>
     </row>
     <row r="634">
+      <c r="C634" s="5"/>
+      <c r="F634" s="4"/>
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
-      <c r="I634" s="4"/>
     </row>
     <row r="635">
+      <c r="C635" s="5"/>
+      <c r="F635" s="4"/>
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
-      <c r="I635" s="4"/>
     </row>
     <row r="636">
+      <c r="C636" s="5"/>
+      <c r="F636" s="4"/>
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
-      <c r="I636" s="4"/>
     </row>
     <row r="637">
+      <c r="C637" s="5"/>
+      <c r="F637" s="4"/>
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
-      <c r="I637" s="4"/>
     </row>
     <row r="638">
+      <c r="C638" s="5"/>
+      <c r="F638" s="4"/>
       <c r="G638" s="4"/>
       <c r="H638" s="4"/>
-      <c r="I638" s="4"/>
     </row>
     <row r="639">
+      <c r="C639" s="5"/>
+      <c r="F639" s="4"/>
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
-      <c r="I639" s="4"/>
     </row>
     <row r="640">
+      <c r="C640" s="5"/>
+      <c r="F640" s="4"/>
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
-      <c r="I640" s="4"/>
     </row>
     <row r="641">
+      <c r="C641" s="5"/>
+      <c r="F641" s="4"/>
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
-      <c r="I641" s="4"/>
     </row>
     <row r="642">
+      <c r="C642" s="5"/>
+      <c r="F642" s="4"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
-      <c r="I642" s="4"/>
     </row>
     <row r="643">
+      <c r="C643" s="5"/>
+      <c r="F643" s="4"/>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
-      <c r="I643" s="4"/>
     </row>
     <row r="644">
+      <c r="C644" s="5"/>
+      <c r="F644" s="4"/>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
-      <c r="I644" s="4"/>
     </row>
     <row r="645">
+      <c r="C645" s="5"/>
+      <c r="F645" s="4"/>
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
-      <c r="I645" s="4"/>
     </row>
     <row r="646">
+      <c r="C646" s="5"/>
+      <c r="F646" s="4"/>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
-      <c r="I646" s="4"/>
     </row>
     <row r="647">
+      <c r="C647" s="5"/>
+      <c r="F647" s="4"/>
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
-      <c r="I647" s="4"/>
     </row>
     <row r="648">
+      <c r="C648" s="5"/>
+      <c r="F648" s="4"/>
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
-      <c r="I648" s="4"/>
     </row>
     <row r="649">
+      <c r="C649" s="5"/>
+      <c r="F649" s="4"/>
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
-      <c r="I649" s="4"/>
     </row>
     <row r="650">
+      <c r="C650" s="5"/>
+      <c r="F650" s="4"/>
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
-      <c r="I650" s="4"/>
     </row>
     <row r="651">
+      <c r="C651" s="5"/>
+      <c r="F651" s="4"/>
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
-      <c r="I651" s="4"/>
     </row>
     <row r="652">
+      <c r="C652" s="5"/>
+      <c r="F652" s="4"/>
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
-      <c r="I652" s="4"/>
     </row>
     <row r="653">
+      <c r="C653" s="5"/>
+      <c r="F653" s="4"/>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
-      <c r="I653" s="4"/>
     </row>
     <row r="654">
+      <c r="C654" s="5"/>
+      <c r="F654" s="4"/>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
-      <c r="I654" s="4"/>
     </row>
     <row r="655">
+      <c r="C655" s="5"/>
+      <c r="F655" s="4"/>
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
-      <c r="I655" s="4"/>
     </row>
     <row r="656">
+      <c r="C656" s="5"/>
+      <c r="F656" s="4"/>
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
-      <c r="I656" s="4"/>
     </row>
     <row r="657">
+      <c r="C657" s="5"/>
+      <c r="F657" s="4"/>
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
-      <c r="I657" s="4"/>
     </row>
     <row r="658">
+      <c r="C658" s="5"/>
+      <c r="F658" s="4"/>
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
-      <c r="I658" s="4"/>
     </row>
     <row r="659">
+      <c r="C659" s="5"/>
+      <c r="F659" s="4"/>
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
-      <c r="I659" s="4"/>
     </row>
     <row r="660">
+      <c r="C660" s="5"/>
+      <c r="F660" s="4"/>
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
-      <c r="I660" s="4"/>
     </row>
     <row r="661">
+      <c r="C661" s="5"/>
+      <c r="F661" s="4"/>
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
-      <c r="I661" s="4"/>
     </row>
     <row r="662">
+      <c r="C662" s="5"/>
+      <c r="F662" s="4"/>
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
-      <c r="I662" s="4"/>
     </row>
     <row r="663">
+      <c r="C663" s="5"/>
+      <c r="F663" s="4"/>
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
-      <c r="I663" s="4"/>
     </row>
     <row r="664">
+      <c r="C664" s="5"/>
+      <c r="F664" s="4"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
-      <c r="I664" s="4"/>
     </row>
     <row r="665">
+      <c r="C665" s="5"/>
+      <c r="F665" s="4"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
-      <c r="I665" s="4"/>
     </row>
     <row r="666">
+      <c r="C666" s="5"/>
+      <c r="F666" s="4"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
-      <c r="I666" s="4"/>
     </row>
     <row r="667">
+      <c r="C667" s="5"/>
+      <c r="F667" s="4"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
-      <c r="I667" s="4"/>
     </row>
     <row r="668">
+      <c r="C668" s="5"/>
+      <c r="F668" s="4"/>
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
-      <c r="I668" s="4"/>
     </row>
     <row r="669">
+      <c r="C669" s="5"/>
+      <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
-      <c r="I669" s="4"/>
     </row>
     <row r="670">
+      <c r="C670" s="5"/>
+      <c r="F670" s="4"/>
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
-      <c r="I670" s="4"/>
     </row>
     <row r="671">
+      <c r="C671" s="5"/>
+      <c r="F671" s="4"/>
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
-      <c r="I671" s="4"/>
     </row>
     <row r="672">
+      <c r="C672" s="5"/>
+      <c r="F672" s="4"/>
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
-      <c r="I672" s="4"/>
     </row>
     <row r="673">
+      <c r="C673" s="5"/>
+      <c r="F673" s="4"/>
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
-      <c r="I673" s="4"/>
     </row>
     <row r="674">
+      <c r="C674" s="5"/>
+      <c r="F674" s="4"/>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
-      <c r="I674" s="4"/>
     </row>
     <row r="675">
+      <c r="C675" s="5"/>
+      <c r="F675" s="4"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
-      <c r="I675" s="4"/>
     </row>
     <row r="676">
+      <c r="C676" s="5"/>
+      <c r="F676" s="4"/>
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
-      <c r="I676" s="4"/>
     </row>
     <row r="677">
+      <c r="C677" s="5"/>
+      <c r="F677" s="4"/>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
-      <c r="I677" s="4"/>
     </row>
     <row r="678">
+      <c r="C678" s="5"/>
+      <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
-      <c r="I678" s="4"/>
     </row>
     <row r="679">
+      <c r="C679" s="5"/>
+      <c r="F679" s="4"/>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
-      <c r="I679" s="4"/>
     </row>
     <row r="680">
+      <c r="C680" s="5"/>
+      <c r="F680" s="4"/>
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
-      <c r="I680" s="4"/>
     </row>
     <row r="681">
+      <c r="C681" s="5"/>
+      <c r="F681" s="4"/>
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
-      <c r="I681" s="4"/>
     </row>
     <row r="682">
+      <c r="C682" s="5"/>
+      <c r="F682" s="4"/>
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
-      <c r="I682" s="4"/>
     </row>
     <row r="683">
+      <c r="C683" s="5"/>
+      <c r="F683" s="4"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
-      <c r="I683" s="4"/>
     </row>
     <row r="684">
+      <c r="C684" s="5"/>
+      <c r="F684" s="4"/>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
-      <c r="I684" s="4"/>
     </row>
     <row r="685">
+      <c r="C685" s="5"/>
+      <c r="F685" s="4"/>
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
-      <c r="I685" s="4"/>
     </row>
     <row r="686">
+      <c r="C686" s="5"/>
+      <c r="F686" s="4"/>
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
-      <c r="I686" s="4"/>
     </row>
     <row r="687">
+      <c r="C687" s="5"/>
+      <c r="F687" s="4"/>
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
-      <c r="I687" s="4"/>
     </row>
     <row r="688">
+      <c r="C688" s="5"/>
+      <c r="F688" s="4"/>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
-      <c r="I688" s="4"/>
     </row>
     <row r="689">
+      <c r="C689" s="5"/>
+      <c r="F689" s="4"/>
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
-      <c r="I689" s="4"/>
     </row>
     <row r="690">
+      <c r="C690" s="5"/>
+      <c r="F690" s="4"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
-      <c r="I690" s="4"/>
     </row>
     <row r="691">
+      <c r="C691" s="5"/>
+      <c r="F691" s="4"/>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
-      <c r="I691" s="4"/>
     </row>
     <row r="692">
+      <c r="C692" s="5"/>
+      <c r="F692" s="4"/>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
-      <c r="I692" s="4"/>
     </row>
     <row r="693">
+      <c r="C693" s="5"/>
+      <c r="F693" s="4"/>
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
-      <c r="I693" s="4"/>
     </row>
     <row r="694">
+      <c r="C694" s="5"/>
+      <c r="F694" s="4"/>
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
-      <c r="I694" s="4"/>
     </row>
     <row r="695">
+      <c r="C695" s="5"/>
+      <c r="F695" s="4"/>
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
-      <c r="I695" s="4"/>
     </row>
     <row r="696">
+      <c r="C696" s="5"/>
+      <c r="F696" s="4"/>
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
-      <c r="I696" s="4"/>
     </row>
     <row r="697">
+      <c r="C697" s="5"/>
+      <c r="F697" s="4"/>
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
-      <c r="I697" s="4"/>
     </row>
     <row r="698">
+      <c r="C698" s="5"/>
+      <c r="F698" s="4"/>
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
-      <c r="I698" s="4"/>
     </row>
     <row r="699">
+      <c r="C699" s="5"/>
+      <c r="F699" s="4"/>
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
-      <c r="I699" s="4"/>
     </row>
     <row r="700">
+      <c r="C700" s="5"/>
+      <c r="F700" s="4"/>
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
-      <c r="I700" s="4"/>
     </row>
     <row r="701">
+      <c r="C701" s="5"/>
+      <c r="F701" s="4"/>
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
-      <c r="I701" s="4"/>
     </row>
     <row r="702">
+      <c r="C702" s="5"/>
+      <c r="F702" s="4"/>
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
-      <c r="I702" s="4"/>
     </row>
     <row r="703">
+      <c r="C703" s="5"/>
+      <c r="F703" s="4"/>
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
-      <c r="I703" s="4"/>
     </row>
     <row r="704">
+      <c r="C704" s="5"/>
+      <c r="F704" s="4"/>
       <c r="G704" s="4"/>
       <c r="H704" s="4"/>
-      <c r="I704" s="4"/>
     </row>
     <row r="705">
+      <c r="C705" s="5"/>
+      <c r="F705" s="4"/>
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
-      <c r="I705" s="4"/>
     </row>
     <row r="706">
+      <c r="C706" s="5"/>
+      <c r="F706" s="4"/>
       <c r="G706" s="4"/>
       <c r="H706" s="4"/>
-      <c r="I706" s="4"/>
     </row>
     <row r="707">
+      <c r="C707" s="5"/>
+      <c r="F707" s="4"/>
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
-      <c r="I707" s="4"/>
     </row>
     <row r="708">
+      <c r="C708" s="5"/>
+      <c r="F708" s="4"/>
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
-      <c r="I708" s="4"/>
     </row>
     <row r="709">
+      <c r="C709" s="5"/>
+      <c r="F709" s="4"/>
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
-      <c r="I709" s="4"/>
     </row>
     <row r="710">
+      <c r="C710" s="5"/>
+      <c r="F710" s="4"/>
       <c r="G710" s="4"/>
       <c r="H710" s="4"/>
-      <c r="I710" s="4"/>
     </row>
     <row r="711">
+      <c r="C711" s="5"/>
+      <c r="F711" s="4"/>
       <c r="G711" s="4"/>
       <c r="H711" s="4"/>
-      <c r="I711" s="4"/>
     </row>
     <row r="712">
+      <c r="C712" s="5"/>
+      <c r="F712" s="4"/>
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
-      <c r="I712" s="4"/>
     </row>
     <row r="713">
+      <c r="C713" s="5"/>
+      <c r="F713" s="4"/>
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
-      <c r="I713" s="4"/>
     </row>
     <row r="714">
+      <c r="C714" s="5"/>
+      <c r="F714" s="4"/>
       <c r="G714" s="4"/>
       <c r="H714" s="4"/>
-      <c r="I714" s="4"/>
     </row>
     <row r="715">
+      <c r="C715" s="5"/>
+      <c r="F715" s="4"/>
       <c r="G715" s="4"/>
       <c r="H715" s="4"/>
-      <c r="I715" s="4"/>
     </row>
     <row r="716">
+      <c r="C716" s="5"/>
+      <c r="F716" s="4"/>
       <c r="G716" s="4"/>
       <c r="H716" s="4"/>
-      <c r="I716" s="4"/>
     </row>
     <row r="717">
+      <c r="C717" s="5"/>
+      <c r="F717" s="4"/>
       <c r="G717" s="4"/>
       <c r="H717" s="4"/>
-      <c r="I717" s="4"/>
     </row>
     <row r="718">
+      <c r="C718" s="5"/>
+      <c r="F718" s="4"/>
       <c r="G718" s="4"/>
       <c r="H718" s="4"/>
-      <c r="I718" s="4"/>
     </row>
     <row r="719">
+      <c r="C719" s="5"/>
+      <c r="F719" s="4"/>
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
-      <c r="I719" s="4"/>
     </row>
     <row r="720">
+      <c r="C720" s="5"/>
+      <c r="F720" s="4"/>
       <c r="G720" s="4"/>
       <c r="H720" s="4"/>
-      <c r="I720" s="4"/>
     </row>
     <row r="721">
+      <c r="C721" s="5"/>
+      <c r="F721" s="4"/>
       <c r="G721" s="4"/>
       <c r="H721" s="4"/>
-      <c r="I721" s="4"/>
     </row>
     <row r="722">
+      <c r="C722" s="5"/>
+      <c r="F722" s="4"/>
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
-      <c r="I722" s="4"/>
     </row>
     <row r="723">
+      <c r="C723" s="5"/>
+      <c r="F723" s="4"/>
       <c r="G723" s="4"/>
       <c r="H723" s="4"/>
-      <c r="I723" s="4"/>
     </row>
     <row r="724">
+      <c r="C724" s="5"/>
+      <c r="F724" s="4"/>
       <c r="G724" s="4"/>
       <c r="H724" s="4"/>
-      <c r="I724" s="4"/>
     </row>
     <row r="725">
+      <c r="C725" s="5"/>
+      <c r="F725" s="4"/>
       <c r="G725" s="4"/>
       <c r="H725" s="4"/>
-      <c r="I725" s="4"/>
     </row>
     <row r="726">
+      <c r="C726" s="5"/>
+      <c r="F726" s="4"/>
       <c r="G726" s="4"/>
       <c r="H726" s="4"/>
-      <c r="I726" s="4"/>
     </row>
     <row r="727">
+      <c r="C727" s="5"/>
+      <c r="F727" s="4"/>
       <c r="G727" s="4"/>
       <c r="H727" s="4"/>
-      <c r="I727" s="4"/>
     </row>
     <row r="728">
+      <c r="C728" s="5"/>
+      <c r="F728" s="4"/>
       <c r="G728" s="4"/>
       <c r="H728" s="4"/>
-      <c r="I728" s="4"/>
     </row>
     <row r="729">
+      <c r="C729" s="5"/>
+      <c r="F729" s="4"/>
       <c r="G729" s="4"/>
       <c r="H729" s="4"/>
-      <c r="I729" s="4"/>
     </row>
     <row r="730">
+      <c r="C730" s="5"/>
+      <c r="F730" s="4"/>
       <c r="G730" s="4"/>
       <c r="H730" s="4"/>
-      <c r="I730" s="4"/>
     </row>
     <row r="731">
+      <c r="C731" s="5"/>
+      <c r="F731" s="4"/>
       <c r="G731" s="4"/>
       <c r="H731" s="4"/>
-      <c r="I731" s="4"/>
     </row>
     <row r="732">
+      <c r="C732" s="5"/>
+      <c r="F732" s="4"/>
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
-      <c r="I732" s="4"/>
     </row>
     <row r="733">
+      <c r="C733" s="5"/>
+      <c r="F733" s="4"/>
       <c r="G733" s="4"/>
       <c r="H733" s="4"/>
-      <c r="I733" s="4"/>
     </row>
     <row r="734">
+      <c r="C734" s="5"/>
+      <c r="F734" s="4"/>
       <c r="G734" s="4"/>
       <c r="H734" s="4"/>
-      <c r="I734" s="4"/>
     </row>
     <row r="735">
+      <c r="C735" s="5"/>
+      <c r="F735" s="4"/>
       <c r="G735" s="4"/>
       <c r="H735" s="4"/>
-      <c r="I735" s="4"/>
     </row>
     <row r="736">
+      <c r="C736" s="5"/>
+      <c r="F736" s="4"/>
       <c r="G736" s="4"/>
       <c r="H736" s="4"/>
-      <c r="I736" s="4"/>
     </row>
     <row r="737">
+      <c r="C737" s="5"/>
+      <c r="F737" s="4"/>
       <c r="G737" s="4"/>
       <c r="H737" s="4"/>
-      <c r="I737" s="4"/>
     </row>
     <row r="738">
+      <c r="C738" s="5"/>
+      <c r="F738" s="4"/>
       <c r="G738" s="4"/>
       <c r="H738" s="4"/>
-      <c r="I738" s="4"/>
     </row>
     <row r="739">
+      <c r="C739" s="5"/>
+      <c r="F739" s="4"/>
       <c r="G739" s="4"/>
       <c r="H739" s="4"/>
-      <c r="I739" s="4"/>
     </row>
     <row r="740">
+      <c r="C740" s="5"/>
+      <c r="F740" s="4"/>
       <c r="G740" s="4"/>
       <c r="H740" s="4"/>
-      <c r="I740" s="4"/>
     </row>
     <row r="741">
+      <c r="C741" s="5"/>
+      <c r="F741" s="4"/>
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
-      <c r="I741" s="4"/>
     </row>
     <row r="742">
+      <c r="C742" s="5"/>
+      <c r="F742" s="4"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
-      <c r="I742" s="4"/>
     </row>
     <row r="743">
+      <c r="C743" s="5"/>
+      <c r="F743" s="4"/>
       <c r="G743" s="4"/>
       <c r="H743" s="4"/>
-      <c r="I743" s="4"/>
     </row>
     <row r="744">
+      <c r="C744" s="5"/>
+      <c r="F744" s="4"/>
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
-      <c r="I744" s="4"/>
     </row>
     <row r="745">
+      <c r="C745" s="5"/>
+      <c r="F745" s="4"/>
       <c r="G745" s="4"/>
       <c r="H745" s="4"/>
-      <c r="I745" s="4"/>
     </row>
     <row r="746">
+      <c r="C746" s="5"/>
+      <c r="F746" s="4"/>
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
-      <c r="I746" s="4"/>
     </row>
     <row r="747">
+      <c r="C747" s="5"/>
+      <c r="F747" s="4"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
-      <c r="I747" s="4"/>
     </row>
     <row r="748">
+      <c r="C748" s="5"/>
+      <c r="F748" s="4"/>
       <c r="G748" s="4"/>
       <c r="H748" s="4"/>
-      <c r="I748" s="4"/>
     </row>
     <row r="749">
+      <c r="C749" s="5"/>
+      <c r="F749" s="4"/>
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
-      <c r="I749" s="4"/>
     </row>
     <row r="750">
+      <c r="C750" s="5"/>
+      <c r="F750" s="4"/>
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
-      <c r="I750" s="4"/>
     </row>
     <row r="751">
+      <c r="C751" s="5"/>
+      <c r="F751" s="4"/>
       <c r="G751" s="4"/>
       <c r="H751" s="4"/>
-      <c r="I751" s="4"/>
     </row>
     <row r="752">
+      <c r="C752" s="5"/>
+      <c r="F752" s="4"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
-      <c r="I752" s="4"/>
     </row>
     <row r="753">
+      <c r="C753" s="5"/>
+      <c r="F753" s="4"/>
       <c r="G753" s="4"/>
       <c r="H753" s="4"/>
-      <c r="I753" s="4"/>
     </row>
     <row r="754">
+      <c r="C754" s="5"/>
+      <c r="F754" s="4"/>
       <c r="G754" s="4"/>
       <c r="H754" s="4"/>
-      <c r="I754" s="4"/>
     </row>
     <row r="755">
+      <c r="C755" s="5"/>
+      <c r="F755" s="4"/>
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
-      <c r="I755" s="4"/>
     </row>
     <row r="756">
+      <c r="C756" s="5"/>
+      <c r="F756" s="4"/>
       <c r="G756" s="4"/>
       <c r="H756" s="4"/>
-      <c r="I756" s="4"/>
     </row>
     <row r="757">
+      <c r="C757" s="5"/>
+      <c r="F757" s="4"/>
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
-      <c r="I757" s="4"/>
     </row>
     <row r="758">
+      <c r="C758" s="5"/>
+      <c r="F758" s="4"/>
       <c r="G758" s="4"/>
       <c r="H758" s="4"/>
-      <c r="I758" s="4"/>
     </row>
     <row r="759">
+      <c r="C759" s="5"/>
+      <c r="F759" s="4"/>
       <c r="G759" s="4"/>
       <c r="H759" s="4"/>
-      <c r="I759" s="4"/>
     </row>
     <row r="760">
+      <c r="C760" s="5"/>
+      <c r="F760" s="4"/>
       <c r="G760" s="4"/>
       <c r="H760" s="4"/>
-      <c r="I760" s="4"/>
     </row>
     <row r="761">
+      <c r="C761" s="5"/>
+      <c r="F761" s="4"/>
       <c r="G761" s="4"/>
       <c r="H761" s="4"/>
-      <c r="I761" s="4"/>
     </row>
     <row r="762">
+      <c r="C762" s="5"/>
+      <c r="F762" s="4"/>
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
-      <c r="I762" s="4"/>
     </row>
     <row r="763">
+      <c r="C763" s="5"/>
+      <c r="F763" s="4"/>
       <c r="G763" s="4"/>
       <c r="H763" s="4"/>
-      <c r="I763" s="4"/>
     </row>
     <row r="764">
+      <c r="C764" s="5"/>
+      <c r="F764" s="4"/>
       <c r="G764" s="4"/>
       <c r="H764" s="4"/>
-      <c r="I764" s="4"/>
     </row>
     <row r="765">
+      <c r="C765" s="5"/>
+      <c r="F765" s="4"/>
       <c r="G765" s="4"/>
       <c r="H765" s="4"/>
-      <c r="I765" s="4"/>
     </row>
     <row r="766">
+      <c r="C766" s="5"/>
+      <c r="F766" s="4"/>
       <c r="G766" s="4"/>
       <c r="H766" s="4"/>
-      <c r="I766" s="4"/>
     </row>
     <row r="767">
+      <c r="C767" s="5"/>
+      <c r="F767" s="4"/>
       <c r="G767" s="4"/>
       <c r="H767" s="4"/>
-      <c r="I767" s="4"/>
     </row>
     <row r="768">
+      <c r="C768" s="5"/>
+      <c r="F768" s="4"/>
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
-      <c r="I768" s="4"/>
     </row>
     <row r="769">
+      <c r="C769" s="5"/>
+      <c r="F769" s="4"/>
       <c r="G769" s="4"/>
       <c r="H769" s="4"/>
-      <c r="I769" s="4"/>
     </row>
     <row r="770">
+      <c r="C770" s="5"/>
+      <c r="F770" s="4"/>
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
-      <c r="I770" s="4"/>
     </row>
     <row r="771">
+      <c r="C771" s="5"/>
+      <c r="F771" s="4"/>
       <c r="G771" s="4"/>
       <c r="H771" s="4"/>
-      <c r="I771" s="4"/>
     </row>
     <row r="772">
+      <c r="C772" s="5"/>
+      <c r="F772" s="4"/>
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
-      <c r="I772" s="4"/>
     </row>
     <row r="773">
+      <c r="C773" s="5"/>
+      <c r="F773" s="4"/>
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
-      <c r="I773" s="4"/>
     </row>
     <row r="774">
+      <c r="C774" s="5"/>
+      <c r="F774" s="4"/>
       <c r="G774" s="4"/>
       <c r="H774" s="4"/>
-      <c r="I774" s="4"/>
     </row>
     <row r="775">
+      <c r="C775" s="5"/>
+      <c r="F775" s="4"/>
       <c r="G775" s="4"/>
       <c r="H775" s="4"/>
-      <c r="I775" s="4"/>
     </row>
     <row r="776">
+      <c r="C776" s="5"/>
+      <c r="F776" s="4"/>
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
-      <c r="I776" s="4"/>
     </row>
     <row r="777">
+      <c r="C777" s="5"/>
+      <c r="F777" s="4"/>
       <c r="G777" s="4"/>
       <c r="H777" s="4"/>
-      <c r="I777" s="4"/>
     </row>
     <row r="778">
+      <c r="C778" s="5"/>
+      <c r="F778" s="4"/>
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
-      <c r="I778" s="4"/>
     </row>
     <row r="779">
+      <c r="C779" s="5"/>
+      <c r="F779" s="4"/>
       <c r="G779" s="4"/>
       <c r="H779" s="4"/>
-      <c r="I779" s="4"/>
     </row>
     <row r="780">
+      <c r="C780" s="5"/>
+      <c r="F780" s="4"/>
       <c r="G780" s="4"/>
       <c r="H780" s="4"/>
-      <c r="I780" s="4"/>
     </row>
     <row r="781">
+      <c r="C781" s="5"/>
+      <c r="F781" s="4"/>
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
-      <c r="I781" s="4"/>
     </row>
     <row r="782">
+      <c r="C782" s="5"/>
+      <c r="F782" s="4"/>
       <c r="G782" s="4"/>
       <c r="H782" s="4"/>
-      <c r="I782" s="4"/>
     </row>
     <row r="783">
+      <c r="C783" s="5"/>
+      <c r="F783" s="4"/>
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
-      <c r="I783" s="4"/>
     </row>
     <row r="784">
+      <c r="C784" s="5"/>
+      <c r="F784" s="4"/>
       <c r="G784" s="4"/>
       <c r="H784" s="4"/>
-      <c r="I784" s="4"/>
     </row>
     <row r="785">
+      <c r="C785" s="5"/>
+      <c r="F785" s="4"/>
       <c r="G785" s="4"/>
       <c r="H785" s="4"/>
-      <c r="I785" s="4"/>
     </row>
     <row r="786">
+      <c r="C786" s="5"/>
+      <c r="F786" s="4"/>
       <c r="G786" s="4"/>
       <c r="H786" s="4"/>
-      <c r="I786" s="4"/>
     </row>
     <row r="787">
+      <c r="C787" s="5"/>
+      <c r="F787" s="4"/>
       <c r="G787" s="4"/>
       <c r="H787" s="4"/>
-      <c r="I787" s="4"/>
     </row>
     <row r="788">
+      <c r="C788" s="5"/>
+      <c r="F788" s="4"/>
       <c r="G788" s="4"/>
       <c r="H788" s="4"/>
-      <c r="I788" s="4"/>
     </row>
     <row r="789">
+      <c r="C789" s="5"/>
+      <c r="F789" s="4"/>
       <c r="G789" s="4"/>
       <c r="H789" s="4"/>
-      <c r="I789" s="4"/>
     </row>
     <row r="790">
+      <c r="C790" s="5"/>
+      <c r="F790" s="4"/>
       <c r="G790" s="4"/>
       <c r="H790" s="4"/>
-      <c r="I790" s="4"/>
     </row>
     <row r="791">
+      <c r="C791" s="5"/>
+      <c r="F791" s="4"/>
       <c r="G791" s="4"/>
       <c r="H791" s="4"/>
-      <c r="I791" s="4"/>
     </row>
     <row r="792">
+      <c r="C792" s="5"/>
+      <c r="F792" s="4"/>
       <c r="G792" s="4"/>
       <c r="H792" s="4"/>
-      <c r="I792" s="4"/>
     </row>
     <row r="793">
+      <c r="C793" s="5"/>
+      <c r="F793" s="4"/>
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
-      <c r="I793" s="4"/>
     </row>
     <row r="794">
+      <c r="C794" s="5"/>
+      <c r="F794" s="4"/>
       <c r="G794" s="4"/>
       <c r="H794" s="4"/>
-      <c r="I794" s="4"/>
     </row>
     <row r="795">
+      <c r="C795" s="5"/>
+      <c r="F795" s="4"/>
       <c r="G795" s="4"/>
       <c r="H795" s="4"/>
-      <c r="I795" s="4"/>
     </row>
     <row r="796">
+      <c r="C796" s="5"/>
+      <c r="F796" s="4"/>
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
-      <c r="I796" s="4"/>
     </row>
     <row r="797">
+      <c r="C797" s="5"/>
+      <c r="F797" s="4"/>
       <c r="G797" s="4"/>
       <c r="H797" s="4"/>
-      <c r="I797" s="4"/>
     </row>
     <row r="798">
+      <c r="C798" s="5"/>
+      <c r="F798" s="4"/>
       <c r="G798" s="4"/>
       <c r="H798" s="4"/>
-      <c r="I798" s="4"/>
     </row>
     <row r="799">
+      <c r="C799" s="5"/>
+      <c r="F799" s="4"/>
       <c r="G799" s="4"/>
       <c r="H799" s="4"/>
-      <c r="I799" s="4"/>
     </row>
     <row r="800">
+      <c r="C800" s="5"/>
+      <c r="F800" s="4"/>
       <c r="G800" s="4"/>
       <c r="H800" s="4"/>
-      <c r="I800" s="4"/>
     </row>
     <row r="801">
+      <c r="C801" s="5"/>
+      <c r="F801" s="4"/>
       <c r="G801" s="4"/>
       <c r="H801" s="4"/>
-      <c r="I801" s="4"/>
     </row>
     <row r="802">
+      <c r="C802" s="5"/>
+      <c r="F802" s="4"/>
       <c r="G802" s="4"/>
       <c r="H802" s="4"/>
-      <c r="I802" s="4"/>
     </row>
     <row r="803">
+      <c r="C803" s="5"/>
+      <c r="F803" s="4"/>
       <c r="G803" s="4"/>
       <c r="H803" s="4"/>
-      <c r="I803" s="4"/>
     </row>
     <row r="804">
+      <c r="C804" s="5"/>
+      <c r="F804" s="4"/>
       <c r="G804" s="4"/>
       <c r="H804" s="4"/>
-      <c r="I804" s="4"/>
     </row>
     <row r="805">
+      <c r="C805" s="5"/>
+      <c r="F805" s="4"/>
       <c r="G805" s="4"/>
       <c r="H805" s="4"/>
-      <c r="I805" s="4"/>
     </row>
     <row r="806">
+      <c r="C806" s="5"/>
+      <c r="F806" s="4"/>
       <c r="G806" s="4"/>
       <c r="H806" s="4"/>
-      <c r="I806" s="4"/>
     </row>
     <row r="807">
+      <c r="C807" s="5"/>
+      <c r="F807" s="4"/>
       <c r="G807" s="4"/>
       <c r="H807" s="4"/>
-      <c r="I807" s="4"/>
     </row>
     <row r="808">
+      <c r="C808" s="5"/>
+      <c r="F808" s="4"/>
       <c r="G808" s="4"/>
       <c r="H808" s="4"/>
-      <c r="I808" s="4"/>
     </row>
     <row r="809">
+      <c r="C809" s="5"/>
+      <c r="F809" s="4"/>
       <c r="G809" s="4"/>
       <c r="H809" s="4"/>
-      <c r="I809" s="4"/>
     </row>
     <row r="810">
+      <c r="C810" s="5"/>
+      <c r="F810" s="4"/>
       <c r="G810" s="4"/>
       <c r="H810" s="4"/>
-      <c r="I810" s="4"/>
     </row>
     <row r="811">
+      <c r="C811" s="5"/>
+      <c r="F811" s="4"/>
       <c r="G811" s="4"/>
       <c r="H811" s="4"/>
-      <c r="I811" s="4"/>
     </row>
     <row r="812">
+      <c r="C812" s="5"/>
+      <c r="F812" s="4"/>
       <c r="G812" s="4"/>
       <c r="H812" s="4"/>
-      <c r="I812" s="4"/>
     </row>
     <row r="813">
+      <c r="C813" s="5"/>
+      <c r="F813" s="4"/>
       <c r="G813" s="4"/>
       <c r="H813" s="4"/>
-      <c r="I813" s="4"/>
     </row>
     <row r="814">
+      <c r="C814" s="5"/>
+      <c r="F814" s="4"/>
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
-      <c r="I814" s="4"/>
     </row>
     <row r="815">
+      <c r="C815" s="5"/>
+      <c r="F815" s="4"/>
       <c r="G815" s="4"/>
       <c r="H815" s="4"/>
-      <c r="I815" s="4"/>
     </row>
     <row r="816">
+      <c r="C816" s="5"/>
+      <c r="F816" s="4"/>
       <c r="G816" s="4"/>
       <c r="H816" s="4"/>
-      <c r="I816" s="4"/>
     </row>
     <row r="817">
+      <c r="C817" s="5"/>
+      <c r="F817" s="4"/>
       <c r="G817" s="4"/>
       <c r="H817" s="4"/>
-      <c r="I817" s="4"/>
     </row>
     <row r="818">
+      <c r="C818" s="5"/>
+      <c r="F818" s="4"/>
       <c r="G818" s="4"/>
       <c r="H818" s="4"/>
-      <c r="I818" s="4"/>
     </row>
     <row r="819">
+      <c r="C819" s="5"/>
+      <c r="F819" s="4"/>
       <c r="G819" s="4"/>
       <c r="H819" s="4"/>
-      <c r="I819" s="4"/>
     </row>
     <row r="820">
+      <c r="C820" s="5"/>
+      <c r="F820" s="4"/>
       <c r="G820" s="4"/>
       <c r="H820" s="4"/>
-      <c r="I820" s="4"/>
     </row>
     <row r="821">
+      <c r="C821" s="5"/>
+      <c r="F821" s="4"/>
       <c r="G821" s="4"/>
       <c r="H821" s="4"/>
-      <c r="I821" s="4"/>
     </row>
     <row r="822">
+      <c r="C822" s="5"/>
+      <c r="F822" s="4"/>
       <c r="G822" s="4"/>
       <c r="H822" s="4"/>
-      <c r="I822" s="4"/>
     </row>
     <row r="823">
+      <c r="C823" s="5"/>
+      <c r="F823" s="4"/>
       <c r="G823" s="4"/>
       <c r="H823" s="4"/>
-      <c r="I823" s="4"/>
     </row>
     <row r="824">
+      <c r="C824" s="5"/>
+      <c r="F824" s="4"/>
       <c r="G824" s="4"/>
       <c r="H824" s="4"/>
-      <c r="I824" s="4"/>
     </row>
     <row r="825">
+      <c r="C825" s="5"/>
+      <c r="F825" s="4"/>
       <c r="G825" s="4"/>
       <c r="H825" s="4"/>
-      <c r="I825" s="4"/>
     </row>
     <row r="826">
+      <c r="C826" s="5"/>
+      <c r="F826" s="4"/>
       <c r="G826" s="4"/>
       <c r="H826" s="4"/>
-      <c r="I826" s="4"/>
     </row>
     <row r="827">
+      <c r="C827" s="5"/>
+      <c r="F827" s="4"/>
       <c r="G827" s="4"/>
       <c r="H827" s="4"/>
-      <c r="I827" s="4"/>
     </row>
     <row r="828">
+      <c r="C828" s="5"/>
+      <c r="F828" s="4"/>
       <c r="G828" s="4"/>
       <c r="H828" s="4"/>
-      <c r="I828" s="4"/>
     </row>
     <row r="829">
+      <c r="C829" s="5"/>
+      <c r="F829" s="4"/>
       <c r="G829" s="4"/>
       <c r="H829" s="4"/>
-      <c r="I829" s="4"/>
     </row>
     <row r="830">
+      <c r="C830" s="5"/>
+      <c r="F830" s="4"/>
       <c r="G830" s="4"/>
       <c r="H830" s="4"/>
-      <c r="I830" s="4"/>
     </row>
     <row r="831">
+      <c r="C831" s="5"/>
+      <c r="F831" s="4"/>
       <c r="G831" s="4"/>
       <c r="H831" s="4"/>
-      <c r="I831" s="4"/>
     </row>
     <row r="832">
+      <c r="C832" s="5"/>
+      <c r="F832" s="4"/>
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
-      <c r="I832" s="4"/>
     </row>
     <row r="833">
+      <c r="C833" s="5"/>
+      <c r="F833" s="4"/>
       <c r="G833" s="4"/>
       <c r="H833" s="4"/>
-      <c r="I833" s="4"/>
     </row>
     <row r="834">
+      <c r="C834" s="5"/>
+      <c r="F834" s="4"/>
       <c r="G834" s="4"/>
       <c r="H834" s="4"/>
-      <c r="I834" s="4"/>
     </row>
     <row r="835">
+      <c r="C835" s="5"/>
+      <c r="F835" s="4"/>
       <c r="G835" s="4"/>
       <c r="H835" s="4"/>
-      <c r="I835" s="4"/>
     </row>
     <row r="836">
+      <c r="C836" s="5"/>
+      <c r="F836" s="4"/>
       <c r="G836" s="4"/>
       <c r="H836" s="4"/>
-      <c r="I836" s="4"/>
     </row>
     <row r="837">
+      <c r="C837" s="5"/>
+      <c r="F837" s="4"/>
       <c r="G837" s="4"/>
       <c r="H837" s="4"/>
-      <c r="I837" s="4"/>
     </row>
     <row r="838">
+      <c r="C838" s="5"/>
+      <c r="F838" s="4"/>
       <c r="G838" s="4"/>
       <c r="H838" s="4"/>
-      <c r="I838" s="4"/>
     </row>
     <row r="839">
+      <c r="C839" s="5"/>
+      <c r="F839" s="4"/>
       <c r="G839" s="4"/>
       <c r="H839" s="4"/>
-      <c r="I839" s="4"/>
     </row>
     <row r="840">
+      <c r="C840" s="5"/>
+      <c r="F840" s="4"/>
       <c r="G840" s="4"/>
       <c r="H840" s="4"/>
-      <c r="I840" s="4"/>
     </row>
     <row r="841">
+      <c r="C841" s="5"/>
+      <c r="F841" s="4"/>
       <c r="G841" s="4"/>
       <c r="H841" s="4"/>
-      <c r="I841" s="4"/>
     </row>
     <row r="842">
+      <c r="C842" s="5"/>
+      <c r="F842" s="4"/>
       <c r="G842" s="4"/>
       <c r="H842" s="4"/>
-      <c r="I842" s="4"/>
     </row>
     <row r="843">
+      <c r="C843" s="5"/>
+      <c r="F843" s="4"/>
       <c r="G843" s="4"/>
       <c r="H843" s="4"/>
-      <c r="I843" s="4"/>
     </row>
     <row r="844">
+      <c r="C844" s="5"/>
+      <c r="F844" s="4"/>
       <c r="G844" s="4"/>
       <c r="H844" s="4"/>
-      <c r="I844" s="4"/>
     </row>
     <row r="845">
+      <c r="C845" s="5"/>
+      <c r="F845" s="4"/>
       <c r="G845" s="4"/>
       <c r="H845" s="4"/>
-      <c r="I845" s="4"/>
     </row>
     <row r="846">
+      <c r="C846" s="5"/>
+      <c r="F846" s="4"/>
       <c r="G846" s="4"/>
       <c r="H846" s="4"/>
-      <c r="I846" s="4"/>
     </row>
     <row r="847">
+      <c r="C847" s="5"/>
+      <c r="F847" s="4"/>
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
-      <c r="I847" s="4"/>
     </row>
     <row r="848">
+      <c r="C848" s="5"/>
+      <c r="F848" s="4"/>
       <c r="G848" s="4"/>
       <c r="H848" s="4"/>
-      <c r="I848" s="4"/>
     </row>
     <row r="849">
+      <c r="C849" s="5"/>
+      <c r="F849" s="4"/>
       <c r="G849" s="4"/>
       <c r="H849" s="4"/>
-      <c r="I849" s="4"/>
     </row>
     <row r="850">
+      <c r="C850" s="5"/>
+      <c r="F850" s="4"/>
       <c r="G850" s="4"/>
       <c r="H850" s="4"/>
-      <c r="I850" s="4"/>
     </row>
     <row r="851">
+      <c r="C851" s="5"/>
+      <c r="F851" s="4"/>
       <c r="G851" s="4"/>
       <c r="H851" s="4"/>
-      <c r="I851" s="4"/>
     </row>
     <row r="852">
+      <c r="C852" s="5"/>
+      <c r="F852" s="4"/>
       <c r="G852" s="4"/>
       <c r="H852" s="4"/>
-      <c r="I852" s="4"/>
     </row>
     <row r="853">
+      <c r="C853" s="5"/>
+      <c r="F853" s="4"/>
       <c r="G853" s="4"/>
       <c r="H853" s="4"/>
-      <c r="I853" s="4"/>
     </row>
     <row r="854">
+      <c r="C854" s="5"/>
+      <c r="F854" s="4"/>
       <c r="G854" s="4"/>
       <c r="H854" s="4"/>
-      <c r="I854" s="4"/>
     </row>
     <row r="855">
+      <c r="C855" s="5"/>
+      <c r="F855" s="4"/>
       <c r="G855" s="4"/>
       <c r="H855" s="4"/>
-      <c r="I855" s="4"/>
     </row>
     <row r="856">
+      <c r="C856" s="5"/>
+      <c r="F856" s="4"/>
       <c r="G856" s="4"/>
       <c r="H856" s="4"/>
-      <c r="I856" s="4"/>
     </row>
     <row r="857">
+      <c r="C857" s="5"/>
+      <c r="F857" s="4"/>
       <c r="G857" s="4"/>
       <c r="H857" s="4"/>
-      <c r="I857" s="4"/>
     </row>
     <row r="858">
+      <c r="C858" s="5"/>
+      <c r="F858" s="4"/>
       <c r="G858" s="4"/>
       <c r="H858" s="4"/>
-      <c r="I858" s="4"/>
     </row>
     <row r="859">
+      <c r="C859" s="5"/>
+      <c r="F859" s="4"/>
       <c r="G859" s="4"/>
       <c r="H859" s="4"/>
-      <c r="I859" s="4"/>
     </row>
     <row r="860">
+      <c r="C860" s="5"/>
+      <c r="F860" s="4"/>
       <c r="G860" s="4"/>
       <c r="H860" s="4"/>
-      <c r="I860" s="4"/>
     </row>
     <row r="861">
+      <c r="C861" s="5"/>
+      <c r="F861" s="4"/>
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
-      <c r="I861" s="4"/>
     </row>
     <row r="862">
+      <c r="C862" s="5"/>
+      <c r="F862" s="4"/>
       <c r="G862" s="4"/>
       <c r="H862" s="4"/>
-      <c r="I862" s="4"/>
     </row>
     <row r="863">
+      <c r="C863" s="5"/>
+      <c r="F863" s="4"/>
       <c r="G863" s="4"/>
       <c r="H863" s="4"/>
-      <c r="I863" s="4"/>
     </row>
     <row r="864">
+      <c r="C864" s="5"/>
+      <c r="F864" s="4"/>
       <c r="G864" s="4"/>
       <c r="H864" s="4"/>
-      <c r="I864" s="4"/>
     </row>
     <row r="865">
+      <c r="C865" s="5"/>
+      <c r="F865" s="4"/>
       <c r="G865" s="4"/>
       <c r="H865" s="4"/>
-      <c r="I865" s="4"/>
     </row>
     <row r="866">
+      <c r="C866" s="5"/>
+      <c r="F866" s="4"/>
       <c r="G866" s="4"/>
       <c r="H866" s="4"/>
-      <c r="I866" s="4"/>
     </row>
     <row r="867">
+      <c r="C867" s="5"/>
+      <c r="F867" s="4"/>
       <c r="G867" s="4"/>
       <c r="H867" s="4"/>
-      <c r="I867" s="4"/>
     </row>
     <row r="868">
+      <c r="C868" s="5"/>
+      <c r="F868" s="4"/>
       <c r="G868" s="4"/>
       <c r="H868" s="4"/>
-      <c r="I868" s="4"/>
     </row>
     <row r="869">
+      <c r="C869" s="5"/>
+      <c r="F869" s="4"/>
       <c r="G869" s="4"/>
       <c r="H869" s="4"/>
-      <c r="I869" s="4"/>
     </row>
     <row r="870">
+      <c r="C870" s="5"/>
+      <c r="F870" s="4"/>
       <c r="G870" s="4"/>
       <c r="H870" s="4"/>
-      <c r="I870" s="4"/>
     </row>
     <row r="871">
+      <c r="C871" s="5"/>
+      <c r="F871" s="4"/>
       <c r="G871" s="4"/>
       <c r="H871" s="4"/>
-      <c r="I871" s="4"/>
     </row>
     <row r="872">
+      <c r="C872" s="5"/>
+      <c r="F872" s="4"/>
       <c r="G872" s="4"/>
       <c r="H872" s="4"/>
-      <c r="I872" s="4"/>
     </row>
     <row r="873">
+      <c r="C873" s="5"/>
+      <c r="F873" s="4"/>
       <c r="G873" s="4"/>
       <c r="H873" s="4"/>
-      <c r="I873" s="4"/>
     </row>
     <row r="874">
+      <c r="C874" s="5"/>
+      <c r="F874" s="4"/>
       <c r="G874" s="4"/>
       <c r="H874" s="4"/>
-      <c r="I874" s="4"/>
     </row>
     <row r="875">
+      <c r="C875" s="5"/>
+      <c r="F875" s="4"/>
       <c r="G875" s="4"/>
       <c r="H875" s="4"/>
-      <c r="I875" s="4"/>
     </row>
     <row r="876">
+      <c r="C876" s="5"/>
+      <c r="F876" s="4"/>
       <c r="G876" s="4"/>
       <c r="H876" s="4"/>
-      <c r="I876" s="4"/>
     </row>
     <row r="877">
+      <c r="C877" s="5"/>
+      <c r="F877" s="4"/>
       <c r="G877" s="4"/>
       <c r="H877" s="4"/>
-      <c r="I877" s="4"/>
     </row>
     <row r="878">
+      <c r="C878" s="5"/>
+      <c r="F878" s="4"/>
       <c r="G878" s="4"/>
       <c r="H878" s="4"/>
-      <c r="I878" s="4"/>
     </row>
     <row r="879">
+      <c r="C879" s="5"/>
+      <c r="F879" s="4"/>
       <c r="G879" s="4"/>
       <c r="H879" s="4"/>
-      <c r="I879" s="4"/>
     </row>
     <row r="880">
+      <c r="C880" s="5"/>
+      <c r="F880" s="4"/>
       <c r="G880" s="4"/>
       <c r="H880" s="4"/>
-      <c r="I880" s="4"/>
     </row>
     <row r="881">
+      <c r="C881" s="5"/>
+      <c r="F881" s="4"/>
       <c r="G881" s="4"/>
       <c r="H881" s="4"/>
-      <c r="I881" s="4"/>
     </row>
     <row r="882">
+      <c r="C882" s="5"/>
+      <c r="F882" s="4"/>
       <c r="G882" s="4"/>
       <c r="H882" s="4"/>
-      <c r="I882" s="4"/>
     </row>
     <row r="883">
+      <c r="C883" s="5"/>
+      <c r="F883" s="4"/>
       <c r="G883" s="4"/>
       <c r="H883" s="4"/>
-      <c r="I883" s="4"/>
     </row>
     <row r="884">
+      <c r="C884" s="5"/>
+      <c r="F884" s="4"/>
       <c r="G884" s="4"/>
       <c r="H884" s="4"/>
-      <c r="I884" s="4"/>
     </row>
     <row r="885">
+      <c r="C885" s="5"/>
+      <c r="F885" s="4"/>
       <c r="G885" s="4"/>
       <c r="H885" s="4"/>
-      <c r="I885" s="4"/>
     </row>
     <row r="886">
+      <c r="C886" s="5"/>
+      <c r="F886" s="4"/>
       <c r="G886" s="4"/>
       <c r="H886" s="4"/>
-      <c r="I886" s="4"/>
     </row>
     <row r="887">
+      <c r="C887" s="5"/>
+      <c r="F887" s="4"/>
       <c r="G887" s="4"/>
       <c r="H887" s="4"/>
-      <c r="I887" s="4"/>
     </row>
     <row r="888">
+      <c r="C888" s="5"/>
+      <c r="F888" s="4"/>
       <c r="G888" s="4"/>
       <c r="H888" s="4"/>
-      <c r="I888" s="4"/>
     </row>
     <row r="889">
+      <c r="C889" s="5"/>
+      <c r="F889" s="4"/>
       <c r="G889" s="4"/>
       <c r="H889" s="4"/>
-      <c r="I889" s="4"/>
     </row>
     <row r="890">
+      <c r="C890" s="5"/>
+      <c r="F890" s="4"/>
       <c r="G890" s="4"/>
       <c r="H890" s="4"/>
-      <c r="I890" s="4"/>
     </row>
     <row r="891">
+      <c r="C891" s="5"/>
+      <c r="F891" s="4"/>
       <c r="G891" s="4"/>
       <c r="H891" s="4"/>
-      <c r="I891" s="4"/>
     </row>
     <row r="892">
+      <c r="C892" s="5"/>
+      <c r="F892" s="4"/>
       <c r="G892" s="4"/>
       <c r="H892" s="4"/>
-      <c r="I892" s="4"/>
     </row>
     <row r="893">
+      <c r="C893" s="5"/>
+      <c r="F893" s="4"/>
       <c r="G893" s="4"/>
       <c r="H893" s="4"/>
-      <c r="I893" s="4"/>
     </row>
     <row r="894">
+      <c r="C894" s="5"/>
+      <c r="F894" s="4"/>
       <c r="G894" s="4"/>
       <c r="H894" s="4"/>
-      <c r="I894" s="4"/>
     </row>
     <row r="895">
+      <c r="C895" s="5"/>
+      <c r="F895" s="4"/>
       <c r="G895" s="4"/>
       <c r="H895" s="4"/>
-      <c r="I895" s="4"/>
     </row>
     <row r="896">
+      <c r="C896" s="5"/>
+      <c r="F896" s="4"/>
       <c r="G896" s="4"/>
       <c r="H896" s="4"/>
-      <c r="I896" s="4"/>
     </row>
     <row r="897">
+      <c r="C897" s="5"/>
+      <c r="F897" s="4"/>
       <c r="G897" s="4"/>
       <c r="H897" s="4"/>
-      <c r="I897" s="4"/>
     </row>
     <row r="898">
+      <c r="C898" s="5"/>
+      <c r="F898" s="4"/>
       <c r="G898" s="4"/>
       <c r="H898" s="4"/>
-      <c r="I898" s="4"/>
     </row>
     <row r="899">
+      <c r="C899" s="5"/>
+      <c r="F899" s="4"/>
       <c r="G899" s="4"/>
       <c r="H899" s="4"/>
-      <c r="I899" s="4"/>
     </row>
     <row r="900">
+      <c r="C900" s="5"/>
+      <c r="F900" s="4"/>
       <c r="G900" s="4"/>
       <c r="H900" s="4"/>
-      <c r="I900" s="4"/>
     </row>
     <row r="901">
+      <c r="C901" s="5"/>
+      <c r="F901" s="4"/>
       <c r="G901" s="4"/>
       <c r="H901" s="4"/>
-      <c r="I901" s="4"/>
     </row>
     <row r="902">
+      <c r="C902" s="5"/>
+      <c r="F902" s="4"/>
       <c r="G902" s="4"/>
       <c r="H902" s="4"/>
-      <c r="I902" s="4"/>
     </row>
     <row r="903">
+      <c r="C903" s="5"/>
+      <c r="F903" s="4"/>
       <c r="G903" s="4"/>
       <c r="H903" s="4"/>
-      <c r="I903" s="4"/>
     </row>
     <row r="904">
+      <c r="C904" s="5"/>
+      <c r="F904" s="4"/>
       <c r="G904" s="4"/>
       <c r="H904" s="4"/>
-      <c r="I904" s="4"/>
     </row>
     <row r="905">
+      <c r="C905" s="5"/>
+      <c r="F905" s="4"/>
       <c r="G905" s="4"/>
       <c r="H905" s="4"/>
-      <c r="I905" s="4"/>
     </row>
     <row r="906">
+      <c r="C906" s="5"/>
+      <c r="F906" s="4"/>
       <c r="G906" s="4"/>
       <c r="H906" s="4"/>
-      <c r="I906" s="4"/>
     </row>
     <row r="907">
+      <c r="C907" s="5"/>
+      <c r="F907" s="4"/>
       <c r="G907" s="4"/>
       <c r="H907" s="4"/>
-      <c r="I907" s="4"/>
     </row>
     <row r="908">
+      <c r="C908" s="5"/>
+      <c r="F908" s="4"/>
       <c r="G908" s="4"/>
       <c r="H908" s="4"/>
-      <c r="I908" s="4"/>
     </row>
     <row r="909">
+      <c r="C909" s="5"/>
+      <c r="F909" s="4"/>
       <c r="G909" s="4"/>
       <c r="H909" s="4"/>
-      <c r="I909" s="4"/>
     </row>
     <row r="910">
+      <c r="C910" s="5"/>
+      <c r="F910" s="4"/>
       <c r="G910" s="4"/>
       <c r="H910" s="4"/>
-      <c r="I910" s="4"/>
     </row>
     <row r="911">
+      <c r="C911" s="5"/>
+      <c r="F911" s="4"/>
       <c r="G911" s="4"/>
       <c r="H911" s="4"/>
-      <c r="I911" s="4"/>
     </row>
     <row r="912">
+      <c r="C912" s="5"/>
+      <c r="F912" s="4"/>
       <c r="G912" s="4"/>
       <c r="H912" s="4"/>
-      <c r="I912" s="4"/>
     </row>
     <row r="913">
+      <c r="C913" s="5"/>
+      <c r="F913" s="4"/>
       <c r="G913" s="4"/>
       <c r="H913" s="4"/>
-      <c r="I913" s="4"/>
     </row>
     <row r="914">
+      <c r="C914" s="5"/>
+      <c r="F914" s="4"/>
       <c r="G914" s="4"/>
       <c r="H914" s="4"/>
-      <c r="I914" s="4"/>
     </row>
     <row r="915">
+      <c r="C915" s="5"/>
+      <c r="F915" s="4"/>
       <c r="G915" s="4"/>
       <c r="H915" s="4"/>
-      <c r="I915" s="4"/>
     </row>
     <row r="916">
+      <c r="C916" s="5"/>
+      <c r="F916" s="4"/>
       <c r="G916" s="4"/>
       <c r="H916" s="4"/>
-      <c r="I916" s="4"/>
     </row>
     <row r="917">
+      <c r="C917" s="5"/>
+      <c r="F917" s="4"/>
       <c r="G917" s="4"/>
       <c r="H917" s="4"/>
-      <c r="I917" s="4"/>
     </row>
     <row r="918">
+      <c r="C918" s="5"/>
+      <c r="F918" s="4"/>
       <c r="G918" s="4"/>
       <c r="H918" s="4"/>
-      <c r="I918" s="4"/>
     </row>
     <row r="919">
+      <c r="C919" s="5"/>
+      <c r="F919" s="4"/>
       <c r="G919" s="4"/>
       <c r="H919" s="4"/>
-      <c r="I919" s="4"/>
     </row>
     <row r="920">
+      <c r="C920" s="5"/>
+      <c r="F920" s="4"/>
       <c r="G920" s="4"/>
       <c r="H920" s="4"/>
-      <c r="I920" s="4"/>
     </row>
     <row r="921">
+      <c r="C921" s="5"/>
+      <c r="F921" s="4"/>
       <c r="G921" s="4"/>
       <c r="H921" s="4"/>
-      <c r="I921" s="4"/>
     </row>
     <row r="922">
+      <c r="C922" s="5"/>
+      <c r="F922" s="4"/>
       <c r="G922" s="4"/>
       <c r="H922" s="4"/>
-      <c r="I922" s="4"/>
     </row>
     <row r="923">
+      <c r="C923" s="5"/>
+      <c r="F923" s="4"/>
       <c r="G923" s="4"/>
       <c r="H923" s="4"/>
-      <c r="I923" s="4"/>
     </row>
     <row r="924">
+      <c r="C924" s="5"/>
+      <c r="F924" s="4"/>
       <c r="G924" s="4"/>
       <c r="H924" s="4"/>
-      <c r="I924" s="4"/>
     </row>
     <row r="925">
+      <c r="C925" s="5"/>
+      <c r="F925" s="4"/>
       <c r="G925" s="4"/>
       <c r="H925" s="4"/>
-      <c r="I925" s="4"/>
     </row>
     <row r="926">
+      <c r="C926" s="5"/>
+      <c r="F926" s="4"/>
       <c r="G926" s="4"/>
       <c r="H926" s="4"/>
-      <c r="I926" s="4"/>
     </row>
     <row r="927">
+      <c r="C927" s="5"/>
+      <c r="F927" s="4"/>
       <c r="G927" s="4"/>
       <c r="H927" s="4"/>
-      <c r="I927" s="4"/>
     </row>
     <row r="928">
+      <c r="C928" s="5"/>
+      <c r="F928" s="4"/>
       <c r="G928" s="4"/>
       <c r="H928" s="4"/>
-      <c r="I928" s="4"/>
     </row>
     <row r="929">
+      <c r="C929" s="5"/>
+      <c r="F929" s="4"/>
       <c r="G929" s="4"/>
       <c r="H929" s="4"/>
-      <c r="I929" s="4"/>
     </row>
     <row r="930">
+      <c r="C930" s="5"/>
+      <c r="F930" s="4"/>
       <c r="G930" s="4"/>
       <c r="H930" s="4"/>
-      <c r="I930" s="4"/>
     </row>
     <row r="931">
+      <c r="C931" s="5"/>
+      <c r="F931" s="4"/>
       <c r="G931" s="4"/>
       <c r="H931" s="4"/>
-      <c r="I931" s="4"/>
     </row>
     <row r="932">
+      <c r="C932" s="5"/>
+      <c r="F932" s="4"/>
       <c r="G932" s="4"/>
       <c r="H932" s="4"/>
-      <c r="I932" s="4"/>
     </row>
     <row r="933">
+      <c r="C933" s="5"/>
+      <c r="F933" s="4"/>
       <c r="G933" s="4"/>
       <c r="H933" s="4"/>
-      <c r="I933" s="4"/>
     </row>
     <row r="934">
+      <c r="C934" s="5"/>
+      <c r="F934" s="4"/>
       <c r="G934" s="4"/>
       <c r="H934" s="4"/>
-      <c r="I934" s="4"/>
     </row>
     <row r="935">
+      <c r="C935" s="5"/>
+      <c r="F935" s="4"/>
       <c r="G935" s="4"/>
       <c r="H935" s="4"/>
-      <c r="I935" s="4"/>
     </row>
     <row r="936">
+      <c r="C936" s="5"/>
+      <c r="F936" s="4"/>
       <c r="G936" s="4"/>
       <c r="H936" s="4"/>
-      <c r="I936" s="4"/>
     </row>
     <row r="937">
+      <c r="C937" s="5"/>
+      <c r="F937" s="4"/>
       <c r="G937" s="4"/>
       <c r="H937" s="4"/>
-      <c r="I937" s="4"/>
     </row>
     <row r="938">
+      <c r="C938" s="5"/>
+      <c r="F938" s="4"/>
       <c r="G938" s="4"/>
       <c r="H938" s="4"/>
-      <c r="I938" s="4"/>
     </row>
     <row r="939">
+      <c r="C939" s="5"/>
+      <c r="F939" s="4"/>
       <c r="G939" s="4"/>
       <c r="H939" s="4"/>
-      <c r="I939" s="4"/>
     </row>
     <row r="940">
+      <c r="C940" s="5"/>
+      <c r="F940" s="4"/>
       <c r="G940" s="4"/>
       <c r="H940" s="4"/>
-      <c r="I940" s="4"/>
     </row>
     <row r="941">
+      <c r="C941" s="5"/>
+      <c r="F941" s="4"/>
       <c r="G941" s="4"/>
       <c r="H941" s="4"/>
-      <c r="I941" s="4"/>
     </row>
     <row r="942">
+      <c r="C942" s="5"/>
+      <c r="F942" s="4"/>
       <c r="G942" s="4"/>
       <c r="H942" s="4"/>
-      <c r="I942" s="4"/>
     </row>
     <row r="943">
+      <c r="C943" s="5"/>
+      <c r="F943" s="4"/>
       <c r="G943" s="4"/>
       <c r="H943" s="4"/>
-      <c r="I943" s="4"/>
     </row>
     <row r="944">
+      <c r="C944" s="5"/>
+      <c r="F944" s="4"/>
       <c r="G944" s="4"/>
       <c r="H944" s="4"/>
-      <c r="I944" s="4"/>
     </row>
     <row r="945">
+      <c r="C945" s="5"/>
+      <c r="F945" s="4"/>
       <c r="G945" s="4"/>
       <c r="H945" s="4"/>
-      <c r="I945" s="4"/>
     </row>
     <row r="946">
+      <c r="C946" s="5"/>
+      <c r="F946" s="4"/>
       <c r="G946" s="4"/>
       <c r="H946" s="4"/>
-      <c r="I946" s="4"/>
     </row>
     <row r="947">
+      <c r="C947" s="5"/>
+      <c r="F947" s="4"/>
       <c r="G947" s="4"/>
       <c r="H947" s="4"/>
-      <c r="I947" s="4"/>
     </row>
     <row r="948">
+      <c r="C948" s="5"/>
+      <c r="F948" s="4"/>
       <c r="G948" s="4"/>
       <c r="H948" s="4"/>
-      <c r="I948" s="4"/>
     </row>
     <row r="949">
+      <c r="C949" s="5"/>
+      <c r="F949" s="4"/>
       <c r="G949" s="4"/>
       <c r="H949" s="4"/>
-      <c r="I949" s="4"/>
     </row>
     <row r="950">
+      <c r="C950" s="5"/>
+      <c r="F950" s="4"/>
       <c r="G950" s="4"/>
       <c r="H950" s="4"/>
-      <c r="I950" s="4"/>
     </row>
     <row r="951">
+      <c r="C951" s="5"/>
+      <c r="F951" s="4"/>
       <c r="G951" s="4"/>
       <c r="H951" s="4"/>
-      <c r="I951" s="4"/>
     </row>
     <row r="952">
+      <c r="C952" s="5"/>
+      <c r="F952" s="4"/>
       <c r="G952" s="4"/>
       <c r="H952" s="4"/>
-      <c r="I952" s="4"/>
     </row>
     <row r="953">
+      <c r="C953" s="5"/>
+      <c r="F953" s="4"/>
       <c r="G953" s="4"/>
       <c r="H953" s="4"/>
-      <c r="I953" s="4"/>
     </row>
     <row r="954">
+      <c r="C954" s="5"/>
+      <c r="F954" s="4"/>
       <c r="G954" s="4"/>
       <c r="H954" s="4"/>
-      <c r="I954" s="4"/>
     </row>
     <row r="955">
+      <c r="C955" s="5"/>
+      <c r="F955" s="4"/>
       <c r="G955" s="4"/>
       <c r="H955" s="4"/>
-      <c r="I955" s="4"/>
     </row>
     <row r="956">
+      <c r="C956" s="5"/>
+      <c r="F956" s="4"/>
       <c r="G956" s="4"/>
       <c r="H956" s="4"/>
-      <c r="I956" s="4"/>
     </row>
     <row r="957">
+      <c r="C957" s="5"/>
+      <c r="F957" s="4"/>
       <c r="G957" s="4"/>
       <c r="H957" s="4"/>
-      <c r="I957" s="4"/>
     </row>
     <row r="958">
+      <c r="C958" s="5"/>
+      <c r="F958" s="4"/>
       <c r="G958" s="4"/>
       <c r="H958" s="4"/>
-      <c r="I958" s="4"/>
     </row>
     <row r="959">
+      <c r="C959" s="5"/>
+      <c r="F959" s="4"/>
       <c r="G959" s="4"/>
       <c r="H959" s="4"/>
-      <c r="I959" s="4"/>
     </row>
     <row r="960">
+      <c r="C960" s="5"/>
+      <c r="F960" s="4"/>
       <c r="G960" s="4"/>
       <c r="H960" s="4"/>
-      <c r="I960" s="4"/>
     </row>
     <row r="961">
+      <c r="C961" s="5"/>
+      <c r="F961" s="4"/>
       <c r="G961" s="4"/>
       <c r="H961" s="4"/>
-      <c r="I961" s="4"/>
     </row>
     <row r="962">
+      <c r="C962" s="5"/>
+      <c r="F962" s="4"/>
       <c r="G962" s="4"/>
       <c r="H962" s="4"/>
-      <c r="I962" s="4"/>
     </row>
     <row r="963">
+      <c r="C963" s="5"/>
+      <c r="F963" s="4"/>
       <c r="G963" s="4"/>
       <c r="H963" s="4"/>
-      <c r="I963" s="4"/>
     </row>
     <row r="964">
+      <c r="C964" s="5"/>
+      <c r="F964" s="4"/>
       <c r="G964" s="4"/>
       <c r="H964" s="4"/>
-      <c r="I964" s="4"/>
     </row>
     <row r="965">
+      <c r="C965" s="5"/>
+      <c r="F965" s="4"/>
       <c r="G965" s="4"/>
       <c r="H965" s="4"/>
-      <c r="I965" s="4"/>
     </row>
     <row r="966">
+      <c r="C966" s="5"/>
+      <c r="F966" s="4"/>
       <c r="G966" s="4"/>
       <c r="H966" s="4"/>
-      <c r="I966" s="4"/>
     </row>
     <row r="967">
+      <c r="C967" s="5"/>
+      <c r="F967" s="4"/>
       <c r="G967" s="4"/>
       <c r="H967" s="4"/>
-      <c r="I967" s="4"/>
     </row>
     <row r="968">
+      <c r="C968" s="5"/>
+      <c r="F968" s="4"/>
       <c r="G968" s="4"/>
       <c r="H968" s="4"/>
-      <c r="I968" s="4"/>
     </row>
     <row r="969">
+      <c r="C969" s="5"/>
+      <c r="F969" s="4"/>
       <c r="G969" s="4"/>
       <c r="H969" s="4"/>
-      <c r="I969" s="4"/>
     </row>
     <row r="970">
+      <c r="C970" s="5"/>
+      <c r="F970" s="4"/>
       <c r="G970" s="4"/>
       <c r="H970" s="4"/>
-      <c r="I970" s="4"/>
     </row>
     <row r="971">
+      <c r="C971" s="5"/>
+      <c r="F971" s="4"/>
       <c r="G971" s="4"/>
       <c r="H971" s="4"/>
-      <c r="I971" s="4"/>
     </row>
     <row r="972">
+      <c r="C972" s="5"/>
+      <c r="F972" s="4"/>
       <c r="G972" s="4"/>
       <c r="H972" s="4"/>
-      <c r="I972" s="4"/>
     </row>
     <row r="973">
+      <c r="C973" s="5"/>
+      <c r="F973" s="4"/>
       <c r="G973" s="4"/>
       <c r="H973" s="4"/>
-      <c r="I973" s="4"/>
     </row>
     <row r="974">
+      <c r="C974" s="5"/>
+      <c r="F974" s="4"/>
       <c r="G974" s="4"/>
       <c r="H974" s="4"/>
-      <c r="I974" s="4"/>
     </row>
     <row r="975">
+      <c r="C975" s="5"/>
+      <c r="F975" s="4"/>
       <c r="G975" s="4"/>
       <c r="H975" s="4"/>
-      <c r="I975" s="4"/>
     </row>
     <row r="976">
+      <c r="C976" s="5"/>
+      <c r="F976" s="4"/>
       <c r="G976" s="4"/>
       <c r="H976" s="4"/>
-      <c r="I976" s="4"/>
     </row>
     <row r="977">
+      <c r="C977" s="5"/>
+      <c r="F977" s="4"/>
       <c r="G977" s="4"/>
       <c r="H977" s="4"/>
-      <c r="I977" s="4"/>
     </row>
     <row r="978">
+      <c r="C978" s="5"/>
+      <c r="F978" s="4"/>
       <c r="G978" s="4"/>
       <c r="H978" s="4"/>
-      <c r="I978" s="4"/>
     </row>
     <row r="979">
+      <c r="C979" s="5"/>
+      <c r="F979" s="4"/>
       <c r="G979" s="4"/>
       <c r="H979" s="4"/>
-      <c r="I979" s="4"/>
     </row>
     <row r="980">
+      <c r="C980" s="5"/>
+      <c r="F980" s="4"/>
       <c r="G980" s="4"/>
       <c r="H980" s="4"/>
-      <c r="I980" s="4"/>
     </row>
     <row r="981">
+      <c r="C981" s="5"/>
+      <c r="F981" s="4"/>
       <c r="G981" s="4"/>
       <c r="H981" s="4"/>
-      <c r="I981" s="4"/>
     </row>
     <row r="982">
+      <c r="C982" s="5"/>
+      <c r="F982" s="4"/>
       <c r="G982" s="4"/>
       <c r="H982" s="4"/>
-      <c r="I982" s="4"/>
     </row>
     <row r="983">
+      <c r="C983" s="5"/>
+      <c r="F983" s="4"/>
       <c r="G983" s="4"/>
       <c r="H983" s="4"/>
-      <c r="I983" s="4"/>
     </row>
     <row r="984">
+      <c r="C984" s="5"/>
+      <c r="F984" s="4"/>
       <c r="G984" s="4"/>
       <c r="H984" s="4"/>
-      <c r="I984" s="4"/>
     </row>
     <row r="985">
+      <c r="C985" s="5"/>
+      <c r="F985" s="4"/>
       <c r="G985" s="4"/>
       <c r="H985" s="4"/>
-      <c r="I985" s="4"/>
     </row>
     <row r="986">
+      <c r="C986" s="5"/>
+      <c r="F986" s="4"/>
       <c r="G986" s="4"/>
       <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
     </row>
     <row r="987">
+      <c r="C987" s="5"/>
+      <c r="F987" s="4"/>
       <c r="G987" s="4"/>
       <c r="H987" s="4"/>
-      <c r="I987" s="4"/>
     </row>
     <row r="988">
+      <c r="C988" s="5"/>
+      <c r="F988" s="4"/>
       <c r="G988" s="4"/>
       <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
     </row>
     <row r="989">
+      <c r="C989" s="5"/>
+      <c r="F989" s="4"/>
       <c r="G989" s="4"/>
       <c r="H989" s="4"/>
-      <c r="I989" s="4"/>
     </row>
     <row r="990">
+      <c r="C990" s="5"/>
+      <c r="F990" s="4"/>
       <c r="G990" s="4"/>
       <c r="H990" s="4"/>
-      <c r="I990" s="4"/>
     </row>
     <row r="991">
+      <c r="C991" s="5"/>
+      <c r="F991" s="4"/>
       <c r="G991" s="4"/>
       <c r="H991" s="4"/>
-      <c r="I991" s="4"/>
     </row>
     <row r="992">
+      <c r="C992" s="5"/>
+      <c r="F992" s="4"/>
       <c r="G992" s="4"/>
       <c r="H992" s="4"/>
-      <c r="I992" s="4"/>
     </row>
     <row r="993">
+      <c r="C993" s="5"/>
+      <c r="F993" s="4"/>
       <c r="G993" s="4"/>
       <c r="H993" s="4"/>
-      <c r="I993" s="4"/>
     </row>
     <row r="994">
+      <c r="C994" s="5"/>
+      <c r="F994" s="4"/>
       <c r="G994" s="4"/>
       <c r="H994" s="4"/>
-      <c r="I994" s="4"/>
     </row>
     <row r="995">
+      <c r="C995" s="5"/>
+      <c r="F995" s="4"/>
       <c r="G995" s="4"/>
       <c r="H995" s="4"/>
-      <c r="I995" s="4"/>
     </row>
     <row r="996">
+      <c r="C996" s="5"/>
+      <c r="F996" s="4"/>
       <c r="G996" s="4"/>
       <c r="H996" s="4"/>
-      <c r="I996" s="4"/>
     </row>
     <row r="997">
+      <c r="C997" s="5"/>
+      <c r="F997" s="4"/>
       <c r="G997" s="4"/>
       <c r="H997" s="4"/>
-      <c r="I997" s="4"/>
     </row>
     <row r="998">
+      <c r="C998" s="5"/>
+      <c r="F998" s="4"/>
       <c r="G998" s="4"/>
       <c r="H998" s="4"/>
-      <c r="I998" s="4"/>
     </row>
     <row r="999">
+      <c r="C999" s="5"/>
+      <c r="F999" s="4"/>
       <c r="G999" s="4"/>
       <c r="H999" s="4"/>
-      <c r="I999" s="4"/>
     </row>
     <row r="1000">
+      <c r="C1000" s="5"/>
+      <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
       <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
     </row>
     <row r="1001">
+      <c r="C1001" s="5"/>
+      <c r="F1001" s="4"/>
       <c r="G1001" s="4"/>
       <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
     </row>
     <row r="1002">
+      <c r="C1002" s="5"/>
+      <c r="F1002" s="4"/>
       <c r="G1002" s="4"/>
       <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
     </row>
     <row r="1003">
+      <c r="C1003" s="5"/>
+      <c r="F1003" s="4"/>
       <c r="G1003" s="4"/>
       <c r="H1003" s="4"/>
-      <c r="I1003" s="4"/>
     </row>
     <row r="1004">
+      <c r="C1004" s="5"/>
+      <c r="F1004" s="4"/>
       <c r="G1004" s="4"/>
       <c r="H1004" s="4"/>
-      <c r="I1004" s="4"/>
     </row>
     <row r="1005">
+      <c r="C1005" s="5"/>
+      <c r="F1005" s="4"/>
       <c r="G1005" s="4"/>
       <c r="H1005" s="4"/>
-      <c r="I1005" s="4"/>
     </row>
     <row r="1006">
+      <c r="C1006" s="5"/>
+      <c r="F1006" s="4"/>
       <c r="G1006" s="4"/>
       <c r="H1006" s="4"/>
-      <c r="I1006" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$1006">
-    <sortState ref="A1:J1006">
+  <autoFilter ref="$A$1:$I$1006">
+    <sortState ref="A1:I1006">
       <sortCondition descending="1" ref="C1:C1006"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J5"/>
-    <hyperlink r:id="rId2" ref="J6"/>
-    <hyperlink r:id="rId3" ref="J8"/>
-    <hyperlink r:id="rId4" ref="J11"/>
-    <hyperlink r:id="rId5" ref="J12"/>
-    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="J13"/>
-    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="J14"/>
-    <hyperlink r:id="rId8" ref="J16"/>
+    <hyperlink r:id="rId1" ref="I5"/>
+    <hyperlink r:id="rId2" ref="I6"/>
+    <hyperlink r:id="rId3" ref="I8"/>
+    <hyperlink r:id="rId4" ref="I11"/>
+    <hyperlink r:id="rId5" ref="I12"/>
+    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="I13"/>
+    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="I14"/>
+    <hyperlink r:id="rId8" ref="I16"/>
   </hyperlinks>
   <drawing r:id="rId9"/>
 </worksheet>
@@ -19872,7 +20849,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -19880,73 +20857,69 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="7">
+        <v>87</v>
+      </c>
+      <c r="B2" s="9">
         <v>2024.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="7">
+        <v>89</v>
+      </c>
+      <c r="B3" s="9">
         <v>2023.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$1005">
-    <sortState ref="A1:B1005">
-      <sortCondition descending="1" ref="B1:B1005"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="$A$1:$C$1005"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -19967,168 +20940,168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>94</v>
       </c>
+      <c r="F1" s="22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="23">
+      <c r="D2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="24">
         <v>3.8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="24">
+        <v>4.6</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="24">
+        <v>8.2</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+      <c r="E6" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="23">
-        <v>4.6</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="23">
-        <v>8.2</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="23">
-        <v>4.2</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="23">
-        <v>3.8</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -20150,125 +21123,125 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="24">
+        <v>3.8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C3" s="24">
+        <v>4.6</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="24">
+        <v>8.2</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="24">
         <v>3.8</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="23">
-        <v>4.6</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="D6" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="23">
-        <v>8.2</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="23">
-        <v>4.2</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="23">
-        <v>3.8</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
+      <c r="C8" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="25" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="25">
+      <c r="B9" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="26">
         <v>13.6</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>99</v>
+      <c r="D9" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -20294,37 +21267,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$D$2"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
   </hyperlinks>
@@ -20352,7 +21326,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -20361,36 +21335,37 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$E$2"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="266">
   <si>
     <t>title</t>
   </si>
@@ -98,6 +98,21 @@
     <t>phd statistics luglio 2024</t>
   </si>
   <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>aip sviluppo</t>
+  </si>
+  <si>
+    <t>organizzazione</t>
+  </si>
+  <si>
+    <t>simposio aip sperimentale</t>
+  </si>
+  <si>
+    <t>meta-rep</t>
+  </si>
+  <si>
     <t>PhD in Psychological Sciences</t>
   </si>
   <si>
@@ -138,8 +153,8 @@
     <t>250 hrs.</t>
   </si>
   <si>
-    <t>Educational activities with in-patients children and their families \n
-Research about the psychosocial well-being of in-patients adolescents \n
+    <t>Educational activities with in-patients children and their families 
+Research about the psychosocial well-being of in-patients adolescents 
 Discussing about clinical cases in regular supervisions</t>
   </si>
   <si>
@@ -158,8 +173,8 @@
     <t>1 year</t>
   </si>
   <si>
-    <t>Research project about visual consciousness and sensorimotor simulation \n 
-Research project about social cognition during pregnancy \n
+    <t>Research project about visual consciousness and sensorimotor simulation  
+Research project about social cognition during pregnancy 
 Supervision of internship students in EEG laboratory</t>
   </si>
   <si>
@@ -175,8 +190,7 @@
     <t>6 months</t>
   </si>
   <si>
-    <t>Research project about the relationship between Working Memory and Consciousness \n
-Supervisor: Professor Roy Luria</t>
+    <t>Research project about the relationship between Working Memory and Consciousness Supervisor: Professor Roy Luria</t>
   </si>
   <si>
     <t>Licensed Psychologist (Esame di Stato)</t>
@@ -257,7 +271,7 @@
     <t>Statistical Methods and Data Analysis in Developmental Psychology</t>
   </si>
   <si>
-    <t>Lecturer (*Docente a contratto*) for the Master's degree in Developmental and Educational Psychology, University of Padova</t>
+    <t>Lecturer for the Master's degree in Developmental and Educational Psychology, University of Padova</t>
   </si>
   <si>
     <t>https://github.com/stat-teaching/SMDA-2023</t>
@@ -275,22 +289,22 @@
     <t>https://github.com/filippogambarota/corsoR</t>
   </si>
   <si>
-    <t>Data Analysis in Developmental Psychology [*didattica integrativa*]</t>
+    <t>Data Analysis in Developmental Psychology</t>
   </si>
   <si>
     <t>integrative</t>
   </si>
   <si>
-    <t>Lectures about R programming and data analysis (*Didattica Integrativa*) of the course "Data Analysis in Developmental Psychology" (Prof. Massimilano Pastore), Master's degree in Psychology of Community, Wellness Promotion, and Social Change, University of Padova</t>
+    <t>Lectures about R programming and data analysis of the course "Data Analysis in Developmental Psychology" (Prof. Massimilano Pastore), Master's degree in Psychology of Community, Wellness Promotion, and Social Change, University of Padova</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>Psychological Testing [*didattica integrativa*]</t>
-  </si>
-  <si>
-    <t>Lectures about R programming and data analysis (*Didattica Integrativa*) of the course "Psychological Testing" (Prof. Gianmarco Altoè), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
+    <t>Psychological Testing</t>
+  </si>
+  <si>
+    <t>Lectures about R programming and data analysis of the course "Psychological Testing" (Prof. Gianmarco Altoè), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
   </si>
   <si>
     <t>Introduction to Visual Consciousness</t>
@@ -681,7 +695,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t>Il sito raccoglie e condivide in modo open le attività del gruppo a favore degli utenti interessati</t>
+    <t>Il sito [https://psicostat.dpss.psy.unipd.it/](https://psicostat.dpss.psy.unipd.it/) raccoglie e condivide in modo open le attività del gruppo a favore degli utenti interessati</t>
   </si>
   <si>
     <t>Prof. Gianmarco Altoè</t>
@@ -7317,36 +7331,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -7391,13 +7405,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7409,30 +7423,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -7440,19 +7454,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -7460,19 +7474,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -7480,129 +7494,129 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -7610,19 +7624,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -7630,19 +7644,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -7650,19 +7664,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -7670,19 +7684,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -7690,84 +7704,84 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7806,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -7814,7 +7828,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -7822,7 +7836,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -7830,7 +7844,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7855,10 +7869,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7866,43 +7880,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -7942,52 +7956,52 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -8012,16 +8026,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8029,172 +8043,172 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="E4" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -8238,32 +8252,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -8314,6 +8328,30 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8363,147 +8401,147 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>7.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3">
         <v>8.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>6.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3">
         <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3">
         <v>2.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
@@ -14497,30 +14535,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -14528,19 +14566,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -14574,19 +14612,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -14595,21 +14633,21 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" s="10">
         <v>45231.0</v>
@@ -14622,22 +14660,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J2" s="13"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3" s="10">
         <v>45170.0</v>
@@ -14650,22 +14688,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="10">
         <v>45017.0</v>
@@ -14680,24 +14718,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" s="10">
         <v>44986.0</v>
@@ -14710,24 +14748,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E6" s="18">
         <v>44986.0</v>
@@ -14740,21 +14778,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E7" s="19">
         <v>44866.0</v>
@@ -14767,10 +14805,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -14796,16 +14834,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E8" s="18">
         <v>44621.0</v>
@@ -14818,21 +14856,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E9" s="18">
         <v>44805.0</v>
@@ -14845,21 +14883,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E10" s="19">
         <v>44470.0</v>
@@ -14872,24 +14910,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E11" s="18">
         <v>44287.0</v>
@@ -14902,24 +14940,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="18">
         <v>44287.0</v>
@@ -14932,24 +14970,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -14960,24 +14998,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E14" s="19">
         <v>45352.0</v>
@@ -14990,10 +15028,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -21995,24 +22033,24 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11">
         <v>2024.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B3" s="11">
         <v>2023.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -22078,145 +22116,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
         <v>6.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B3" s="23">
         <v>3.7</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B4" s="23">
         <v>3.6</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B5" s="24">
         <v>13.6</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B6" s="23">
         <v>8.2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B7" s="23">
         <v>12.0</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1">
         <v>4.2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1">
         <v>3.8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B11" s="23">
         <v>8.2</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1">
         <v>4.6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1">
         <v>3.8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -22242,13 +22280,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -22256,13 +22294,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -22301,7 +22339,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -22310,27 +22348,27 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,7 +26,7 @@
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$J$16</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$J$17</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="269">
   <si>
     <t>title</t>
   </si>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1cE1kjj3XRpHlUu9ektNo77sT_3UMK3HA0rxDWqeAa8w/edit#slide=id.g2c0ea0b49a2_0_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni </t>
+  </si>
+  <si>
+    <t>La Psicometria tra Oggi e Domani: Sfide E Nuovi Orizzonti</t>
+  </si>
+  <si>
+    <t>Firenze, Italy</t>
   </si>
   <si>
     <t>International Journal of Psychology</t>
@@ -7784,8 +7793,28 @@
         <v>197</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2024.0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$16"/>
+  <autoFilter ref="$A$1:$J$17"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="I5"/>
     <hyperlink r:id="rId2" location="1" ref="I6"/>
@@ -7828,7 +7857,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -7836,7 +7865,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -7844,7 +7873,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7869,10 +7898,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7880,43 +7909,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -7956,52 +7985,52 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -8026,16 +8055,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8043,172 +8072,172 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -8252,7 +8281,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -8262,12 +8291,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
@@ -8277,7 +8306,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -30,7 +30,7 @@
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
-    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">dissertations!$A$1:$E$11</definedName>
+    <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$3</definedName>
   </definedNames>
   <calcPr/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="270">
   <si>
     <t>title</t>
   </si>
@@ -265,7 +265,7 @@
     <t>schools</t>
   </si>
   <si>
-    <t>I held a series of workshops about statistical methods to assess replicability during the summer school [Replicability Crisis in Science?](https://replicability.stat.unipd.it/) organized at the Department of Statistics (University of Padova)</t>
+    <t>I held a series of workshops about statistical methods to assess replicability during the summer school [Replicability Crisis in Science?](https://replicability.stat.unipd.it/) organized at the Department of Statistical Sciences (University of Padova)</t>
   </si>
   <si>
     <t>Statistical Methods and Data Analysis in Developmental Psychology</t>
@@ -735,6 +735,9 @@
   </si>
   <si>
     <t>degree</t>
+  </si>
+  <si>
+    <t>finished</t>
   </si>
   <si>
     <t>Tania</t>
@@ -8069,179 +8072,212 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>234</v>
+      <c r="F3" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>249</v>
+      <c r="F7" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>258</v>
+      <c r="F10" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$11"/>
+  <autoFilter ref="$A$1:$F$11"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8281,7 +8317,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -8291,12 +8327,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
@@ -8306,7 +8342,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -268,10 +268,10 @@
     <t>I held a series of workshops about statistical methods to assess replicability during the summer school [Replicability Crisis in Science?](https://replicability.stat.unipd.it/) organized at the Department of Statistical Sciences (University of Padova)</t>
   </si>
   <si>
-    <t>Statistical Methods and Data Analysis in Developmental Psychology</t>
-  </si>
-  <si>
-    <t>Lecturer for the Master's degree in Developmental and Educational Psychology, University of Padova</t>
+    <t>Statistical Methods and Data Analysis in Developmental Psychology [M-PSI/03]</t>
+  </si>
+  <si>
+    <t>Lecturer (titolare di modulo) for the Master's degree in Developmental and Educational Psychology, University of Padova</t>
   </si>
   <si>
     <t>https://github.com/stat-teaching/SMDA-2023</t>
@@ -289,7 +289,7 @@
     <t>https://github.com/filippogambarota/corsoR</t>
   </si>
   <si>
-    <t>Data Analysis in Developmental Psychology</t>
+    <t>Data Analysis in Developmental Psychology [M-PSI/03]</t>
   </si>
   <si>
     <t>integrative</t>
@@ -301,13 +301,13 @@
     <t>2022</t>
   </si>
   <si>
-    <t>Psychological Testing</t>
+    <t>Psychological Testing [M-PSI/03]</t>
   </si>
   <si>
     <t>Lectures about R programming and data analysis of the course "Psychological Testing" (Prof. Gianmarco Altoè), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
   </si>
   <si>
-    <t>Introduction to Visual Consciousness</t>
+    <t>Introduction to Visual Consciousness [M-PSI/01]</t>
   </si>
   <si>
     <t>lecture</t>
@@ -319,7 +319,7 @@
     <t>https://docs.google.com/presentation/d/1PdIhW8IfYUBBRST6MeLIUuLYAIC804Wt8sSdJKn2ZIg/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Visual Working Memory in Social Cognition</t>
+    <t>Visual Working Memory in Social Cognition [M-PSI/01]</t>
   </si>
   <si>
     <t>Lecture during the course "General Psychology" (Prof. Paola Sessa), Bachelor's degree in Techniques and Methods in Psychological Science, University of Padova</t>
@@ -328,7 +328,7 @@
     <t>https://docs.google.com/presentation/d/1qVY2WTcfNNQgXm92dcw1jd8wPkSU4N267HcSWYNEVB0/edit#slide=id.gc96481fd19_0_343</t>
   </si>
   <si>
-    <t>Neural Correlates of Consciousness</t>
+    <t>Neural Correlates of Consciousness [M-PSI/01]</t>
   </si>
   <si>
     <t>2020 - 2023</t>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,7 +26,7 @@
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$J$17</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$J$18</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="274">
   <si>
     <t>title</t>
   </si>
@@ -648,6 +648,18 @@
   </si>
   <si>
     <t>Firenze, Italy</t>
+  </si>
+  <si>
+    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications</t>
+  </si>
+  <si>
+    <t>Girardi, Vesely, Gambarota, Altoè, Pastore, Finos</t>
+  </si>
+  <si>
+    <t>Association for Applied Statistics (ASA)</t>
+  </si>
+  <si>
+    <t>Rome, Italy</t>
   </si>
   <si>
     <t>International Journal of Psychology</t>
@@ -7816,8 +7828,28 @@
         <v>2024.0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2024.0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$17"/>
+  <autoFilter ref="$A$1:$J$18"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="I5"/>
     <hyperlink r:id="rId2" location="1" ref="I6"/>
@@ -7860,7 +7892,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -7868,7 +7900,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -7876,7 +7908,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7901,10 +7933,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7912,43 +7944,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -7988,52 +8020,52 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -8058,39 +8090,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -8098,19 +8130,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -8118,19 +8150,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -8138,19 +8170,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -8158,19 +8190,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -8178,19 +8210,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -8198,19 +8230,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -8218,19 +8250,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -8238,19 +8270,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -8258,19 +8290,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -8317,7 +8349,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
@@ -8327,12 +8359,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>67</v>
@@ -8342,7 +8374,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,7 +26,7 @@
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$J$18</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$K$18</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="274">
   <si>
     <t>title</t>
   </si>
@@ -641,7 +641,7 @@
     <t>https://docs.google.com/presentation/d/1cE1kjj3XRpHlUu9ektNo77sT_3UMK3HA0rxDWqeAa8w/edit#slide=id.g2c0ea0b49a2_0_24</t>
   </si>
   <si>
-    <t xml:space="preserve">Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni </t>
+    <t>Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni [accepted]</t>
   </si>
   <si>
     <t>La Psicometria tra Oggi e Domani: Sfide E Nuovi Orizzonti</t>
@@ -650,7 +650,7 @@
     <t>Firenze, Italy</t>
   </si>
   <si>
-    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications</t>
+    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications [accepted]</t>
   </si>
   <si>
     <t>Girardi, Vesely, Gambarota, Altoè, Pastore, Finos</t>
@@ -7421,7 +7421,7 @@
     <col customWidth="1" min="3" max="3" width="14.63"/>
     <col customWidth="1" min="4" max="4" width="71.38"/>
     <col customWidth="1" min="5" max="5" width="13.88"/>
-    <col customWidth="1" min="8" max="9" width="87.75"/>
+    <col customWidth="1" min="9" max="10" width="87.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7444,15 +7444,18 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7475,6 +7478,9 @@
       <c r="F2" s="1">
         <v>2019.0</v>
       </c>
+      <c r="G2" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -7495,6 +7501,9 @@
       <c r="F3" s="1">
         <v>2020.0</v>
       </c>
+      <c r="G3" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -7515,6 +7524,9 @@
       <c r="F4" s="1">
         <v>2021.0</v>
       </c>
+      <c r="G4" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -7535,10 +7547,13 @@
       <c r="F5" s="1">
         <v>2021.0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7561,13 +7576,16 @@
       <c r="F6" s="1">
         <v>2021.0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7590,13 +7608,16 @@
       <c r="F7" s="1">
         <v>2021.0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7619,10 +7640,13 @@
       <c r="F8" s="1">
         <v>2022.0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -7645,6 +7669,9 @@
       <c r="F9" s="1">
         <v>2022.0</v>
       </c>
+      <c r="G9" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -7665,6 +7692,9 @@
       <c r="F10" s="1">
         <v>2022.0</v>
       </c>
+      <c r="G10" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -7685,6 +7715,9 @@
       <c r="F11" s="1">
         <v>2022.0</v>
       </c>
+      <c r="G11" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -7705,6 +7738,9 @@
       <c r="F12" s="1">
         <v>2021.0</v>
       </c>
+      <c r="G12" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -7725,6 +7761,9 @@
       <c r="F13" s="1">
         <v>2022.0</v>
       </c>
+      <c r="G13" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -7745,10 +7784,13 @@
       <c r="F14" s="1">
         <v>2023.0</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7771,13 +7813,16 @@
       <c r="F15" s="1">
         <v>2024.0</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7800,11 +7845,14 @@
       <c r="F16" s="1">
         <v>2024.0</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7827,6 +7875,9 @@
       <c r="F17" s="1">
         <v>2024.0</v>
       </c>
+      <c r="G17" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -7847,19 +7898,22 @@
       <c r="F18" s="1">
         <v>2024.0</v>
       </c>
+      <c r="G18" s="1">
+        <v>6.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$18"/>
+  <autoFilter ref="$A$1:$K$18"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="1" ref="I5"/>
-    <hyperlink r:id="rId2" location="1" ref="I6"/>
-    <hyperlink r:id="rId3" ref="J6"/>
-    <hyperlink r:id="rId4" location="1" ref="I7"/>
-    <hyperlink r:id="rId5" ref="J7"/>
-    <hyperlink r:id="rId6" location="slide=id.p" ref="I8"/>
-    <hyperlink r:id="rId7" ref="I14"/>
-    <hyperlink r:id="rId8" ref="I15"/>
-    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="I16"/>
+    <hyperlink r:id="rId1" location="1" ref="J5"/>
+    <hyperlink r:id="rId2" location="1" ref="J6"/>
+    <hyperlink r:id="rId3" ref="K6"/>
+    <hyperlink r:id="rId4" location="1" ref="J7"/>
+    <hyperlink r:id="rId5" ref="K7"/>
+    <hyperlink r:id="rId6" location="slide=id.p" ref="J8"/>
+    <hyperlink r:id="rId7" ref="J14"/>
+    <hyperlink r:id="rId8" ref="J15"/>
+    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="J16"/>
   </hyperlinks>
   <drawing r:id="rId10"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,19 +26,19 @@
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$K$18</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$K$21</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$3</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="283">
   <si>
     <t>title</t>
   </si>
@@ -92,22 +92,7 @@
     <t>https://mail.google.com/mail/u/0/#search/ECBB/FMfcgzGxRxGrSTFzddRNSrqwfKVCJQCS</t>
   </si>
   <si>
-    <t>teaching</t>
-  </si>
-  <si>
-    <t>phd statistics luglio 2024</t>
-  </si>
-  <si>
     <t>talk</t>
-  </si>
-  <si>
-    <t>aip sviluppo</t>
-  </si>
-  <si>
-    <t>organizzazione</t>
-  </si>
-  <si>
-    <t>simposio aip sperimentale</t>
   </si>
   <si>
     <t>meta-rep</t>
@@ -343,6 +328,12 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Replicability crisis in science? [planned]</t>
+  </si>
+  <si>
+    <t>[Specialist Course](https://www.stat.unipd.it/sites/stat.unipd.it/files/Parmigiani-Fitelson-Gambarota%20July2024.pdf) for the XXXIX Cycle of the PhD course in Statistics, Department of Statistical Sciences, University of Padova</t>
+  </si>
+  <si>
     <t>Reproducibility Award - Italian Reproducibility Network (ITRN)</t>
   </si>
   <si>
@@ -617,6 +608,9 @@
     <t>Understanding meta-analysis through data simulation with applications to power analysis</t>
   </si>
   <si>
+    <t>Gambarota and Altoè</t>
+  </si>
+  <si>
     <t>Invited</t>
   </si>
   <si>
@@ -660,6 +654,39 @@
   </si>
   <si>
     <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>The Multiverse of Multi-labs. Methodological and Statistical Aspects of Multi-Lab and Multiverse Studies. [accepted]</t>
+  </si>
+  <si>
+    <t>Gambarota, Crepaldi, Liuzza, Calignano, Finos, Scandola</t>
+  </si>
+  <si>
+    <t>Symposium</t>
+  </si>
+  <si>
+    <t>Italian Psychological Association (AIP), Experimental Psychology</t>
+  </si>
+  <si>
+    <t>Noto, Italy</t>
+  </si>
+  <si>
+    <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data. [accepted]</t>
+  </si>
+  <si>
+    <t>Gambarota, Toffalini</t>
+  </si>
+  <si>
+    <t>Italian Psychological Association (AIP), Developmental Psychology</t>
+  </si>
+  <si>
+    <t>Cagliari, Italy</t>
+  </si>
+  <si>
+    <t>Critical effect size values and why to report them. [accepted]</t>
+  </si>
+  <si>
+    <t>Perugini, Gambarota, Toffalini, Sita, Lakens, Pastore, Finos, Psicostat, Altoè</t>
   </si>
   <si>
     <t>International Journal of Psychology</t>
@@ -7355,36 +7382,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -7429,13 +7456,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7444,36 +7471,36 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -7484,19 +7511,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -7507,19 +7534,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -7530,19 +7557,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -7551,27 +7578,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -7580,30 +7607,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -7612,30 +7639,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -7644,27 +7671,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -7675,19 +7702,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -7698,19 +7725,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -7721,19 +7748,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -7744,19 +7771,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -7767,19 +7794,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -7788,27 +7815,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -7817,30 +7844,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -7850,27 +7877,27 @@
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -7881,19 +7908,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -7902,8 +7929,77 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$18"/>
+  <autoFilter ref="$A$1:$K$21"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="J5"/>
     <hyperlink r:id="rId2" location="1" ref="J6"/>
@@ -7938,7 +8034,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -7946,7 +8042,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
@@ -7954,7 +8050,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
@@ -7962,7 +8058,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +8083,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7998,43 +8094,43 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -8074,52 +8170,52 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8144,39 +8240,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -8184,19 +8280,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -8204,19 +8300,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -8224,19 +8320,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -8244,19 +8340,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -8264,19 +8360,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -8284,19 +8380,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -8304,19 +8400,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -8324,19 +8420,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -8344,19 +8440,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -8403,36 +8499,39 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$3"/>
+  <autoFilter ref="$A$1:$E$4"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8479,30 +8578,6 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -8552,147 +8627,147 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>7.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>8.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>6.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>2.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3">
@@ -14686,30 +14761,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -14717,19 +14792,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -14763,19 +14838,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -14784,21 +14859,21 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E2" s="10">
         <v>45231.0</v>
@@ -14811,22 +14886,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J2" s="13"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="10">
         <v>45170.0</v>
@@ -14839,22 +14914,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="10">
         <v>45017.0</v>
@@ -14869,24 +14944,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5" s="10">
         <v>44986.0</v>
@@ -14899,24 +14974,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E6" s="18">
         <v>44986.0</v>
@@ -14929,21 +15004,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" s="19">
         <v>44866.0</v>
@@ -14956,10 +15031,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
@@ -14985,16 +15060,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" s="18">
         <v>44621.0</v>
@@ -15007,21 +15082,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E9" s="18">
         <v>44805.0</v>
@@ -15034,21 +15109,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="19">
         <v>44470.0</v>
@@ -15061,24 +15136,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="18">
         <v>44287.0</v>
@@ -15091,24 +15166,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="18">
         <v>44287.0</v>
@@ -15121,24 +15196,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -15149,24 +15224,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E14" s="19">
         <v>45352.0</v>
@@ -15179,10 +15254,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -15207,11 +15282,31 @@
       <c r="AE14" s="21"/>
     </row>
     <row r="15">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="19">
+        <v>45474.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.0</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="H15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="C16" s="5"/>
@@ -22184,24 +22279,24 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="11">
         <v>2024.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="11">
         <v>2023.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -22267,145 +22362,145 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1">
         <v>6.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="23">
         <v>3.7</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" s="23">
         <v>3.6</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B5" s="24">
         <v>13.6</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B6" s="23">
         <v>8.2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" s="23">
         <v>12.0</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1">
         <v>4.2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1">
         <v>3.8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B11" s="23">
         <v>8.2</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1">
         <v>4.6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1">
         <v>3.8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -22431,13 +22526,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -22445,13 +22540,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="25"/>
     </row>
@@ -22490,7 +22585,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -22499,27 +22594,27 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -337,7 +337,7 @@
     <t>Reproducibility Award - Italian Reproducibility Network (ITRN)</t>
   </si>
   <si>
-    <t xml:space="preserve">I won Reproducibility Award from the Italian Reproducibility Network (ITRN) for the paper [@Gambarota2024-lp] &lt;a href="https://doi.org/10.5281/zenodo.10277050"&gt;&lt;img src="https://zenodo.org/badge/DOI/10.5281/zenodo.10277050.svg" alt="DOI"&gt;&lt;/a&gt;
+    <t xml:space="preserve">I won the [Reproducibility Award](https://doi.org/10.5281/zenodo.10277050) from the Italian Reproducibility Network (ITRN) for the paper: Gambarota, F., &amp; Altoè, G. (2024). Understanding meta-analysis through data simulation with applications to power analysis. Adv. Methods Pract. Psychol. Sci., 7(1). https://doi.org/10.1177/25152459231209330
 </t>
   </si>
   <si>
@@ -22263,7 +22263,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="120.75"/>
-    <col customWidth="1" min="3" max="3" width="170.75"/>
+    <col customWidth="1" min="3" max="3" width="341.5"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -14,8 +14,8 @@
     <sheet state="visible" name="accepted_publications" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="preprint" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="conferences" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="reviews" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="memberships" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="memberships" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="reviews" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="terza_missione" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="dissertations" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="other_academic" sheetId="16" r:id="rId19"/>
@@ -26,9 +26,9 @@
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$K$21</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
+    <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">conferences!$A$1:$K$22</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="286">
   <si>
     <t>what</t>
   </si>
@@ -635,7 +635,7 @@
     <t>https://docs.google.com/presentation/d/1cE1kjj3XRpHlUu9ektNo77sT_3UMK3HA0rxDWqeAa8w/edit#slide=id.g2c0ea0b49a2_0_24</t>
   </si>
   <si>
-    <t>Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni [accepted]</t>
+    <t>Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni</t>
   </si>
   <si>
     <t>La Psicometria tra Oggi e Domani: Sfide E Nuovi Orizzonti</t>
@@ -689,46 +689,55 @@
     <t>Perugini, Gambarota, Toffalini, Sita, Lakens, Pastore, Finos, Psicostat, Altoè</t>
   </si>
   <si>
+    <t>Inference on multiverse meta-analysis. [accepted]</t>
+  </si>
+  <si>
+    <t>META-REP</t>
+  </si>
+  <si>
+    <t>Munich, Germany</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>Italian Reproducibility Network</t>
+  </si>
+  <si>
+    <t>ITRN</t>
+  </si>
+  <si>
+    <t>The Society for the Improvement of Psychological Science</t>
+  </si>
+  <si>
+    <t>SIPS</t>
+  </si>
+  <si>
+    <t>2023 - ongoing</t>
+  </si>
+  <si>
+    <t>Associazione Italiana di Psicologia, Sezione Sperimentale</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>2022 - ongoing</t>
+  </si>
+  <si>
+    <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
+  </si>
+  <si>
     <t>International Journal of Psychology</t>
   </si>
   <si>
     <t>PLoS ONE</t>
   </si>
   <si>
-    <t>Consciousness and Cognition</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>abbr</t>
-  </si>
-  <si>
-    <t>Italian Reproducibility Network</t>
-  </si>
-  <si>
-    <t>ITRN</t>
-  </si>
-  <si>
-    <t>2023 - ongoing</t>
-  </si>
-  <si>
-    <t>The Society for the Improvement of Psychological Science</t>
-  </si>
-  <si>
-    <t>SIPS</t>
-  </si>
-  <si>
-    <t>Associazione Italiana di Psicologia, Sezione Sperimentale</t>
-  </si>
-  <si>
-    <t>AIP</t>
-  </si>
-  <si>
-    <t>2022 - ongoing</t>
-  </si>
-  <si>
-    <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
+    <t>Neuroscience of Consciousness</t>
   </si>
   <si>
     <t>responsabile</t>
@@ -2032,8 +2041,31 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$21"/>
+  <autoFilter ref="$A$1:$K$22"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="J5"/>
     <hyperlink r:id="rId2" location="1" ref="J6"/>
@@ -2052,6 +2084,81 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF45818E"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="44.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$C$5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FF38761D"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2076,7 +2183,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
@@ -2084,7 +2191,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
@@ -2092,86 +2199,11 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$B$4"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF45818E"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="44.13"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="$A$1:$C$5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2204,52 +2236,52 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2274,39 +2306,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2314,19 +2346,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2334,19 +2366,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2354,19 +2386,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2374,19 +2406,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2394,19 +2426,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2414,19 +2446,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2434,19 +2466,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2454,19 +2486,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2474,19 +2506,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2533,7 +2565,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -2543,12 +2575,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -2558,7 +2590,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,7 +25,7 @@
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">awards!$A$1:$C$1005</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$25</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="290">
   <si>
     <t>what</t>
   </si>
@@ -432,6 +432,12 @@
     <t>Registered Replication Report - Provisional Acceptance</t>
   </si>
   <si>
+    <t>International Journal of Psychology</t>
+  </si>
+  <si>
+    <t>In press</t>
+  </si>
+  <si>
     <t>Gambarota, Luria, Pastore, De Stefani, Ferrari, Sessa</t>
   </si>
   <si>
@@ -739,9 +745,6 @@
   </si>
   <si>
     <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
-  </si>
-  <si>
-    <t>International Journal of Psychology</t>
   </si>
   <si>
     <t>PLoS ONE</t>
@@ -1456,6 +1459,23 @@
         <v>127</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" s="16"/>
     </row>
@@ -1463,7 +1483,7 @@
       <c r="A7" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$2"/>
+  <autoFilter ref="$A$1:$E$3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1504,19 +1524,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -1567,7 +1587,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1582,30 +1602,30 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1616,19 +1636,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1639,19 +1659,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1662,19 +1682,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1683,27 +1703,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1712,30 +1732,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1744,30 +1764,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -1776,27 +1796,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1807,19 +1827,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1830,19 +1850,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1853,19 +1873,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -1876,19 +1896,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1899,19 +1919,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1920,27 +1940,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -1949,30 +1969,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -1982,27 +2002,27 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2013,19 +2033,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2036,19 +2056,19 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2059,19 +2079,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2082,19 +2102,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2105,19 +2125,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2128,19 +2148,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2185,10 +2205,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2196,10 +2216,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -2207,32 +2227,32 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -2271,7 +2291,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -2279,7 +2299,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -2287,7 +2307,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2324,52 +2344,52 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2394,39 +2414,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2434,19 +2454,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2454,19 +2474,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2474,19 +2494,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2494,19 +2514,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2514,19 +2534,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2534,19 +2554,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2554,19 +2574,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2574,19 +2594,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2594,19 +2614,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2653,7 +2673,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -2663,12 +2683,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -2678,7 +2698,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="289">
   <si>
     <t>what</t>
   </si>
@@ -405,31 +405,28 @@
     <t>preprint</t>
   </si>
   <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Grassi,  Altoè, Brattico, [...] Gambarota, [...] Zentner</t>
+  </si>
+  <si>
+    <t>Do musicians have better short-term memory than nonmusicians? A multi-lab study</t>
+  </si>
+  <si>
+    <t>Advances in Methods and Practices in Psychological Science</t>
+  </si>
+  <si>
+    <t>Registered Replication Report - Provisional Acceptance</t>
+  </si>
+  <si>
     <t>Gambarota &amp; Altoè</t>
   </si>
   <si>
     <t>Ordinal regression models made easy. A tutorial on parameter interpretation, data simulation, and power analysis</t>
-  </si>
-  <si>
-    <t>https://osf.io/preprints/psyarxiv/swz7m</t>
-  </si>
-  <si>
-    <t>journal</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Grassi,  Altoè, Brattico, [...] Gambarota, [...] Zentner</t>
-  </si>
-  <si>
-    <t>Do musicians have better short-term memory than nonmusicians? A multi-lab study</t>
-  </si>
-  <si>
-    <t>Advances in Methods and Practices in Psychological Science</t>
-  </si>
-  <si>
-    <t>Registered Replication Report - Provisional Acceptance</t>
   </si>
   <si>
     <t>International Journal of Psychology</t>
@@ -1436,44 +1433,44 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -1524,19 +1521,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -1587,7 +1584,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -1602,30 +1599,30 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1636,19 +1633,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1659,19 +1656,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1682,19 +1679,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1703,27 +1700,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="21" t="s">
         <v>156</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1732,30 +1729,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J6" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>160</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1764,30 +1761,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -1796,27 +1793,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>173</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1827,19 +1824,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1850,19 +1847,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1873,19 +1870,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -1896,19 +1893,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1919,19 +1916,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1940,27 +1937,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -1969,30 +1966,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2002,27 +1999,27 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2033,19 +2030,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2056,19 +2053,19 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2079,19 +2076,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2102,19 +2099,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2125,19 +2122,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2148,19 +2145,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2205,10 +2202,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -2216,10 +2213,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -2227,32 +2224,32 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -2283,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -2291,7 +2288,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -2299,7 +2296,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
@@ -2307,7 +2304,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2344,52 +2341,52 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2414,39 +2411,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2454,19 +2451,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2474,19 +2471,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2494,19 +2491,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2514,19 +2511,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2534,19 +2531,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2554,19 +2551,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2574,19 +2571,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="D9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2594,19 +2591,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2614,19 +2611,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -2683,12 +2680,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>58</v>
@@ -2698,7 +2695,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
@@ -28689,15 +28686,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>121</v>
-      </c>
       <c r="D2" s="25"/>
     </row>
     <row r="5">
@@ -28708,9 +28696,6 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$D$2"/>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">awards!$A$1:$C$1005</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="293">
   <si>
     <t>what</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>multilab conferences</t>
   </si>
   <si>
     <t>title</t>
@@ -332,11 +329,30 @@
     <t>Professor (titolare del corso) for the Master's degree in Statistical Sciences, Department of Statistical Sciences, University of Padova</t>
   </si>
   <si>
+    <t>Award for the best scientific article of 2024 - Italian Psychological Association (AIP), Developmental and Educational Psychology</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">The paper Montuori, C., Gambarota, F., Altoé, G., &amp; Arfé, B. (2023). The cognitive effects of computational thinking: A systematic review and meta-analytic study. Computers &amp; Education, 210(104961), 104961. </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://doi.org/10.1016/j.compedu.2023.104961</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> won the award for the best scientific article of 2024, by the Italian Psychological Association (AIP), Developmental and Educational Psychology</t>
+    </r>
+  </si>
+  <si>
     <t>Reproducibility Award - Italian Reproducibility Network (ITRN)</t>
   </si>
   <si>
-    <t xml:space="preserve">I won the [Reproducibility Award](https://doi.org/10.5281/zenodo.10277050) from the Italian Reproducibility Network (ITRN) for the paper: Gambarota, F., &amp; Altoè, G. (2024). Understanding meta-analysis through data simulation with applications to power analysis. Adv. Methods Pract. Psychol. Sci., 7(1). https://doi.org/10.1177/25152459231209330
-</t>
+    <t>I won the [Reproducibility Award](https://doi.org/10.5281/zenodo.10277050) from the Italian Reproducibility Network (ITRN) for the paper: Gambarota, F., &amp; Altoè, G. (2024). Understanding meta-analysis through data simulation with applications to power analysis. Adv. Methods Pract. Psychol. Sci., 7(1). https://doi.org/10.1177/25152459231209330</t>
   </si>
   <si>
     <t>Mission Award to Psicostat by the Society for the Improvement of Psychological Science (SIPS)</t>
@@ -354,6 +370,12 @@
     <t>Quartile</t>
   </si>
   <si>
+    <t>Toffalini2024-vp</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
     <t>Di-Rosa2024-ol</t>
   </si>
   <si>
@@ -393,9 +415,6 @@
     <t>Quettier2021-bj</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>Gambarota2019-jb</t>
   </si>
   <si>
@@ -645,7 +664,7 @@
     <t>Firenze, Italy</t>
   </si>
   <si>
-    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications [accepted]</t>
+    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications</t>
   </si>
   <si>
     <t>Girardi, Vesely, Gambarota, Altoè, Pastore, Finos</t>
@@ -657,7 +676,7 @@
     <t>Rome, Italy</t>
   </si>
   <si>
-    <t>The Multiverse of Multi-labs. Methodological and Statistical Aspects of Multi-Lab and Multiverse Studies. [accepted]</t>
+    <t>The Multiverse of Multi-labs. Methodological and Statistical Aspects of Multi-Lab and Multiverse Studies.</t>
   </si>
   <si>
     <t>Gambarota, Crepaldi, Liuzza, Calignano, Finos, Scandola</t>
@@ -672,7 +691,10 @@
     <t>Noto, Italy</t>
   </si>
   <si>
-    <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data. [accepted]</t>
+    <t>https://filippogambarota.github.io/aip-2024-multiverse-multilab-symposium/</t>
+  </si>
+  <si>
+    <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data.</t>
   </si>
   <si>
     <t>Gambarota, Toffalini</t>
@@ -684,7 +706,10 @@
     <t>Cagliari, Italy</t>
   </si>
   <si>
-    <t>Critical effect size values and why to report them. [accepted]</t>
+    <t>https://filippogambarota.github.io/files/slides/2024-aip-sviluppo.pdf</t>
+  </si>
+  <si>
+    <t>Critical effect size values and why to report them.</t>
   </si>
   <si>
     <t>Perugini, Gambarota, Toffalini, Sità, Lakens, Pastore, Finos, Psicostat, Altoè</t>
@@ -1378,7 +1403,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.25"/>
+    <col customWidth="1" min="1" max="1" width="30.38"/>
     <col customWidth="1" min="2" max="2" width="47.88"/>
     <col customWidth="1" min="3" max="3" width="68.13"/>
   </cols>
@@ -1392,11 +1417,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1424,53 +1444,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1504,36 +1524,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -1575,54 +1595,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1633,19 +1653,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1656,19 +1676,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1679,19 +1699,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1700,27 +1720,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1729,30 +1749,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1761,30 +1781,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -1793,27 +1813,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1824,19 +1844,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1847,19 +1867,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1870,19 +1890,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -1893,19 +1913,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1916,19 +1936,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1937,27 +1957,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -1966,30 +1986,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -1999,27 +2019,27 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2030,19 +2050,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2053,19 +2073,19 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2073,22 +2093,28 @@
       <c r="G19" s="1">
         <v>9.0</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2096,22 +2122,28 @@
       <c r="G20" s="1">
         <v>9.0</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2122,19 +2154,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2145,19 +2177,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2181,8 +2213,10 @@
     <hyperlink r:id="rId7" ref="J14"/>
     <hyperlink r:id="rId8" ref="J15"/>
     <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="J16"/>
+    <hyperlink r:id="rId10" ref="J19"/>
+    <hyperlink r:id="rId11" ref="J20"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -2202,57 +2236,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2277,10 +2311,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -2288,7 +2322,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -2296,7 +2330,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -2304,7 +2338,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2329,64 +2363,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2411,39 +2445,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2451,19 +2485,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2471,19 +2505,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2491,19 +2525,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2511,19 +2545,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2531,19 +2565,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2551,19 +2585,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2571,19 +2605,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2591,19 +2625,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2611,19 +2645,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2653,16 +2687,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2670,32 +2704,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -2726,19 +2760,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2746,38 +2780,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3">
         <v>1.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -8744,19 +8778,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -8764,127 +8798,127 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>7.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="3">
         <v>8.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="3">
         <v>6.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3">
@@ -14862,19 +14896,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -14882,22 +14916,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -20869,16 +20903,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -20886,30 +20920,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -20917,19 +20951,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -20957,48 +20991,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="E2" s="9">
         <v>45231.0</v>
@@ -21011,22 +21045,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9">
         <v>45170.0</v>
@@ -21039,22 +21073,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="9">
         <v>45017.0</v>
@@ -21069,24 +21103,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="9">
         <v>44986.0</v>
@@ -21099,24 +21133,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="17">
         <v>44986.0</v>
@@ -21129,21 +21163,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="18">
         <v>44866.0</v>
@@ -21156,10 +21190,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -21185,16 +21219,16 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="17">
         <v>44621.0</v>
@@ -21207,21 +21241,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="17">
         <v>44805.0</v>
@@ -21234,21 +21268,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18">
         <v>44470.0</v>
@@ -21261,24 +21295,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="17">
         <v>44287.0</v>
@@ -21291,24 +21325,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="17">
         <v>44287.0</v>
@@ -21321,24 +21355,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21349,24 +21383,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>87</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="18">
         <v>45352.0</v>
@@ -21379,10 +21413,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -21408,16 +21442,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="18">
         <v>45474.0</v>
@@ -21430,21 +21464,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E16" s="18">
         <v>45689.0</v>
@@ -21459,7 +21493,7 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -28415,10 +28449,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -28426,70 +28460,84 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10">
         <v>2024.0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
+      <c r="C2" s="19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2024.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="10">
+    </row>
+    <row r="4" ht="26.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="10">
         <v>2023.0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10"/>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$1005"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="$A$1:$C$1006"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -28509,145 +28557,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1">
-        <v>6.6</v>
+        <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="23">
-        <v>3.7</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="23">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="24">
-        <v>13.6</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="23">
-        <v>8.2</v>
+        <v>109</v>
+      </c>
+      <c r="B6" s="24">
+        <v>13.6</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B7" s="23">
-        <v>12.0</v>
+        <v>8.2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
+      </c>
+      <c r="B8" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0</v>
+        <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1">
-        <v>3.8</v>
+        <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="23">
-        <v>8.2</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4.6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="B12" s="23">
+        <v>8.2</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="1">
         <v>3.8</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -28673,13 +28732,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="294">
   <si>
     <t>what</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Gambarota2019-jb</t>
+  </si>
+  <si>
+    <t>Gambarota2024-cn</t>
   </si>
   <si>
     <t>authors</t>
@@ -1444,7 +1447,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1453,44 +1456,44 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
@@ -1524,13 +1527,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1541,19 +1544,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1598,13 +1601,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1619,30 +1622,30 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1653,19 +1656,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1676,19 +1679,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1699,19 +1702,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1720,27 +1723,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1749,30 +1752,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1781,30 +1784,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -1813,27 +1816,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1844,19 +1847,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1867,19 +1870,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1890,19 +1893,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -1913,19 +1916,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1936,19 +1939,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1957,27 +1960,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -1986,30 +1989,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2019,27 +2022,27 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2050,19 +2053,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2073,19 +2076,19 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2094,27 +2097,27 @@
         <v>9.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2123,27 +2126,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2154,19 +2157,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2177,19 +2180,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2236,10 +2239,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -2247,10 +2250,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -2258,32 +2261,32 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2314,7 +2317,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
@@ -2322,7 +2325,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -2330,7 +2333,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
@@ -2338,7 +2341,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2375,52 +2378,52 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2445,39 +2448,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2485,19 +2488,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2505,19 +2508,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2525,19 +2528,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2545,19 +2548,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2565,19 +2568,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2585,19 +2588,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2605,19 +2608,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2625,19 +2628,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2645,19 +2648,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -2714,12 +2717,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
@@ -2729,7 +2732,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
@@ -28709,6 +28712,17 @@
         <v>106</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -28732,13 +28746,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -25,9 +25,9 @@
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$25</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$27</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="305">
   <si>
     <t>what</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>Winter School</t>
+  </si>
+  <si>
+    <t>Bressanone</t>
   </si>
   <si>
     <t>title</t>
@@ -445,333 +451,354 @@
     <t>Registered Replication Report - Provisional Acceptance</t>
   </si>
   <si>
-    <t>Gambarota &amp; Altoè</t>
-  </si>
-  <si>
-    <t>Ordinal regression models made easy. A tutorial on parameter interpretation, data simulation, and power analysis</t>
+    <t>Gambarota, Luria, Pastore, De Stefani, Ferrari, Sessa</t>
+  </si>
+  <si>
+    <t>Deficits of visual working memory representations of emotional facial expressions in patients with congenital facial palsy</t>
+  </si>
+  <si>
+    <t>PsyArXiv</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.31234/osf.io/nxe8z</t>
+  </si>
+  <si>
+    <t>Gambarota2020-ex</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>type_material</t>
+  </si>
+  <si>
+    <t>link_materials</t>
+  </si>
+  <si>
+    <t>link_talk</t>
+  </si>
+  <si>
+    <t>Look at others’ smile: Sensorimotor modulation of visual awareness</t>
+  </si>
+  <si>
+    <t>Quettier, Gambarota and Sessa</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Italian Society of Psychophysiology and Cognitive Neuroscience (SIPF)</t>
+  </si>
+  <si>
+    <t>Ferrara, Italy</t>
+  </si>
+  <si>
+    <t>Visual Working Memory Precision for Emotional Faces in Moebius Patients</t>
+  </si>
+  <si>
+    <t>Gambarota, Pastore, Luria, Ferrari and Sessa</t>
+  </si>
+  <si>
+    <t>Cognitive Science Arena</t>
+  </si>
+  <si>
+    <t>Bressanone, Italy</t>
+  </si>
+  <si>
+    <t>Meta-analysis in Consciousness Research</t>
+  </si>
+  <si>
+    <t>Gambarota, Tsuchiya, Pastore, Di Polito and Sessa</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>Conscious Brain Concepts Workshop - University of Oslo</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>trackdown - Collaborative writing through literate programming in R</t>
+  </si>
+  <si>
+    <t>Gambarota, Zandonella Callegher, Linkersdörfer, Ling and Kothe</t>
+  </si>
+  <si>
+    <t>Towards Advanced Scientific Knowledge (TASK4)</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
+  </si>
+  <si>
+    <t>trackdown - An R package for collaborative writing and editing</t>
+  </si>
+  <si>
+    <t>Society for the Improvement of Psychological Science (SIPS)</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/trackdown_sips.html#1</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/talk_sips.mp4</t>
+  </si>
+  <si>
+    <t>trackdown - A simple framework for collaboration in a literate programming workflow</t>
+  </si>
+  <si>
+    <t>useR</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/trackdown_user.html#1</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/talk_user.mp4</t>
+  </si>
+  <si>
+    <t>Conscious and unconscious information processing in visual working memory</t>
+  </si>
+  <si>
+    <t>Gambarota, Luria and Sessa</t>
+  </si>
+  <si>
+    <t>Italian Psychological Association (AIP)</t>
+  </si>
+  <si>
+    <t>Padova, Italy</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1tl_iAEJQrMEUTUJe8jWasOXmTtK8Jn70JOETVQIj6u0/edit#slide=id.p</t>
+  </si>
+  <si>
+    <t>Cross-modality effects in affective prediction construction: the role of past visual experience in subjective reactions to new affective pictures and sounds</t>
+  </si>
+  <si>
+    <t>del Popolo Cristaldi, Gambarota and Oosterwijk</t>
+  </si>
+  <si>
+    <t>Annual Conference of the European Society for Cognitive and Affective Neuroscience (ESCAN)</t>
+  </si>
+  <si>
+    <t>The role of past visual experience in subjective reactions to new affective pictures and sounds</t>
+  </si>
+  <si>
+    <t>Annual Conference of the Society for Affective Science (SAS)</t>
+  </si>
+  <si>
+    <t>The role of past experience in subjective ratings to affective predictions: cross-modality effects</t>
+  </si>
+  <si>
+    <t>Cognitive Science Arena (CSA)</t>
+  </si>
+  <si>
+    <t>The role of previous probabilistic learning on the subjective affective experience</t>
+  </si>
+  <si>
+    <t>Lecce, Italy</t>
+  </si>
+  <si>
+    <t>Probing cerebellar involvement in cognition through neuromodulation: A meta-analysis on the effectiveness of non-invasive cerebellar stimulation</t>
+  </si>
+  <si>
+    <t>Pezzetta, Gambarota, Tarantino, Devita, Cattaneo, Arcara, Mapelli and Masina</t>
+  </si>
+  <si>
+    <t>Transcranical Brain Stimulation in Cognitive Neuroscience Workshop</t>
+  </si>
+  <si>
+    <t>Rovereto, Italy</t>
+  </si>
+  <si>
+    <t>Joinmeta - An Inferential approach to multiverse meta-analysis</t>
+  </si>
+  <si>
+    <t>Gambarota, Vesely, Finos, Altoè</t>
+  </si>
+  <si>
+    <t>https://shared-research.github.io/multiverse-meta-analysis/conferences/sips2023/poster/sips-2023.html</t>
+  </si>
+  <si>
+    <t>Understanding meta-analysis through data simulation with applications to power analysis</t>
+  </si>
+  <si>
+    <t>Gambarota and Altoè</t>
+  </si>
+  <si>
+    <t>Invited</t>
+  </si>
+  <si>
+    <t>Invited workshop (3 hours) on introduction to meta-analysis using Monte Carlo simulations.</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>https://stat-teaching.github.io/metasimulation/</t>
+  </si>
+  <si>
+    <t>Cosa accade al di fuori della consapevolezza visiva? [Italian]</t>
+  </si>
+  <si>
+    <t>Gambarota</t>
+  </si>
+  <si>
+    <t>Brain Awareness Week</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1cE1kjj3XRpHlUu9ektNo77sT_3UMK3HA0rxDWqeAa8w/edit#slide=id.g2c0ea0b49a2_0_24</t>
+  </si>
+  <si>
+    <t>Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni</t>
+  </si>
+  <si>
+    <t>La Psicometria tra Oggi e Domani: Sfide E Nuovi Orizzonti</t>
+  </si>
+  <si>
+    <t>Firenze, Italy</t>
+  </si>
+  <si>
+    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications</t>
+  </si>
+  <si>
+    <t>Girardi, Vesely, Gambarota, Altoè, Pastore, Finos</t>
+  </si>
+  <si>
+    <t>Association for Applied Statistics (ASA)</t>
+  </si>
+  <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>The Multiverse of Multi-labs. Methodological and Statistical Aspects of Multi-Lab and Multiverse Studies.</t>
+  </si>
+  <si>
+    <t>Gambarota, Crepaldi, Liuzza, Calignano, Finos, Scandola</t>
+  </si>
+  <si>
+    <t>Symposium</t>
+  </si>
+  <si>
+    <t>Italian Psychological Association (AIP), Experimental Psychology</t>
+  </si>
+  <si>
+    <t>Noto, Italy</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/aip-2024-multiverse-multilab-symposium/</t>
+  </si>
+  <si>
+    <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data.</t>
+  </si>
+  <si>
+    <t>Gambarota, Toffalini</t>
+  </si>
+  <si>
+    <t>Italian Psychological Association (AIP), Developmental Psychology</t>
+  </si>
+  <si>
+    <t>Cagliari, Italy</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/files/slides/2024-aip-sviluppo.pdf</t>
+  </si>
+  <si>
+    <t>Critical effect size values and why to report them.</t>
+  </si>
+  <si>
+    <t>Perugini, Gambarota, Toffalini, Sità, Lakens, Pastore, Finos, Psicostat, Altoè</t>
+  </si>
+  <si>
+    <t>Inference on multiverse meta-analysis. [accepted]</t>
+  </si>
+  <si>
+    <t>META-REP</t>
+  </si>
+  <si>
+    <t>Munich, Germany</t>
+  </si>
+  <si>
+    <t>Effects of Domestication and Selection for Productivity on Numerical Cognition in Chicks</t>
+  </si>
+  <si>
+    <t>Brosche, Gambarota, Altoè, Rugani</t>
+  </si>
+  <si>
+    <t>European Conference on Behavioural Biology (ECBB)</t>
+  </si>
+  <si>
+    <t>Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications.</t>
+  </si>
+  <si>
+    <t>Girardi, P., Vesely, A, Gambarota, F., Altoè, G., Pastore, M., &amp; Finos, L</t>
+  </si>
+  <si>
+    <t>Measuring and Interpreting World Changes with Statistics, Data Science and AI, Association for Applied Statistics (ASA)</t>
+  </si>
+  <si>
+    <t>Multiverse Meta-Analysis: Proposing an Exploratory Framework.</t>
+  </si>
+  <si>
+    <t>Rasti, S., Gambarota, F. &amp; Altoè, G.</t>
+  </si>
+  <si>
+    <t>Society for the Improvement of Psychological Science</t>
+  </si>
+  <si>
+    <t>Is that a cluster? A practical guide on how to avoid Type I and Type II error</t>
+  </si>
+  <si>
+    <t>Perugini, Toffalini, Feraco, Gambarota, Pastore, Altoè</t>
+  </si>
+  <si>
+    <t>Communicative development on the move between Minority and Majority worlds</t>
+  </si>
+  <si>
+    <t>Calignano, G., Ceccon, C., Gambarota, F., Pacheco, S., Russo, S, Altoé, G., Pastore, M., Valenza, E., Moscardino, U.</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>Italian Reproducibility Network</t>
+  </si>
+  <si>
+    <t>ITRN</t>
+  </si>
+  <si>
+    <t>The Society for the Improvement of Psychological Science</t>
+  </si>
+  <si>
+    <t>SIPS</t>
+  </si>
+  <si>
+    <t>2023 - ongoing</t>
+  </si>
+  <si>
+    <t>Associazione Italiana di Psicologia, Sezione Sperimentale</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>2022 - ongoing</t>
+  </si>
+  <si>
+    <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
   </si>
   <si>
     <t>International Journal of Psychology</t>
   </si>
   <si>
-    <t>In press</t>
-  </si>
-  <si>
-    <t>Gambarota, Luria, Pastore, De Stefani, Ferrari, Sessa</t>
-  </si>
-  <si>
-    <t>Deficits of visual working memory representations of emotional facial expressions in patients with congenital facial palsy</t>
-  </si>
-  <si>
-    <t>PsyArXiv</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.31234/osf.io/nxe8z</t>
-  </si>
-  <si>
-    <t>Gambarota2020-ex</t>
-  </si>
-  <si>
-    <t>conference</t>
-  </si>
-  <si>
-    <t>type_material</t>
-  </si>
-  <si>
-    <t>link_materials</t>
-  </si>
-  <si>
-    <t>link_talk</t>
-  </si>
-  <si>
-    <t>Look at others’ smile: Sensorimotor modulation of visual awareness</t>
-  </si>
-  <si>
-    <t>Quettier, Gambarota and Sessa</t>
-  </si>
-  <si>
-    <t>Poster</t>
-  </si>
-  <si>
-    <t>Italian Society of Psychophysiology and Cognitive Neuroscience (SIPF)</t>
-  </si>
-  <si>
-    <t>Ferrara, Italy</t>
-  </si>
-  <si>
-    <t>Visual Working Memory Precision for Emotional Faces in Moebius Patients</t>
-  </si>
-  <si>
-    <t>Gambarota, Pastore, Luria, Ferrari and Sessa</t>
-  </si>
-  <si>
-    <t>Cognitive Science Arena</t>
-  </si>
-  <si>
-    <t>Bressanone, Italy</t>
-  </si>
-  <si>
-    <t>Meta-analysis in Consciousness Research</t>
-  </si>
-  <si>
-    <t>Gambarota, Tsuchiya, Pastore, Di Polito and Sessa</t>
-  </si>
-  <si>
-    <t>Talk</t>
-  </si>
-  <si>
-    <t>Conscious Brain Concepts Workshop - University of Oslo</t>
-  </si>
-  <si>
-    <t>Virtual</t>
-  </si>
-  <si>
-    <t>trackdown - Collaborative writing through literate programming in R</t>
-  </si>
-  <si>
-    <t>Gambarota, Zandonella Callegher, Linkersdörfer, Ling and Kothe</t>
-  </si>
-  <si>
-    <t>Towards Advanced Scientific Knowledge (TASK4)</t>
-  </si>
-  <si>
-    <t>Slides</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
-  </si>
-  <si>
-    <t>trackdown - An R package for collaborative writing and editing</t>
-  </si>
-  <si>
-    <t>Society for the Improvement of Psychological Science (SIPS)</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/trackdown_sips.html#1</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/talk_sips.mp4</t>
-  </si>
-  <si>
-    <t>trackdown - A simple framework for collaboration in a literate programming workflow</t>
-  </si>
-  <si>
-    <t>useR</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/trackdown_user.html#1</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/talk_user.mp4</t>
-  </si>
-  <si>
-    <t>Conscious and unconscious information processing in visual working memory</t>
-  </si>
-  <si>
-    <t>Gambarota, Luria and Sessa</t>
-  </si>
-  <si>
-    <t>Italian Psychological Association (AIP)</t>
-  </si>
-  <si>
-    <t>Padova, Italy</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1tl_iAEJQrMEUTUJe8jWasOXmTtK8Jn70JOETVQIj6u0/edit#slide=id.p</t>
-  </si>
-  <si>
-    <t>Cross-modality effects in affective prediction construction: the role of past visual experience in subjective reactions to new affective pictures and sounds</t>
-  </si>
-  <si>
-    <t>del Popolo Cristaldi, Gambarota and Oosterwijk</t>
-  </si>
-  <si>
-    <t>Annual Conference of the European Society for Cognitive and Affective Neuroscience (ESCAN)</t>
-  </si>
-  <si>
-    <t>The role of past visual experience in subjective reactions to new affective pictures and sounds</t>
-  </si>
-  <si>
-    <t>Annual Conference of the Society for Affective Science (SAS)</t>
-  </si>
-  <si>
-    <t>The role of past experience in subjective ratings to affective predictions: cross-modality effects</t>
-  </si>
-  <si>
-    <t>Cognitive Science Arena (CSA)</t>
-  </si>
-  <si>
-    <t>The role of previous probabilistic learning on the subjective affective experience</t>
-  </si>
-  <si>
-    <t>Lecce, Italy</t>
-  </si>
-  <si>
-    <t>Probing cerebellar involvement in cognition through neuromodulation: A meta-analysis on the effectiveness of non-invasive cerebellar stimulation</t>
-  </si>
-  <si>
-    <t>Pezzetta, Gambarota, Tarantino, Devita, Cattaneo, Arcara, Mapelli and Masina</t>
-  </si>
-  <si>
-    <t>Transcranical Brain Stimulation in Cognitive Neuroscience Workshop</t>
-  </si>
-  <si>
-    <t>Rovereto, Italy</t>
-  </si>
-  <si>
-    <t>Joinmeta - An Inferential approach to multiverse meta-analysis</t>
-  </si>
-  <si>
-    <t>Gambarota, Vesely, Finos, Altoè</t>
-  </si>
-  <si>
-    <t>https://shared-research.github.io/multiverse-meta-analysis/conferences/sips2023/poster/sips-2023.html</t>
-  </si>
-  <si>
-    <t>Understanding meta-analysis through data simulation with applications to power analysis</t>
-  </si>
-  <si>
-    <t>Gambarota and Altoè</t>
-  </si>
-  <si>
-    <t>Invited</t>
-  </si>
-  <si>
-    <t>Invited workshop (3 hours) on introduction to meta-analysis using Monte Carlo simulations.</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>https://stat-teaching.github.io/metasimulation/</t>
-  </si>
-  <si>
-    <t>Cosa accade al di fuori della consapevolezza visiva? [Italian]</t>
-  </si>
-  <si>
-    <t>Gambarota</t>
-  </si>
-  <si>
-    <t>Brain Awareness Week</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1cE1kjj3XRpHlUu9ektNo77sT_3UMK3HA0rxDWqeAa8w/edit#slide=id.g2c0ea0b49a2_0_24</t>
-  </si>
-  <si>
-    <t>Inferenza nella meta-analisi multiverse. Un approccio multivariato basato sulle permutazioni</t>
-  </si>
-  <si>
-    <t>La Psicometria tra Oggi e Domani: Sfide E Nuovi Orizzonti</t>
-  </si>
-  <si>
-    <t>Firenze, Italy</t>
-  </si>
-  <si>
-    <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications</t>
-  </si>
-  <si>
-    <t>Girardi, Vesely, Gambarota, Altoè, Pastore, Finos</t>
-  </si>
-  <si>
-    <t>Association for Applied Statistics (ASA)</t>
-  </si>
-  <si>
-    <t>Rome, Italy</t>
-  </si>
-  <si>
-    <t>The Multiverse of Multi-labs. Methodological and Statistical Aspects of Multi-Lab and Multiverse Studies.</t>
-  </si>
-  <si>
-    <t>Gambarota, Crepaldi, Liuzza, Calignano, Finos, Scandola</t>
-  </si>
-  <si>
-    <t>Symposium</t>
-  </si>
-  <si>
-    <t>Italian Psychological Association (AIP), Experimental Psychology</t>
-  </si>
-  <si>
-    <t>Noto, Italy</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/aip-2024-multiverse-multilab-symposium/</t>
-  </si>
-  <si>
-    <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data.</t>
-  </si>
-  <si>
-    <t>Gambarota, Toffalini</t>
-  </si>
-  <si>
-    <t>Italian Psychological Association (AIP), Developmental Psychology</t>
-  </si>
-  <si>
-    <t>Cagliari, Italy</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/files/slides/2024-aip-sviluppo.pdf</t>
-  </si>
-  <si>
-    <t>Critical effect size values and why to report them.</t>
-  </si>
-  <si>
-    <t>Perugini, Gambarota, Toffalini, Sità, Lakens, Pastore, Finos, Psicostat, Altoè</t>
-  </si>
-  <si>
-    <t>Inference on multiverse meta-analysis. [accepted]</t>
-  </si>
-  <si>
-    <t>META-REP</t>
-  </si>
-  <si>
-    <t>Munich, Germany</t>
-  </si>
-  <si>
-    <t>Effects of Domestication and Selection for Productivity on Numerical Cognition in Chicks [planned]</t>
-  </si>
-  <si>
-    <t>Brosche, Gambarota, Altoè, Rugani</t>
-  </si>
-  <si>
-    <t>European Conference on Behavioural Biology (ECBB)</t>
-  </si>
-  <si>
-    <t>Zurich, Switzerland</t>
-  </si>
-  <si>
-    <t>society</t>
-  </si>
-  <si>
-    <t>abbr</t>
-  </si>
-  <si>
-    <t>Italian Reproducibility Network</t>
-  </si>
-  <si>
-    <t>ITRN</t>
-  </si>
-  <si>
-    <t>The Society for the Improvement of Psychological Science</t>
-  </si>
-  <si>
-    <t>SIPS</t>
-  </si>
-  <si>
-    <t>2023 - ongoing</t>
-  </si>
-  <si>
-    <t>Associazione Italiana di Psicologia, Sezione Sperimentale</t>
-  </si>
-  <si>
-    <t>AIP</t>
-  </si>
-  <si>
-    <t>2022 - ongoing</t>
-  </si>
-  <si>
-    <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
-  </si>
-  <si>
     <t>PLoS ONE</t>
   </si>
   <si>
@@ -812,6 +839,12 @@
   </si>
   <si>
     <t xml:space="preserve">PEN-2435  </t>
+  </si>
+  <si>
+    <t>Science4all</t>
+  </si>
+  <si>
+    <t>Centra il bersaglio: tra misurazione, probabilità e incertezza</t>
   </si>
   <si>
     <t>name</t>
@@ -951,7 +984,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm"/>
     <numFmt numFmtId="165" formatCode="yyyy-m"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1010,6 +1043,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF1A1923"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1040,7 +1079,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1120,10 +1159,13 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1422,6 +1464,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1447,63 +1499,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$3"/>
+  <autoFilter ref="$A$1:$E$2"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1527,36 +1562,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1598,54 +1633,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1656,19 +1691,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1679,19 +1714,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1702,19 +1737,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1723,27 +1758,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1752,30 +1787,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1784,30 +1819,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -1816,27 +1851,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>175</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1847,19 +1882,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1870,19 +1905,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1893,19 +1928,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -1916,19 +1951,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1939,19 +1974,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1960,27 +1995,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -1989,30 +2024,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="21" t="s">
         <v>192</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2022,27 +2057,27 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2053,19 +2088,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2076,19 +2111,19 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2097,27 +2132,27 @@
         <v>9.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2126,27 +2161,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2157,19 +2192,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2180,19 +2215,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2201,11 +2236,100 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>9.0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$25"/>
+  <autoFilter ref="$A$1:$K$27"/>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="J5"/>
     <hyperlink r:id="rId2" location="1" ref="J6"/>
@@ -2239,57 +2363,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2438,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
@@ -2325,7 +2449,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
@@ -2333,7 +2457,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
@@ -2341,7 +2465,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2360,70 +2484,85 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="29.63"/>
     <col customWidth="1" min="2" max="2" width="24.75"/>
     <col customWidth="1" min="5" max="5" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2448,39 +2587,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2488,19 +2627,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2508,19 +2647,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>264</v>
+        <v>274</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2528,19 +2667,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>267</v>
+        <v>277</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2548,19 +2687,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>272</v>
+        <v>282</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2568,19 +2707,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>263</v>
+        <v>286</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>274</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2588,19 +2727,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2608,19 +2747,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>282</v>
+        <v>292</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>293</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2628,19 +2767,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2648,19 +2787,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2690,16 +2829,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2707,32 +2846,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
@@ -2763,19 +2902,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2783,38 +2922,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3">
         <v>1.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -8781,19 +8920,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -8801,133 +8940,133 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>7.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3">
         <v>8.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>6.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3">
         <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3">
         <v>3.0</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="C9" s="5"/>
@@ -14899,19 +15038,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -14919,22 +15058,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -20906,16 +21045,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -20923,30 +21062,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -20954,19 +21093,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -20994,48 +21133,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="9">
         <v>45231.0</v>
@@ -21048,22 +21187,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="9">
         <v>45170.0</v>
@@ -21076,22 +21215,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9">
         <v>45017.0</v>
@@ -21106,24 +21245,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="9">
         <v>44986.0</v>
@@ -21136,24 +21275,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="17">
         <v>44986.0</v>
@@ -21166,21 +21305,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="18">
         <v>44866.0</v>
@@ -21193,10 +21332,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -21222,16 +21361,16 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="17">
         <v>44621.0</v>
@@ -21244,21 +21383,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="17">
         <v>44805.0</v>
@@ -21271,21 +21410,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E10" s="18">
         <v>44470.0</v>
@@ -21298,24 +21437,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="17">
         <v>44287.0</v>
@@ -21328,24 +21467,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="17">
         <v>44287.0</v>
@@ -21358,24 +21497,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21386,24 +21525,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E14" s="18">
         <v>45352.0</v>
@@ -21416,10 +21555,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -21445,16 +21584,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E15" s="18">
         <v>45474.0</v>
@@ -21467,21 +21606,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E16" s="18">
         <v>45689.0</v>
@@ -21496,7 +21635,7 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -28452,10 +28591,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -28463,35 +28602,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" s="10">
         <v>2024.0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="10">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -28560,167 +28699,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="23">
         <v>3.7</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="23">
         <v>3.6</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="24">
         <v>13.6</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="23">
         <v>8.2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B8" s="23">
         <v>12.0</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B12" s="23">
         <v>8.2</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -28746,13 +28885,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="306">
   <si>
     <t>what</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>Title obtained on the second session</t>
   </si>
   <si>
     <t>Visiting PhD student</t>
@@ -1499,7 +1502,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1508,27 +1511,27 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -1562,36 +1565,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -1636,13 +1639,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1651,36 +1654,36 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1691,19 +1694,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1714,19 +1717,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1737,19 +1740,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1758,27 +1761,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1787,30 +1790,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1819,30 +1822,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1">
         <v>2022.0</v>
@@ -1851,27 +1854,27 @@
         <v>10.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1882,19 +1885,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1905,19 +1908,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1928,19 +1931,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F12" s="1">
         <v>2021.0</v>
@@ -1951,19 +1954,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1974,19 +1977,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1995,27 +1998,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F15" s="1">
         <v>2024.0</v>
@@ -2024,30 +2027,30 @@
         <v>2.0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2057,27 +2060,27 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2088,19 +2091,19 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2111,19 +2114,19 @@
     </row>
     <row r="19">
       <c r="A19" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2132,27 +2135,27 @@
         <v>9.0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2161,27 +2164,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2192,19 +2195,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2215,19 +2218,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2238,19 +2241,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2261,19 +2264,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="1">
         <v>2023.0</v>
@@ -2284,19 +2287,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2307,19 +2310,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F27" s="1">
         <v>2024.0</v>
@@ -2363,10 +2366,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -2374,10 +2377,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -2385,32 +2388,32 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2441,7 +2444,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
@@ -2449,7 +2452,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -2457,7 +2460,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -2465,7 +2468,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2486,6 +2489,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.63"/>
     <col customWidth="1" min="2" max="2" width="24.75"/>
+    <col customWidth="1" min="3" max="3" width="16.25"/>
+    <col customWidth="1" min="4" max="4" width="230.0"/>
     <col customWidth="1" min="5" max="5" width="17.38"/>
   </cols>
   <sheetData>
@@ -2503,66 +2508,66 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2587,39 +2592,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2627,19 +2632,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2647,19 +2652,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2667,19 +2672,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2687,19 +2692,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2707,19 +2712,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2727,19 +2732,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2747,19 +2752,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2767,19 +2772,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2787,19 +2792,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2846,32 +2851,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -9066,7 +9071,9 @@
       <c r="E8" s="3">
         <v>3.0</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9">
       <c r="C9" s="5"/>
@@ -15058,22 +15065,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -21062,30 +21069,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -21093,19 +21100,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -21139,19 +21146,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
@@ -21160,21 +21167,21 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="9">
         <v>45231.0</v>
@@ -21187,22 +21194,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9">
         <v>45170.0</v>
@@ -21215,22 +21222,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9">
         <v>45017.0</v>
@@ -21245,24 +21252,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="9">
         <v>44986.0</v>
@@ -21275,24 +21282,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="17">
         <v>44986.0</v>
@@ -21305,21 +21312,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="18">
         <v>44866.0</v>
@@ -21332,10 +21339,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -21361,16 +21368,16 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="17">
         <v>44621.0</v>
@@ -21383,21 +21390,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="17">
         <v>44805.0</v>
@@ -21410,21 +21417,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="18">
         <v>44470.0</v>
@@ -21437,24 +21444,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="17">
         <v>44287.0</v>
@@ -21467,24 +21474,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="17">
         <v>44287.0</v>
@@ -21497,24 +21504,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21525,24 +21532,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="18">
         <v>45352.0</v>
@@ -21555,10 +21562,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -21584,16 +21591,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E15" s="18">
         <v>45474.0</v>
@@ -21606,21 +21613,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="18">
         <v>45689.0</v>
@@ -21635,7 +21642,7 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -28602,35 +28609,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="10">
         <v>2024.0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" s="10">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -28699,167 +28706,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="23">
         <v>3.7</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="23">
         <v>3.6</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" s="24">
         <v>13.6</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="23">
         <v>8.2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B8" s="23">
         <v>12.0</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="23">
         <v>8.2</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -28885,13 +28892,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -484,7 +484,7 @@
     <t>Look at others’ smile: Sensorimotor modulation of visual awareness</t>
   </si>
   <si>
-    <t>Quettier, Gambarota and Sessa</t>
+    <t>Quettier, T., Gambarota, F., Sessa, P.</t>
   </si>
   <si>
     <t>Poster</t>
@@ -499,7 +499,7 @@
     <t>Visual Working Memory Precision for Emotional Faces in Moebius Patients</t>
   </si>
   <si>
-    <t>Gambarota, Pastore, Luria, Ferrari and Sessa</t>
+    <t>Gambarota, F., Pastore, Luria, Ferrari, Sessa, P.</t>
   </si>
   <si>
     <t>Cognitive Science Arena</t>
@@ -511,7 +511,7 @@
     <t>Meta-analysis in Consciousness Research</t>
   </si>
   <si>
-    <t>Gambarota, Tsuchiya, Pastore, Di Polito and Sessa</t>
+    <t>Gambarota, F., Tsuchiya, N., Pastore, M. Di Polito, N., Sessa, P.</t>
   </si>
   <si>
     <t>Talk</t>
@@ -526,7 +526,7 @@
     <t>trackdown - Collaborative writing through literate programming in R</t>
   </si>
   <si>
-    <t>Gambarota, Zandonella Callegher, Linkersdörfer, Ling and Kothe</t>
+    <t>Gambarota, F., Zandonella Callegher, C., Linkersdörfer, J., Ling, M., Kothe, E.</t>
   </si>
   <si>
     <t>Towards Advanced Scientific Knowledge (TASK4)</t>
@@ -535,7 +535,7 @@
     <t>Slides</t>
   </si>
   <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
+    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
   </si>
   <si>
     <t>trackdown - An R package for collaborative writing and editing</t>
@@ -544,10 +544,10 @@
     <t>Society for the Improvement of Psychological Science (SIPS)</t>
   </si>
   <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/trackdown_sips.html#1</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/talk_sips.mp4</t>
+    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_sips/trackdown_sips.html#1</t>
+  </si>
+  <si>
+    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_sips/talk_sips.mp4</t>
   </si>
   <si>
     <t>trackdown - A simple framework for collaboration in a literate programming workflow</t>
@@ -556,19 +556,28 @@
     <t>useR</t>
   </si>
   <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/trackdown_user.html#1</t>
-  </si>
-  <si>
-    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/talk_user.mp4</t>
+    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_useR/trackdown_user.html#1</t>
+  </si>
+  <si>
+    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_useR/talk_user.mp4</t>
+  </si>
+  <si>
+    <t>The role of previous probabilistic learning on the subjective affective experience</t>
+  </si>
+  <si>
+    <t>del Popolo Cristaldi, F., Gambarota, F., Oosterwijk, S.</t>
+  </si>
+  <si>
+    <t>Italian Psychological Association (AIP)</t>
+  </si>
+  <si>
+    <t>Lecce, Italy</t>
   </si>
   <si>
     <t>Conscious and unconscious information processing in visual working memory</t>
   </si>
   <si>
-    <t>Gambarota, Luria and Sessa</t>
-  </si>
-  <si>
-    <t>Italian Psychological Association (AIP)</t>
+    <t>Gambarota, F., Luria, R., Sessa, P.</t>
   </si>
   <si>
     <t>Padova, Italy</t>
@@ -580,9 +589,6 @@
     <t>Cross-modality effects in affective prediction construction: the role of past visual experience in subjective reactions to new affective pictures and sounds</t>
   </si>
   <si>
-    <t>del Popolo Cristaldi, Gambarota and Oosterwijk</t>
-  </si>
-  <si>
     <t>Annual Conference of the European Society for Cognitive and Affective Neuroscience (ESCAN)</t>
   </si>
   <si>
@@ -598,16 +604,10 @@
     <t>Cognitive Science Arena (CSA)</t>
   </si>
   <si>
-    <t>The role of previous probabilistic learning on the subjective affective experience</t>
-  </si>
-  <si>
-    <t>Lecce, Italy</t>
-  </si>
-  <si>
     <t>Probing cerebellar involvement in cognition through neuromodulation: A meta-analysis on the effectiveness of non-invasive cerebellar stimulation</t>
   </si>
   <si>
-    <t>Pezzetta, Gambarota, Tarantino, Devita, Cattaneo, Arcara, Mapelli and Masina</t>
+    <t>Pezzetta, R., Gambarota, F., Tarantino, V., Devita, M., Cattaneo, Z., Arcara, G., Mapelli, D., Masina, F.</t>
   </si>
   <si>
     <t>Transcranical Brain Stimulation in Cognitive Neuroscience Workshop</t>
@@ -619,16 +619,25 @@
     <t>Joinmeta - An Inferential approach to multiverse meta-analysis</t>
   </si>
   <si>
-    <t>Gambarota, Vesely, Finos, Altoè</t>
+    <t>Gambarota, F., Vesely, A., Finos, L., Altoè, G.</t>
   </si>
   <si>
     <t>https://shared-research.github.io/multiverse-meta-analysis/conferences/sips2023/poster/sips-2023.html</t>
   </si>
   <si>
+    <t>Multiverse Meta-Analysis: Proposing an Exploratory Framework.</t>
+  </si>
+  <si>
+    <t>Rasti, S., Gambarota, F., Altoè, G.</t>
+  </si>
+  <si>
+    <t>Society for the Improvement of Psychological Science</t>
+  </si>
+  <si>
     <t>Understanding meta-analysis through data simulation with applications to power analysis</t>
   </si>
   <si>
-    <t>Gambarota and Altoè</t>
+    <t>Gambarota, F. and Altoè, G.</t>
   </si>
   <si>
     <t>Invited</t>
@@ -646,7 +655,7 @@
     <t>Cosa accade al di fuori della consapevolezza visiva? [Italian]</t>
   </si>
   <si>
-    <t>Gambarota</t>
+    <t>Gambarota, F.</t>
   </si>
   <si>
     <t>Brain Awareness Week</t>
@@ -667,7 +676,7 @@
     <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications</t>
   </si>
   <si>
-    <t>Girardi, Vesely, Gambarota, Altoè, Pastore, Finos</t>
+    <t>Girardi, P., Vesely, A., Gambarota, F., Altoè, G., Pastore, M., Finos, L.</t>
   </si>
   <si>
     <t>Association for Applied Statistics (ASA)</t>
@@ -679,7 +688,7 @@
     <t>The Multiverse of Multi-labs. Methodological and Statistical Aspects of Multi-Lab and Multiverse Studies.</t>
   </si>
   <si>
-    <t>Gambarota, Crepaldi, Liuzza, Calignano, Finos, Scandola</t>
+    <t>Gambarota, F., Crepaldi, D., Calignano, G., Finos, L., Scandola, M.</t>
   </si>
   <si>
     <t>Symposium</t>
@@ -691,13 +700,13 @@
     <t>Noto, Italy</t>
   </si>
   <si>
-    <t>https://filippogambarota.github.io/aip-2024-multiverse-multilab-symposium/</t>
+    <t>https://filippoGambarota, F..github.io/aip-2024-multiverse-multilab-symposium/</t>
   </si>
   <si>
     <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data.</t>
   </si>
   <si>
-    <t>Gambarota, Toffalini</t>
+    <t>Gambarota, F., Toffalini, E.</t>
   </si>
   <si>
     <t>Italian Psychological Association (AIP), Developmental Psychology</t>
@@ -706,13 +715,13 @@
     <t>Cagliari, Italy</t>
   </si>
   <si>
-    <t>https://filippogambarota.github.io/files/slides/2024-aip-sviluppo.pdf</t>
+    <t>https://filippoGambarota, F..github.io/files/slides/2024-aip-sviluppo.pdf</t>
   </si>
   <si>
     <t>Critical effect size values and why to report them.</t>
   </si>
   <si>
-    <t>Perugini, Gambarota, Toffalini, Sità, Lakens, Pastore, Finos, Psicostat, Altoè</t>
+    <t>Perugini, A., Gambarota, F., Toffalini, E., Sità, L., Lakens, D., Pastore, M., Finos, L. Psicostat, Altoè, G.</t>
   </si>
   <si>
     <t>Inference on multiverse meta-analysis. [accepted]</t>
@@ -727,7 +736,7 @@
     <t>Effects of Domestication and Selection for Productivity on Numerical Cognition in Chicks</t>
   </si>
   <si>
-    <t>Brosche, Gambarota, Altoè, Rugani</t>
+    <t>Brosche, K., Gambarota, F., Altoè, G., Rugani, R.</t>
   </si>
   <si>
     <t>European Conference on Behavioural Biology (ECBB)</t>
@@ -739,31 +748,22 @@
     <t>Exploring the Dark Side of the Multiverse: Pitfalls and Possibilities in Applications.</t>
   </si>
   <si>
-    <t>Girardi, P., Vesely, A, Gambarota, F., Altoè, G., Pastore, M., &amp; Finos, L</t>
+    <t>Girardi, P., Vesely, A, Gambarota, F., Altoè, G., Pastore, M., Finos, L.</t>
   </si>
   <si>
     <t>Measuring and Interpreting World Changes with Statistics, Data Science and AI, Association for Applied Statistics (ASA)</t>
   </si>
   <si>
-    <t>Multiverse Meta-Analysis: Proposing an Exploratory Framework.</t>
-  </si>
-  <si>
-    <t>Rasti, S., Gambarota, F. &amp; Altoè, G.</t>
-  </si>
-  <si>
-    <t>Society for the Improvement of Psychological Science</t>
-  </si>
-  <si>
     <t>Is that a cluster? A practical guide on how to avoid Type I and Type II error</t>
   </si>
   <si>
-    <t>Perugini, Toffalini, Feraco, Gambarota, Pastore, Altoè</t>
+    <t>Perugini, A., Toffalini, A., Feraco, T., Gambarota, F., Pastore, M., Altoè, G.</t>
   </si>
   <si>
     <t>Communicative development on the move between Minority and Majority worlds</t>
   </si>
   <si>
-    <t>Calignano, G., Ceccon, C., Gambarota, F., Pacheco, S., Russo, S, Altoé, G., Pastore, M., Valenza, E., Moscardino, U.</t>
+    <t>Calignano, G., Ceccon, C., Gambarota, F., F., Pacheco, S., Russo, S, Altoé, G., Pastore, M., Valenza, E., Moscardino, U.</t>
   </si>
   <si>
     <t>society</t>
@@ -1631,6 +1631,7 @@
     <col customWidth="1" min="3" max="3" width="14.63"/>
     <col customWidth="1" min="4" max="4" width="71.38"/>
     <col customWidth="1" min="5" max="5" width="15.13"/>
+    <col customWidth="1" min="8" max="8" width="67.88"/>
     <col customWidth="1" min="9" max="10" width="87.75"/>
   </cols>
   <sheetData>
@@ -1763,7 +1764,7 @@
       <c r="I5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1792,10 +1793,10 @@
       <c r="I6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1824,10 +1825,10 @@
       <c r="I7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="19" t="s">
         <v>166</v>
       </c>
     </row>
@@ -1848,52 +1849,52 @@
         <v>170</v>
       </c>
       <c r="F8" s="1">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="G8" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="21" t="s">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="16" t="s">
         <v>175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1911,7 +1912,7 @@
         <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>151</v>
@@ -1920,13 +1921,13 @@
         <v>178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
       </c>
       <c r="G11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1934,22 +1935,22 @@
         <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G12" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -1989,7 +1990,7 @@
         <v>160</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2012,66 +2013,59 @@
         <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F15" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>193</v>
+        <v>2023.0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
       </c>
       <c r="G16" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="H16" s="16"/>
+        <v>2.0</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>194</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>151</v>
@@ -2080,13 +2074,20 @@
         <v>199</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
       </c>
-      <c r="G17" s="1">
-        <v>5.0</v>
+      <c r="G17" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -2094,68 +2095,62 @@
         <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
       </c>
       <c r="G18" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
       </c>
       <c r="G19" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" s="21" t="s">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2164,27 +2159,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>215</v>
+        <v>195</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2192,28 +2187,34 @@
       <c r="G21" s="1">
         <v>9.0</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
       </c>
       <c r="G22" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="23">
@@ -2221,45 +2222,45 @@
         <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
       </c>
       <c r="G23" s="1">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
       </c>
       <c r="G24" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="25">
@@ -2270,19 +2271,19 @@
         <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="F25" s="1">
-        <v>2023.0</v>
+        <v>2024.0</v>
       </c>
       <c r="G25" s="1">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="26">
@@ -2296,10 +2297,10 @@
         <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2319,10 +2320,10 @@
         <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F27" s="1">
         <v>2024.0</v>
@@ -2332,19 +2333,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$27"/>
+  <autoFilter ref="$A$1:$K$27">
+    <sortState ref="A1:K27">
+      <sortCondition ref="F1:F27"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="J5"/>
     <hyperlink r:id="rId2" location="1" ref="J6"/>
     <hyperlink r:id="rId3" ref="K6"/>
     <hyperlink r:id="rId4" location="1" ref="J7"/>
     <hyperlink r:id="rId5" ref="K7"/>
-    <hyperlink r:id="rId6" location="slide=id.p" ref="J8"/>
+    <hyperlink r:id="rId6" location="slide=id.p" ref="J9"/>
     <hyperlink r:id="rId7" ref="J14"/>
-    <hyperlink r:id="rId8" ref="J15"/>
-    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="J16"/>
-    <hyperlink r:id="rId10" ref="J19"/>
-    <hyperlink r:id="rId11" ref="J20"/>
+    <hyperlink r:id="rId8" ref="J16"/>
+    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="J17"/>
+    <hyperlink r:id="rId10" ref="J20"/>
+    <hyperlink r:id="rId11" ref="J21"/>
   </hyperlinks>
   <drawing r:id="rId12"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -27,7 +27,7 @@
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$27</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$29</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="313">
   <si>
     <t>what</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Winter School</t>
-  </si>
-  <si>
-    <t>Bressanone</t>
   </si>
   <si>
     <t>title</t>
@@ -336,6 +330,15 @@
   </si>
   <si>
     <t>Professor (titolare del corso) for the Master's degree in Statistical Sciences, Department of Statistical Sciences, University of Padova</t>
+  </si>
+  <si>
+    <t>Crafting effective scientific presentations [planned]</t>
+  </si>
+  <si>
+    <t>Professor for the course within the PhD program in Psychological Sciences, University of Padova</t>
+  </si>
+  <si>
+    <t>Generalized Linear Models [planned]</t>
   </si>
   <si>
     <t>Award for the best scientific article of 2024 - Italian Psychological Association (AIP), Developmental and Educational Psychology</t>
@@ -764,6 +767,24 @@
   </si>
   <si>
     <t>Calignano, G., Ceccon, C., Gambarota, F., F., Pacheco, S., Russo, S, Altoé, G., Pastore, M., Valenza, E., Moscardino, U.</t>
+  </si>
+  <si>
+    <t>Open Science Starter Pack [planned]</t>
+  </si>
+  <si>
+    <t>International Winter School 4M</t>
+  </si>
+  <si>
+    <t>Invited talk at the International Winter School 4M, Department of General Psychology, University of Padova [https://winterschool4ms.dpg.unipd.it/](https://winterschool4ms.dpg.unipd.it/)</t>
+  </si>
+  <si>
+    <t>Multiverse analysis in R: Exploratory and Inferential Approaches [planned]</t>
+  </si>
+  <si>
+    <t>Gambarota, F., Calignano, G.</t>
+  </si>
+  <si>
+    <t>Invited workshop on multiverse analysis in R</t>
   </si>
   <si>
     <t>society</t>
@@ -1467,16 +1488,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1502,36 +1513,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -1565,36 +1576,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1637,54 +1648,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1695,19 +1706,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1718,19 +1729,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1741,19 +1752,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1762,27 +1773,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1791,30 +1802,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1823,30 +1834,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -1857,19 +1868,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1878,27 +1889,27 @@
         <v>10.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1909,19 +1920,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1932,19 +1943,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -1955,19 +1966,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1978,19 +1989,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -1999,27 +2010,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2030,19 +2041,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2051,30 +2062,30 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2084,27 +2095,27 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2115,19 +2126,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2138,19 +2149,19 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2159,27 +2170,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2188,27 +2199,27 @@
         <v>9.0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2219,19 +2230,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2242,19 +2253,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2265,19 +2276,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2288,19 +2299,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2311,19 +2322,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F27" s="1">
         <v>2024.0</v>
@@ -2332,12 +2343,69 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2025.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2025.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$27">
-    <sortState ref="A1:K27">
-      <sortCondition ref="F1:F27"/>
+  <autoFilter ref="$A$1:$K$29">
+    <sortState ref="A1:K29">
+      <sortCondition ref="F1:F29"/>
     </sortState>
   </autoFilter>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C29">
+      <formula1>"Poster,Talk,Invited,Symposium"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" location="1" ref="J5"/>
     <hyperlink r:id="rId2" location="1" ref="J6"/>
@@ -2371,57 +2439,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2446,10 +2514,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -2457,7 +2525,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -2465,7 +2533,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4">
@@ -2473,7 +2541,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2501,78 +2569,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2597,39 +2665,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -2637,19 +2705,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -2657,19 +2725,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -2677,19 +2745,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -2697,19 +2765,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -2717,19 +2785,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -2737,19 +2805,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -2757,19 +2825,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -2777,19 +2845,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -2797,19 +2865,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -2839,16 +2907,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2856,32 +2924,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
@@ -2912,19 +2980,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -2932,38 +3000,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3">
         <v>1.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -8930,19 +8998,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -8950,134 +9018,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>5.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>7.0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="3">
         <v>8.0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3">
         <v>6.0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
         <v>4.0</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3">
         <v>3.0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -15050,19 +15118,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -15070,22 +15138,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>2.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -21057,16 +21125,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -21074,30 +21142,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -21105,19 +21173,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -21145,48 +21213,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="9">
         <v>45231.0</v>
@@ -21199,22 +21267,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E3" s="9">
         <v>45170.0</v>
@@ -21227,22 +21295,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="9">
         <v>45017.0</v>
@@ -21257,24 +21325,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E5" s="9">
         <v>44986.0</v>
@@ -21287,24 +21355,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E6" s="17">
         <v>44986.0</v>
@@ -21317,21 +21385,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18">
         <v>44866.0</v>
@@ -21344,10 +21412,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -21373,16 +21441,16 @@
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E8" s="17">
         <v>44621.0</v>
@@ -21395,21 +21463,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E9" s="17">
         <v>44805.0</v>
@@ -21422,21 +21490,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="18">
         <v>44470.0</v>
@@ -21449,24 +21517,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="17">
         <v>44287.0</v>
@@ -21479,24 +21547,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="17">
         <v>44287.0</v>
@@ -21509,24 +21577,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21537,24 +21605,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E14" s="18">
         <v>45352.0</v>
@@ -21567,10 +21635,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -21596,16 +21664,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="18">
         <v>45474.0</v>
@@ -21618,21 +21686,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="18">
         <v>45689.0</v>
@@ -21647,22 +21715,66 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="18">
+        <v>45717.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
     <row r="18">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="18">
+        <v>45718.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="5"/>
@@ -28603,10 +28715,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -28614,35 +28726,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="10">
         <v>2024.0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="10">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -28711,167 +28823,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="23">
         <v>3.7</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="23">
         <v>3.6</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="24">
         <v>13.6</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="23">
         <v>8.2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="23">
         <v>12.0</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="23">
         <v>8.2</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -28897,13 +29009,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -18,28 +18,30 @@
     <sheet state="visible" name="memberships" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="reviews" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="terza_missione" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="dissertations" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="other_academic" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="other_academic" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="collaborations" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="dissertations" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">teaching!$A$1:$K$1004</definedName>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$2</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$29</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
-    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">reviews!$A$1:$B$4</definedName>
+    <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">reviews!$A$1:$C$1001</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
-    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
+    <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
+    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">collaborations!$A$1:$D$1000</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="333">
   <si>
     <t>what</t>
   </si>
@@ -74,7 +76,7 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Project: Multiverse meta-analysis (M-PSI/03)
+    <t>Project: Multiverse meta-analysis (PSIC-01/C ex M-PSI/03)
 Supervisor: Prof. Gianmarco Altoè</t>
   </si>
   <si>
@@ -173,6 +175,21 @@
     <t>Research project about the relationship between Working Memory and Consciousness Supervisor: Professor Roy Luria</t>
   </si>
   <si>
+    <t>Visiting Scholar</t>
+  </si>
+  <si>
+    <t>Dana Farber Cancer Institute, Harvard University, Boston</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>1 month</t>
+  </si>
+  <si>
+    <t>Research project about replicability in Psychology and Biomedical sciences. Supervisor: Professor Giovanni Parmigiani</t>
+  </si>
+  <si>
     <t>Bayesian Regression Modeling with BRMS</t>
   </si>
   <si>
@@ -215,6 +232,9 @@
     <t>cfu</t>
   </si>
   <si>
+    <t>materials_type</t>
+  </si>
+  <si>
     <t>materials</t>
   </si>
   <si>
@@ -242,12 +262,15 @@
     <t>I held a series of workshops about statistical methods to assess replicability during the summer school [Replicability Crisis in Science?](https://replicability.stat.unipd.it/) organized at the Department of Statistical Sciences (University of Padova)</t>
   </si>
   <si>
-    <t>Statistical Methods and Data Analysis in Developmental Psychology [M-PSI/03]</t>
+    <t>Statistical Methods and Data Analysis in Developmental Psychology [PSIC-01/C ex M-PSI/03]</t>
   </si>
   <si>
     <t>Lecturer (titolare di modulo) for the Master's degree in Developmental and Educational Psychology, University of Padova</t>
   </si>
   <si>
+    <t>website</t>
+  </si>
+  <si>
     <t>https://github.com/stat-teaching/SMDA-2023</t>
   </si>
   <si>
@@ -263,7 +286,7 @@
     <t>https://github.com/filippogambarota/corsoR</t>
   </si>
   <si>
-    <t>Data Analysis in Developmental Psychology [M-PSI/03]</t>
+    <t>Data Analysis in Developmental Psychology [PSIC-01/C ex M-PSI/03]</t>
   </si>
   <si>
     <t>integrative</t>
@@ -275,7 +298,7 @@
     <t>2022</t>
   </si>
   <si>
-    <t>Psychological Testing [M-PSI/03]</t>
+    <t>Psychological Testing [PSIC-01/C ex M-PSI/03]</t>
   </si>
   <si>
     <t>Lectures about R programming and data analysis of the course "Psychological Testing" (Prof. Gianmarco Altoè), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
@@ -290,6 +313,9 @@
     <t>Lecture during the course "General Psychology" (Prof. Roberto Dell'Acqua), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
   </si>
   <si>
+    <t>slides</t>
+  </si>
+  <si>
     <t>https://docs.google.com/presentation/d/1PdIhW8IfYUBBRST6MeLIUuLYAIC804Wt8sSdJKn2ZIg/edit?usp=sharing</t>
   </si>
   <si>
@@ -312,9 +338,6 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1hRqtLqWsM4qi7SeMOmPYG1HsRrcnDrTzhluVk-neSB8/edit#slide=id.g7375f48dcf_2_0</t>
-  </si>
-  <si>
-    <t>2024</t>
   </si>
   <si>
     <t>Replicability crisis in science?</t>
@@ -457,6 +480,18 @@
     <t>Registered Replication Report - Provisional Acceptance</t>
   </si>
   <si>
+    <t>Dimitru, E., [...] Gambarota, F., [...]</t>
+  </si>
+  <si>
+    <t>The Pain of Death. A Meta-Analysis of the Association of Death Anxiety with Psychological Distress And Psychopathology</t>
+  </si>
+  <si>
+    <t>Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>In press</t>
+  </si>
+  <si>
     <t>Gambarota, Luria, Pastore, De Stefani, Ferrari, Sessa</t>
   </si>
   <si>
@@ -727,7 +762,7 @@
     <t>Perugini, A., Gambarota, F., Toffalini, E., Sità, L., Lakens, D., Pastore, M., Finos, L. Psicostat, Altoè, G.</t>
   </si>
   <si>
-    <t>Inference on multiverse meta-analysis. [accepted]</t>
+    <t>Inference on multiverse meta-analysis.</t>
   </si>
   <si>
     <t>META-REP</t>
@@ -805,39 +840,42 @@
     <t>SIPS</t>
   </si>
   <si>
+    <t>Associazione Italiana di Psicologia, Sezione Sperimentale</t>
+  </si>
+  <si>
+    <t>AIP</t>
+  </si>
+  <si>
+    <t>2022 - ongoing</t>
+  </si>
+  <si>
+    <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>International Journal of Psychology</t>
+  </si>
+  <si>
+    <t>PLoS ONE</t>
+  </si>
+  <si>
+    <t>Neuroscience of Consciousness</t>
+  </si>
+  <si>
+    <t>responsabile</t>
+  </si>
+  <si>
+    <t>iris_id</t>
+  </si>
+  <si>
+    <t>Sito web [https://psicostat.dpss.psy.unipd.it/](https://psicostat.dpss.psy.unipd.it/) del gruppo di ricerca multidisciplinare "Psicostat".</t>
+  </si>
+  <si>
     <t>2023 - ongoing</t>
   </si>
   <si>
-    <t>Associazione Italiana di Psicologia, Sezione Sperimentale</t>
-  </si>
-  <si>
-    <t>AIP</t>
-  </si>
-  <si>
-    <t>2022 - ongoing</t>
-  </si>
-  <si>
-    <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
-  </si>
-  <si>
-    <t>International Journal of Psychology</t>
-  </si>
-  <si>
-    <t>PLoS ONE</t>
-  </si>
-  <si>
-    <t>Neuroscience of Consciousness</t>
-  </si>
-  <si>
-    <t>responsabile</t>
-  </si>
-  <si>
-    <t>iris_id</t>
-  </si>
-  <si>
-    <t>Sito web [https://psicostat.dpss.psy.unipd.it/](https://psicostat.dpss.psy.unipd.it/) del gruppo di ricerca multidisciplinare "Psicostat".</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
@@ -871,9 +909,45 @@
     <t>Centra il bersaglio: tra misurazione, probabilità e incertezza</t>
   </si>
   <si>
+    <t>MRInference Winter School</t>
+  </si>
+  <si>
+    <t>I was part of the organizing committee of the “MRInference: from data to knowledge” winter school organized by the University of Padova</t>
+  </si>
+  <si>
+    <t>Italian Association of Psychology (AIP)</t>
+  </si>
+  <si>
+    <t>I was part of the organizing committee of the [XXX edition](http://www.aipass.org/xxx-congresso-aip-plenario-padova-27-30-settembre-2022) of the Italian Association of Psychology (AIP) conference and editor of the Book of Abstract [https://www.padovauniversitypress.it/it/publications/9788869383168](https://www.padovauniversitypress.it/it/publications/9788869383168)</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>affiliation</t>
+  </si>
+  <si>
+    <t>Naotsugu Tsuchiya</t>
+  </si>
+  <si>
+    <t>Monash University</t>
+  </si>
+  <si>
+    <t>Roy Luria</t>
+  </si>
+  <si>
+    <t>Tel Aviv University</t>
+  </si>
+  <si>
+    <t>Daniel Lakens</t>
+  </si>
+  <si>
+    <t>Eindhoven University of Technology</t>
+  </si>
+  <si>
+    <t>Livio Finos</t>
+  </si>
+  <si>
     <t>surname</t>
   </si>
   <si>
@@ -986,18 +1060,6 @@
   </si>
   <si>
     <t>Unconscious processing of some face dimensions: a systematic review</t>
-  </si>
-  <si>
-    <t>MRInference Winter School</t>
-  </si>
-  <si>
-    <t>I was part of the organizing committee of the “MRInference: from data to knowledge” winter school organized by the University of Padova</t>
-  </si>
-  <si>
-    <t>Italian Association of Psychology (AIP)</t>
-  </si>
-  <si>
-    <t>I was part of the organizing committee of the [XXX edition](http://www.aipass.org/xxx-congresso-aip-plenario-padova-27-30-settembre-2022) of the Italian Association of Psychology (AIP) conference and editor of the Book of Abstract [https://www.padovauniversitypress.it/it/publications/9788869383168](https://www.padovauniversitypress.it/it/publications/9788869383168)</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1156,6 +1218,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1168,6 +1231,9 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1176,9 +1242,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1233,6 +1296,10 @@
 </file>
 
 <file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1513,7 +1580,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -1522,27 +1589,44 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -1552,7 +1636,7 @@
       <c r="A6" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$2"/>
+  <autoFilter ref="$A$1:$E$3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1576,36 +1660,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>135</v>
+        <v>145</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -1615,7 +1699,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$2"/>
@@ -1651,13 +1735,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1666,36 +1750,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1706,19 +1790,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1729,19 +1813,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1752,19 +1836,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1773,27 +1857,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>159</v>
+        <v>169</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1802,30 +1886,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1834,30 +1918,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -1868,19 +1952,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -1889,27 +1973,27 @@
         <v>10.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>175</v>
+        <v>169</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -1920,19 +2004,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -1943,19 +2027,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -1966,19 +2050,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -1989,19 +2073,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2010,27 +2094,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>188</v>
+        <v>154</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2041,19 +2125,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2062,30 +2146,30 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" s="21" t="s">
-        <v>197</v>
+        <v>207</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2095,27 +2179,27 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="21" t="s">
-        <v>201</v>
+        <v>169</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2126,19 +2210,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2149,19 +2233,19 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2170,27 +2254,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2199,27 +2283,27 @@
         <v>9.0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>219</v>
+        <v>169</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2230,19 +2314,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2253,19 +2337,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2276,19 +2360,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2299,19 +2383,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2322,19 +2406,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F27" s="1">
         <v>2024.0</v>
@@ -2345,19 +2429,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F28" s="1">
         <v>2025.0</v>
@@ -2366,24 +2450,24 @@
         <v>2.0</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F29" s="1">
         <v>2025.0</v>
@@ -2392,7 +2476,7 @@
         <v>2.0</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2439,10 +2523,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -2450,10 +2534,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -2461,32 +2545,32 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2509,7 +2593,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.88"/>
+    <col customWidth="1" min="2" max="3" width="26.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2517,7 +2601,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2">
@@ -2525,7 +2612,10 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -2533,7 +2623,10 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -2541,11 +2634,14 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$4"/>
+  <autoFilter ref="$A$1:$C$1001"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2581,66 +2677,66 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>269</v>
+        <v>64</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2650,246 +2746,6 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="3" max="3" width="97.38"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="$A$1:$F$11"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2924,32 +2780,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -2957,6 +2813,324 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$4"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="27.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2020.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2021.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2023.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2021.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$D$1000"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.0"/>
+    <col customWidth="1" min="3" max="3" width="97.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$F$11"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -15111,7 +15285,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="44.88"/>
-    <col customWidth="1" min="2" max="2" width="32.63"/>
+    <col customWidth="1" min="2" max="2" width="43.13"/>
     <col customWidth="1" min="4" max="5" width="8.13"/>
     <col customWidth="1" min="6" max="6" width="59.63"/>
   </cols>
@@ -15150,17 +15324,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4">
       <c r="C4" s="5"/>
@@ -21142,30 +21330,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -21173,19 +21361,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -21208,7 +21396,8 @@
     <col customWidth="1" min="2" max="2" width="25.88"/>
     <col customWidth="1" min="7" max="8" width="11.75"/>
     <col customWidth="1" min="9" max="9" width="186.38"/>
-    <col customWidth="1" min="10" max="10" width="101.0"/>
+    <col customWidth="1" min="10" max="10" width="22.63"/>
+    <col customWidth="1" min="11" max="11" width="101.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21219,19 +21408,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
@@ -21240,21 +21429,24 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E2" s="9">
         <v>45231.0</v>
@@ -21267,22 +21459,23 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E3" s="9">
         <v>45170.0</v>
@@ -21295,22 +21488,23 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E4" s="9">
         <v>45017.0</v>
@@ -21325,24 +21519,27 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E5" s="9">
         <v>44986.0</v>
@@ -21355,24 +21552,27 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E6" s="17">
         <v>44986.0</v>
@@ -21385,23 +21585,24 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J6" s="18"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="18">
+        <v>82</v>
+      </c>
+      <c r="E7" s="19">
         <v>44866.0</v>
       </c>
       <c r="F7" s="1">
@@ -21412,45 +21613,48 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E8" s="17">
         <v>44621.0</v>
@@ -21463,21 +21667,22 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E9" s="17">
         <v>44805.0</v>
@@ -21490,23 +21695,24 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>77</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J9" s="18"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="19">
         <v>44470.0</v>
       </c>
       <c r="F10" s="1">
@@ -21517,21 +21723,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
@@ -21547,21 +21756,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -21577,24 +21789,27 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21605,26 +21820,29 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="18">
+        <v>44</v>
+      </c>
+      <c r="E14" s="19">
         <v>45352.0</v>
       </c>
       <c r="F14" s="1">
@@ -21635,47 +21853,50 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="18">
+        <v>44</v>
+      </c>
+      <c r="E15" s="19">
         <v>45474.0</v>
       </c>
       <c r="F15" s="1">
@@ -21686,23 +21907,24 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="18">
+        <v>100</v>
+      </c>
+      <c r="E16" s="19">
         <v>45689.0</v>
       </c>
       <c r="F16" s="1">
@@ -21715,23 +21937,24 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>94</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="18">
+        <v>100</v>
+      </c>
+      <c r="E17" s="19">
         <v>45717.0</v>
       </c>
       <c r="F17" s="1">
@@ -21744,23 +21967,24 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="18">
+        <v>100</v>
+      </c>
+      <c r="E18" s="19">
         <v>45718.0</v>
       </c>
       <c r="F18" s="1">
@@ -21773,8 +21997,9 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="J18" s="18"/>
     </row>
     <row r="19">
       <c r="C19" s="5"/>
@@ -28679,20 +28904,25 @@
       <c r="I1004" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$1004">
-    <sortState ref="A1:J1004">
+  <autoFilter ref="$A$1:$K$1004">
+    <sortState ref="A1:K1004">
       <sortCondition descending="1" ref="D1:D1004"/>
     </sortState>
   </autoFilter>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J18">
+      <formula1>"website,slides"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
-    <hyperlink r:id="rId2" ref="J5"/>
-    <hyperlink r:id="rId3" ref="J7"/>
-    <hyperlink r:id="rId4" ref="J10"/>
-    <hyperlink r:id="rId5" ref="J11"/>
-    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="J12"/>
-    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="J13"/>
-    <hyperlink r:id="rId8" ref="J14"/>
+    <hyperlink r:id="rId1" ref="K4"/>
+    <hyperlink r:id="rId2" ref="K5"/>
+    <hyperlink r:id="rId3" ref="K7"/>
+    <hyperlink r:id="rId4" ref="K10"/>
+    <hyperlink r:id="rId5" ref="K11"/>
+    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="K12"/>
+    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="K13"/>
+    <hyperlink r:id="rId8" ref="K14"/>
   </hyperlinks>
   <drawing r:id="rId9"/>
 </worksheet>
@@ -28726,35 +28956,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B2" s="10">
         <v>2024.0</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>99</v>
+      <c r="C2" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B3" s="10">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4" s="10">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -28770,27 +29000,27 @@
     </row>
     <row r="8">
       <c r="A8" s="6"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="16"/>
@@ -28822,168 +29052,168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>106</v>
+      <c r="A1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="23">
+        <v>118</v>
+      </c>
+      <c r="B4" s="25">
         <v>3.7</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>110</v>
+      <c r="C4" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="23">
+        <v>119</v>
+      </c>
+      <c r="B5" s="25">
         <v>3.6</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>110</v>
+      <c r="C5" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="24">
+        <v>120</v>
+      </c>
+      <c r="B6" s="26">
         <v>13.6</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>110</v>
+      <c r="C6" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="23">
+        <v>121</v>
+      </c>
+      <c r="B7" s="25">
         <v>8.2</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>110</v>
+      <c r="C7" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="23">
+        <v>122</v>
+      </c>
+      <c r="B8" s="25">
         <v>12.0</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>110</v>
+      <c r="C8" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="23">
+        <v>127</v>
+      </c>
+      <c r="B12" s="25">
         <v>8.2</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>110</v>
+      <c r="C12" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -29009,20 +29239,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="25"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="16"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,6 +26,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">teaching!$A$1:$K$1004</definedName>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">publication_metrics!$A$1:$E$998</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="348">
   <si>
     <t>what</t>
   </si>
@@ -427,6 +428,12 @@
     <t>Quartile</t>
   </si>
   <si>
+    <t>Corresponding</t>
+  </si>
+  <si>
+    <t>Equal Contribution</t>
+  </si>
+  <si>
     <t>Toffalini2024-vp</t>
   </si>
   <si>
@@ -907,7 +914,7 @@
     <t>Padova</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensibilizzazione di tutto i personale del DPSS relativamente alle tematiche sulla società performante. Si è trattato di un workshop interattivo all'interno del retreat del dipartimento. La parte teorica è stata aperta alla cittadinanza attraverso la diretta fb, mentre la parte pratica è stata rivolta solo al personale dpss </t>
+    <t xml:space="preserve">Sensibilizzazione di tutto i personale del DPSS relativamente alle tematiche sulla società performante. Si è trattato di un workshop interattivo all'interno del retreat del dipartimento (24th February 2023). La parte teorica è stata aperta alla cittadinanza attraverso la diretta fb, mentre la parte pratica è stata rivolta solo al personale dpss </t>
   </si>
   <si>
     <t>Prof. Maja Roch</t>
@@ -919,7 +926,7 @@
     <t>Science4all</t>
   </si>
   <si>
-    <t>Centra il bersaglio: tra misurazione, probabilità e incertezza</t>
+    <t>"Centra il bersaglio: tra misurazione, probabilità e incertezza". Activity organized by the Psicostat Research Group and proposed during the Science4All activity at the University of Padova (27-29th September 2024)</t>
   </si>
   <si>
     <t>MRInference Winter School</t>
@@ -1625,13 +1632,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1672,7 +1679,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1681,44 +1688,44 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1759,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1769,19 +1776,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -1827,13 +1834,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1848,30 +1855,30 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1882,19 +1889,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1905,19 +1912,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1928,19 +1935,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1949,27 +1956,27 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1978,30 +1985,30 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -2010,30 +2017,30 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -2044,19 +2051,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -2065,27 +2072,27 @@
         <v>10.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -2096,19 +2103,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -2119,19 +2126,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -2142,19 +2149,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -2165,19 +2172,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2186,27 +2193,27 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2217,19 +2224,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2238,30 +2245,30 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2271,27 +2278,27 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2302,19 +2309,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2325,19 +2332,19 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2346,27 +2353,27 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2375,27 +2382,27 @@
         <v>9.0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2406,19 +2413,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2429,19 +2436,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2452,19 +2459,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2475,19 +2482,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2498,19 +2505,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F27" s="1">
         <v>2025.0</v>
@@ -2519,24 +2526,24 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F28" s="1">
         <v>2025.0</v>
@@ -2545,7 +2552,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2592,10 +2599,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2603,10 +2610,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2614,10 +2621,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -2625,21 +2632,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -2670,10 +2677,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -2681,7 +2688,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2692,7 +2699,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -2703,7 +2710,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -2746,57 +2753,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -2805,7 +2812,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2856,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>71</v>
@@ -2859,12 +2866,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>71</v>
@@ -2874,7 +2881,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
@@ -2903,10 +2910,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2917,86 +2924,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3021,39 +3028,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3061,19 +3068,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="E3" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3081,19 +3088,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3101,19 +3108,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3121,19 +3128,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3141,19 +3148,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3161,19 +3168,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3181,19 +3188,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -3201,19 +3208,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3221,19 +3228,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -29228,6 +29235,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.63"/>
+    <col customWidth="1" min="4" max="4" width="15.5"/>
+    <col customWidth="1" min="5" max="5" width="18.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29240,162 +29249,253 @@
       <c r="C1" s="25" t="s">
         <v>120</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" s="26">
         <v>3.7</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B5" s="26">
         <v>3.6</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" s="27">
         <v>13.6</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" s="26">
         <v>8.2</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" s="26">
         <v>12.0</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" s="26">
         <v>8.2</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$E$998"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -24,13 +24,13 @@
     <sheet state="visible" name="dissertations" sheetId="19" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">teaching!$A$1:$K$1004</definedName>
+    <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">publication_metrics!$A$1:$E$998</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$28</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$J$28</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">reviews!$A$1:$C$1001</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="342">
   <si>
     <t>what</t>
   </si>
@@ -255,9 +255,6 @@
     <t>cfu</t>
   </si>
   <si>
-    <t>materials_type</t>
-  </si>
-  <si>
     <t>materials</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>Lecturer (titolare di modulo) for the Master's degree in Developmental and Educational Psychology, University of Padova</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
     <t>https://github.com/stat-teaching/SMDA-2023</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
   </si>
   <si>
     <t>Lecture during the course "General Psychology" (Prof. Roberto Dell'Acqua), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
-  </si>
-  <si>
-    <t>slides</t>
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1PdIhW8IfYUBBRST6MeLIUuLYAIC804Wt8sSdJKn2ZIg/edit?usp=sharing</t>
@@ -539,9 +530,6 @@
     <t>conference</t>
   </si>
   <si>
-    <t>type_material</t>
-  </si>
-  <si>
     <t>link_materials</t>
   </si>
   <si>
@@ -599,9 +587,6 @@
     <t>Towards Advanced Scientific Knowledge (TASK4)</t>
   </si>
   <si>
-    <t>Slides</t>
-  </si>
-  <si>
     <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
   </si>
   <si>
@@ -711,9 +696,6 @@
   </si>
   <si>
     <t>Invited workshop (3 hours) on introduction to meta-analysis using Monte Carlo simulations.</t>
-  </si>
-  <si>
-    <t>Material</t>
   </si>
   <si>
     <t>https://stat-teaching.github.io/metasimulation/</t>
@@ -1212,7 +1194,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1268,7 +1250,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1281,9 +1262,6 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1292,6 +1270,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1632,20 +1613,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="24"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="5">
       <c r="A5" s="17"/>
@@ -1679,7 +1660,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1688,44 +1669,44 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -1759,36 +1740,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -1798,7 +1779,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$2"/>
@@ -1826,7 +1807,8 @@
     <col customWidth="1" min="4" max="4" width="71.38"/>
     <col customWidth="1" min="5" max="5" width="15.13"/>
     <col customWidth="1" min="8" max="8" width="67.88"/>
-    <col customWidth="1" min="9" max="10" width="87.75"/>
+    <col customWidth="1" min="9" max="9" width="87.75"/>
+    <col customWidth="1" min="10" max="10" width="64.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1834,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1855,30 +1837,27 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1889,19 +1868,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1912,19 +1891,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1935,19 +1914,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1955,28 +1934,25 @@
       <c r="G5" s="1">
         <v>3.0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>179</v>
+      <c r="I5" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1984,31 +1960,28 @@
       <c r="G6" s="1">
         <v>6.0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -2016,31 +1989,28 @@
       <c r="G7" s="1">
         <v>7.0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>187</v>
+      <c r="I7" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -2051,19 +2021,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -2071,28 +2041,25 @@
       <c r="G9" s="1">
         <v>10.0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>195</v>
+      <c r="I9" s="22" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -2103,19 +2070,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -2126,19 +2093,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -2149,19 +2116,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -2172,19 +2139,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2192,28 +2159,25 @@
       <c r="G14" s="1">
         <v>1.0</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>208</v>
+      <c r="I14" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2224,19 +2188,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2245,30 +2209,27 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2277,28 +2238,25 @@
         <v>3.0</v>
       </c>
       <c r="H17" s="17"/>
-      <c r="I17" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>221</v>
+      <c r="I17" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2309,19 +2267,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2332,19 +2290,19 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2352,28 +2310,25 @@
       <c r="G20" s="1">
         <v>9.0</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>234</v>
+      <c r="I20" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2381,28 +2336,25 @@
       <c r="G21" s="1">
         <v>9.0</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>239</v>
+      <c r="I21" s="20" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2413,19 +2365,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2436,19 +2388,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2459,19 +2411,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2482,19 +2434,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2505,19 +2457,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F27" s="1">
         <v>2025.0</v>
@@ -2526,24 +2478,24 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F28" s="1">
         <v>2025.0</v>
@@ -2552,12 +2504,12 @@
         <v>2.0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$28">
-    <sortState ref="A1:K28">
+  <autoFilter ref="$A$1:$J$28">
+    <sortState ref="A1:J28">
       <sortCondition ref="F1:F28"/>
     </sortState>
   </autoFilter>
@@ -2567,17 +2519,17 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="1" ref="J5"/>
-    <hyperlink r:id="rId2" location="1" ref="J6"/>
-    <hyperlink r:id="rId3" ref="K6"/>
-    <hyperlink r:id="rId4" location="1" ref="J7"/>
-    <hyperlink r:id="rId5" ref="K7"/>
-    <hyperlink r:id="rId6" location="slide=id.p" ref="J9"/>
-    <hyperlink r:id="rId7" ref="J14"/>
-    <hyperlink r:id="rId8" ref="J16"/>
-    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="J17"/>
-    <hyperlink r:id="rId10" ref="J20"/>
-    <hyperlink r:id="rId11" ref="J21"/>
+    <hyperlink r:id="rId1" location="1" ref="I5"/>
+    <hyperlink r:id="rId2" location="1" ref="I6"/>
+    <hyperlink r:id="rId3" ref="J6"/>
+    <hyperlink r:id="rId4" location="1" ref="I7"/>
+    <hyperlink r:id="rId5" ref="J7"/>
+    <hyperlink r:id="rId6" location="slide=id.p" ref="I9"/>
+    <hyperlink r:id="rId7" ref="I14"/>
+    <hyperlink r:id="rId8" ref="I16"/>
+    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="I17"/>
+    <hyperlink r:id="rId10" ref="I20"/>
+    <hyperlink r:id="rId11" ref="I21"/>
   </hyperlinks>
   <drawing r:id="rId12"/>
 </worksheet>
@@ -2599,10 +2551,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2610,10 +2562,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2621,10 +2573,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -2632,21 +2584,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -2677,10 +2629,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
@@ -2688,7 +2640,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2699,7 +2651,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -2710,7 +2662,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -2753,66 +2705,66 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>287</v>
+        <v>70</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2856,32 +2808,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -2910,10 +2862,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2924,86 +2876,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3028,39 +2980,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3068,19 +3020,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>320</v>
+        <v>313</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3088,19 +3040,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>322</v>
+        <v>315</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3108,19 +3060,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>325</v>
+        <v>318</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3128,19 +3080,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>330</v>
+        <v>323</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>324</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3148,19 +3100,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3168,19 +3120,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3188,19 +3140,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>340</v>
+        <v>333</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>334</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -3208,19 +3160,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3228,19 +3180,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -21582,8 +21534,7 @@
     <col customWidth="1" min="2" max="2" width="25.88"/>
     <col customWidth="1" min="7" max="8" width="11.75"/>
     <col customWidth="1" min="9" max="9" width="186.38"/>
-    <col customWidth="1" min="10" max="10" width="22.63"/>
-    <col customWidth="1" min="11" max="11" width="101.0"/>
+    <col customWidth="1" min="10" max="10" width="101.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21617,22 +21568,19 @@
       <c r="J1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="10">
         <v>45231.0</v>
@@ -21645,23 +21593,22 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="10">
         <v>45170.0</v>
@@ -21674,23 +21621,22 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="10">
         <v>45017.0</v>
@@ -21705,27 +21651,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="10">
         <v>44986.0</v>
@@ -21738,27 +21681,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="18">
         <v>44986.0</v>
@@ -21771,24 +21711,23 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="19"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="20">
+        <v>87</v>
+      </c>
+      <c r="E7" s="19">
         <v>44866.0</v>
       </c>
       <c r="F7" s="1">
@@ -21799,48 +21738,45 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="18">
         <v>44621.0</v>
@@ -21853,22 +21789,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="19"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E9" s="18">
         <v>44805.0</v>
@@ -21881,24 +21816,23 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="19"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>44470.0</v>
       </c>
       <c r="F10" s="1">
@@ -21909,24 +21843,21 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -21942,24 +21873,21 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -21975,27 +21903,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="23" t="s">
-        <v>99</v>
+      <c r="J12" s="22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -22006,29 +21931,26 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>45352.0</v>
       </c>
       <c r="F14" s="1">
@@ -22039,50 +21961,47 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>45474.0</v>
       </c>
       <c r="F15" s="1">
@@ -22093,24 +22012,23 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="19"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="20">
+        <v>104</v>
+      </c>
+      <c r="E16" s="19">
         <v>45689.0</v>
       </c>
       <c r="F16" s="1">
@@ -22123,24 +22041,23 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="19"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="20">
+        <v>104</v>
+      </c>
+      <c r="E17" s="19">
         <v>45717.0</v>
       </c>
       <c r="F17" s="1">
@@ -22153,24 +22070,23 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="19"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="20">
+        <v>104</v>
+      </c>
+      <c r="E18" s="19">
         <v>45718.0</v>
       </c>
       <c r="F18" s="1">
@@ -22183,9 +22099,8 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="19">
       <c r="C19" s="6"/>
@@ -29090,25 +29005,20 @@
       <c r="I1004" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$1004">
-    <sortState ref="A1:K1004">
+  <autoFilter ref="$A$1:$J$1004">
+    <sortState ref="A1:J1004">
       <sortCondition descending="1" ref="D1:D1004"/>
     </sortState>
   </autoFilter>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J18">
-      <formula1>"website,slides"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K4"/>
-    <hyperlink r:id="rId2" ref="K5"/>
-    <hyperlink r:id="rId3" ref="K7"/>
-    <hyperlink r:id="rId4" ref="K10"/>
-    <hyperlink r:id="rId5" ref="K11"/>
-    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="K12"/>
-    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="K13"/>
-    <hyperlink r:id="rId8" ref="K14"/>
+    <hyperlink r:id="rId1" ref="J4"/>
+    <hyperlink r:id="rId2" ref="J5"/>
+    <hyperlink r:id="rId3" ref="J7"/>
+    <hyperlink r:id="rId4" ref="J10"/>
+    <hyperlink r:id="rId5" ref="J11"/>
+    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="J12"/>
+    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="J13"/>
+    <hyperlink r:id="rId8" ref="J14"/>
   </hyperlinks>
   <drawing r:id="rId9"/>
 </worksheet>
@@ -29142,35 +29052,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="11">
         <v>2024.0</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>113</v>
+      <c r="C2" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="11">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="11">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -29186,27 +29096,27 @@
     </row>
     <row r="8">
       <c r="A8" s="7"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
     </row>
     <row r="9">
       <c r="A9" s="17"/>
@@ -29240,31 +29150,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="E1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
@@ -29275,13 +29185,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
@@ -29292,13 +29202,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="26">
+        <v>124</v>
+      </c>
+      <c r="B4" s="24">
         <v>3.7</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>126</v>
+      <c r="C4" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D4" s="1">
         <v>0.0</v>
@@ -29309,13 +29219,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="26">
+        <v>125</v>
+      </c>
+      <c r="B5" s="24">
         <v>3.6</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>126</v>
+      <c r="C5" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D5" s="1">
         <v>0.0</v>
@@ -29326,13 +29236,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="27">
+        <v>126</v>
+      </c>
+      <c r="B6" s="25">
         <v>13.6</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>126</v>
+      <c r="C6" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -29343,13 +29253,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="26">
+        <v>127</v>
+      </c>
+      <c r="B7" s="24">
         <v>8.2</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>126</v>
+      <c r="C7" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
@@ -29360,13 +29270,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="26">
+        <v>128</v>
+      </c>
+      <c r="B8" s="24">
         <v>12.0</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>126</v>
+      <c r="C8" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -29377,13 +29287,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -29394,13 +29304,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -29411,13 +29321,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1">
         <v>0.0</v>
@@ -29428,13 +29338,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="26">
+        <v>133</v>
+      </c>
+      <c r="B12" s="24">
         <v>8.2</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>126</v>
+      <c r="C12" s="25" t="s">
+        <v>123</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
@@ -29445,13 +29355,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1">
         <v>0.0</v>
@@ -29462,13 +29372,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1">
         <v>0.0</v>
@@ -29479,13 +29389,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1">
         <v>1.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="343">
   <si>
     <t>what</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1hRqtLqWsM4qi7SeMOmPYG1HsRrcnDrTzhluVk-neSB8/edit#slide=id.g7375f48dcf_2_0</t>
+  </si>
+  <si>
+    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
   </si>
   <si>
     <t>Replicability crisis in science?</t>
@@ -1613,13 +1616,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1660,7 +1663,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1669,44 +1672,44 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
@@ -1740,36 +1743,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -1816,13 +1819,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1837,27 +1840,27 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1868,19 +1871,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1891,19 +1894,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1914,19 +1917,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1935,24 +1938,24 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1961,27 +1964,27 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1990,27 +1993,27 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -2021,19 +2024,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -2042,24 +2045,24 @@
         <v>10.0</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -2070,19 +2073,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -2093,19 +2096,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -2116,19 +2119,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -2139,19 +2142,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2160,24 +2163,24 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2188,19 +2191,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2209,27 +2212,27 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2239,24 +2242,24 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2267,19 +2270,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2290,19 +2293,19 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2311,24 +2314,24 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2337,24 +2340,24 @@
         <v>9.0</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2365,19 +2368,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2388,19 +2391,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2411,19 +2414,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2434,19 +2437,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2457,19 +2460,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F27" s="1">
         <v>2025.0</v>
@@ -2478,24 +2481,24 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F28" s="1">
         <v>2025.0</v>
@@ -2504,7 +2507,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +2554,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2562,10 +2565,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2573,10 +2576,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -2584,21 +2587,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -2629,10 +2632,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
@@ -2640,7 +2643,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2651,7 +2654,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -2662,7 +2665,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -2705,57 +2708,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -2764,7 +2767,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2811,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>70</v>
@@ -2818,12 +2821,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>70</v>
@@ -2833,7 +2836,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -2862,10 +2865,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2876,86 +2879,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2980,39 +2983,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3020,19 +3023,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3040,19 +3043,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3060,19 +3063,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3080,19 +3083,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3100,19 +3103,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3120,19 +3123,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3140,19 +3143,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -3160,19 +3163,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3180,19 +3183,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -21961,7 +21964,7 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>83</v>
@@ -21990,7 +21993,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>70</v>
@@ -22012,12 +22015,12 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>70</v>
@@ -22026,7 +22029,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16" s="19">
         <v>45689.0</v>
@@ -22041,12 +22044,12 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -22055,7 +22058,7 @@
         <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17" s="19">
         <v>45717.0</v>
@@ -22070,12 +22073,12 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>70</v>
@@ -22084,7 +22087,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" s="19">
         <v>45718.0</v>
@@ -22099,7 +22102,7 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -29052,35 +29055,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="11">
         <v>2024.0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="11">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="11">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5">
@@ -29151,30 +29154,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
@@ -29185,13 +29188,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
@@ -29202,13 +29205,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" s="24">
         <v>3.7</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1">
         <v>0.0</v>
@@ -29219,13 +29222,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="24">
         <v>3.6</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1">
         <v>0.0</v>
@@ -29236,13 +29239,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="25">
         <v>13.6</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -29253,13 +29256,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="24">
         <v>8.2</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
@@ -29270,13 +29273,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" s="24">
         <v>12.0</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -29287,13 +29290,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -29304,13 +29307,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -29321,13 +29324,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1">
         <v>0.0</v>
@@ -29338,13 +29341,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" s="24">
         <v>8.2</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
@@ -29355,13 +29358,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1">
         <v>0.0</v>
@@ -29372,13 +29375,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="1">
         <v>0.0</v>
@@ -29389,13 +29392,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1">
         <v>1.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -321,6 +321,9 @@
     <t>Lectures about R programming and data analysis of the course "Psychological Testing" (Prof. Gianmarco Altoè), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
   </si>
   <si>
+    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
+  </si>
+  <si>
     <t>Introduction to Visual Consciousness [M-PSI/01]</t>
   </si>
   <si>
@@ -352,9 +355,6 @@
   </si>
   <si>
     <t>https://docs.google.com/presentation/d/1hRqtLqWsM4qi7SeMOmPYG1HsRrcnDrTzhluVk-neSB8/edit#slide=id.g7375f48dcf_2_0</t>
-  </si>
-  <si>
-    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
   </si>
   <si>
     <t>Replicability crisis in science?</t>
@@ -21846,7 +21846,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>83</v>
@@ -21854,13 +21854,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -21876,21 +21876,21 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -21906,24 +21906,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21934,10 +21934,10 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -21964,7 +21964,7 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>83</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -297,7 +297,7 @@
     <t>seminars</t>
   </si>
   <si>
-    <t>Intensive course about programming in R as part of the [ARCA](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
+    <t>Intensive course about programming in R as part of the [ARCA] (https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
   </si>
   <si>
     <t>https://github.com/filippogambarota/corsoR</t>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="342">
   <si>
     <t>what</t>
   </si>
@@ -297,7 +297,7 @@
     <t>seminars</t>
   </si>
   <si>
-    <t>Intensive course about programming in R as part of the [ARCA] (https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
+    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
   </si>
   <si>
     <t>https://github.com/filippogambarota/corsoR</t>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>Lectures about R programming and data analysis of the course "Psychological Testing" (Prof. Gianmarco Altoè), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
-  </si>
-  <si>
-    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
   </si>
   <si>
     <t>Introduction to Visual Consciousness [M-PSI/01]</t>
@@ -1616,13 +1613,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1663,7 +1660,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1672,44 +1669,44 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4">
@@ -1743,36 +1740,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -1819,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1840,27 +1837,27 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1871,19 +1868,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1894,19 +1891,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1917,19 +1914,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1938,24 +1935,24 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1964,27 +1961,27 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1993,27 +1990,27 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -2024,19 +2021,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -2045,24 +2042,24 @@
         <v>10.0</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -2073,19 +2070,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -2096,19 +2093,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -2119,19 +2116,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -2142,19 +2139,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2163,24 +2160,24 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2191,19 +2188,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2212,27 +2209,27 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>211</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2242,24 +2239,24 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2270,19 +2267,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2293,19 +2290,19 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2314,24 +2311,24 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2340,24 +2337,24 @@
         <v>9.0</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2368,19 +2365,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2391,19 +2388,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2414,19 +2411,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2437,19 +2434,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2460,19 +2457,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" s="1">
         <v>2025.0</v>
@@ -2481,24 +2478,24 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F28" s="1">
         <v>2025.0</v>
@@ -2507,7 +2504,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2554,10 +2551,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2565,10 +2562,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2576,10 +2573,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -2587,21 +2584,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -2632,10 +2629,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
@@ -2643,7 +2640,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2654,7 +2651,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -2665,7 +2662,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -2708,57 +2705,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -2767,7 +2764,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2808,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>70</v>
@@ -2821,12 +2818,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>70</v>
@@ -2836,7 +2833,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -2865,10 +2862,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2879,86 +2876,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2983,39 +2980,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3023,19 +3020,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>315</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3043,19 +3040,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3063,19 +3060,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3083,19 +3080,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="C6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3103,19 +3100,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3123,19 +3120,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3143,19 +3140,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -3163,19 +3160,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3183,19 +3180,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -21533,7 +21530,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.25"/>
+    <col customWidth="1" min="1" max="1" width="70.13"/>
     <col customWidth="1" min="2" max="2" width="25.88"/>
     <col customWidth="1" min="7" max="8" width="11.75"/>
     <col customWidth="1" min="9" max="9" width="186.38"/>
@@ -21846,7 +21843,7 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>83</v>
@@ -21854,13 +21851,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -21876,21 +21873,21 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -21906,24 +21903,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -21934,10 +21931,10 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -21964,7 +21961,7 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>83</v>
@@ -21993,7 +21990,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>70</v>
@@ -22015,12 +22012,12 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>70</v>
@@ -22029,7 +22026,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="19">
         <v>45689.0</v>
@@ -22044,12 +22041,12 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -22058,7 +22055,7 @@
         <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="19">
         <v>45717.0</v>
@@ -22073,12 +22070,12 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>70</v>
@@ -22087,7 +22084,7 @@
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="19">
         <v>45718.0</v>
@@ -22102,7 +22099,7 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -29055,35 +29052,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="11">
         <v>2024.0</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="11">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="11">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -29154,30 +29151,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1">
         <v>2.6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="1">
         <v>0.0</v>
@@ -29188,13 +29185,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>6.6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1">
         <v>0.0</v>
@@ -29205,13 +29202,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="24">
         <v>3.7</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1">
         <v>0.0</v>
@@ -29222,13 +29219,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="24">
         <v>3.6</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1">
         <v>0.0</v>
@@ -29239,13 +29236,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="25">
         <v>13.6</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1">
         <v>1.0</v>
@@ -29256,13 +29253,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="24">
         <v>8.2</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
@@ -29273,13 +29270,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="24">
         <v>12.0</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -29290,13 +29287,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1">
         <v>4.2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -29307,13 +29304,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -29324,13 +29321,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1">
         <v>3.8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1">
         <v>0.0</v>
@@ -29341,13 +29338,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="24">
         <v>8.2</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
@@ -29358,13 +29355,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="1">
         <v>4.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1">
         <v>0.0</v>
@@ -29375,13 +29372,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1">
         <v>3.8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1">
         <v>0.0</v>
@@ -29392,13 +29389,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1">
         <v>2.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="1">
         <v>1.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">publication_metrics!$A$1:$E$998</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">publication_metrics!$A$1:$F$998</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">under_review!$A$1:$D$2</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$E$2</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="353">
   <si>
     <t>what</t>
   </si>
@@ -413,6 +413,9 @@
     <t>key</t>
   </si>
   <si>
+    <t>Journal</t>
+  </si>
+  <si>
     <t>IF</t>
   </si>
   <si>
@@ -428,48 +431,78 @@
     <t>Toffalini2024-vp</t>
   </si>
   <si>
+    <t>International journal of psychology</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Di-Rosa2024-ol</t>
+  </si>
+  <si>
+    <t>Journal of affective disorders</t>
+  </si>
+  <si>
+    <t>Del-Popolo-Cristaldi2024-dh</t>
+  </si>
+  <si>
+    <t>PloS one</t>
+  </si>
+  <si>
+    <t>Maffei2024-qw</t>
+  </si>
+  <si>
+    <t>Cortex</t>
+  </si>
+  <si>
+    <t>Gambarota2024-lp</t>
+  </si>
+  <si>
+    <t>Advances in methods and practices in psychological science</t>
+  </si>
+  <si>
+    <t>Pezzetta2024-uh</t>
+  </si>
+  <si>
+    <t>Neuroscience and biobehavioral reviews</t>
+  </si>
+  <si>
+    <t>Montuori2023-ax</t>
+  </si>
+  <si>
+    <t>Computers &amp; education</t>
+  </si>
+  <si>
+    <t>Del-Popolo-Cristaldi2023-rp</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>Quettier2023-yx</t>
+  </si>
+  <si>
+    <t>Frontiers in systems neuroscience</t>
+  </si>
+  <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>Di-Rosa2024-ol</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Del-Popolo-Cristaldi2024-dh</t>
-  </si>
-  <si>
-    <t>Maffei2024-qw</t>
-  </si>
-  <si>
-    <t>Gambarota2024-lp</t>
-  </si>
-  <si>
-    <t>Pezzetta2024-uh</t>
-  </si>
-  <si>
-    <t>Montuori2023-ax</t>
-  </si>
-  <si>
-    <t>Del-Popolo-Cristaldi2023-rp</t>
-  </si>
-  <si>
-    <t>Quettier2023-yx</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
     <t>Verroca2022-hn</t>
   </si>
   <si>
+    <t>Frontiers in psychology</t>
+  </si>
+  <si>
     <t>Gambarota2022-kr</t>
   </si>
   <si>
     <t>Quettier2021-bj</t>
   </si>
   <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
     <t>Gambarota2019-jb</t>
   </si>
   <si>
@@ -587,7 +620,7 @@
     <t>Towards Advanced Scientific Knowledge (TASK4)</t>
   </si>
   <si>
-    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_task4/trackdown_task4.html#1</t>
   </si>
   <si>
     <t>trackdown - An R package for collaborative writing and editing</t>
@@ -596,10 +629,10 @@
     <t>Society for the Improvement of Psychological Science (SIPS)</t>
   </si>
   <si>
-    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_sips/trackdown_sips.html#1</t>
-  </si>
-  <si>
-    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_sips/talk_sips.mp4</t>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/trackdown_sips.html#1</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_sips/talk_sips.mp4</t>
   </si>
   <si>
     <t>trackdown - A simple framework for collaboration in a literate programming workflow</t>
@@ -608,10 +641,10 @@
     <t>useR</t>
   </si>
   <si>
-    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_useR/trackdown_user.html#1</t>
-  </si>
-  <si>
-    <t>https://filippoGambarota, F..github.io/slides/trackdown/trackdown_useR/talk_user.mp4</t>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/trackdown_user.html#1</t>
+  </si>
+  <si>
+    <t>https://filippogambarota.github.io/slides/trackdown/trackdown_useR/talk_user.mp4</t>
   </si>
   <si>
     <t>The role of previous probabilistic learning on the subjective affective experience</t>
@@ -749,7 +782,7 @@
     <t>Noto, Italy</t>
   </si>
   <si>
-    <t>https://filippoGambarota, F..github.io/aip-2024-multiverse-multilab-symposium/</t>
+    <t>https://filippogambarota.github.io/aip-2024-multiverse-multilab-symposium/</t>
   </si>
   <si>
     <t>Are most interactions false? The importance of the appropriate distribution and link function with non-normal data</t>
@@ -764,7 +797,7 @@
     <t>Cagliari, Italy</t>
   </si>
   <si>
-    <t>https://filippoGambarota, F..github.io/files/slides/2024-aip-sviluppo.pdf</t>
+    <t>https://filippogambarota.github.io/files/slides/2024-aip-sviluppo.pdf</t>
   </si>
   <si>
     <t>Critical effect size values and why to report them</t>
@@ -1143,14 +1176,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1194,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1264,6 +1299,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -1613,20 +1654,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" s="26"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="5">
       <c r="A5" s="17"/>
@@ -1660,7 +1701,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -1669,44 +1710,44 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
@@ -1740,13 +1781,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1757,19 +1798,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -1779,7 +1820,7 @@
       <c r="A7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$2"/>
@@ -1816,13 +1857,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1837,27 +1878,27 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1">
         <v>2019.0</v>
@@ -1868,19 +1909,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F3" s="1">
         <v>2020.0</v>
@@ -1891,19 +1932,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F4" s="1">
         <v>2021.0</v>
@@ -1914,19 +1955,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1">
         <v>2021.0</v>
@@ -1935,24 +1976,24 @@
         <v>3.0</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F6" s="1">
         <v>2021.0</v>
@@ -1961,27 +2002,27 @@
         <v>6.0</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F7" s="1">
         <v>2021.0</v>
@@ -1990,27 +2031,27 @@
         <v>7.0</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F8" s="1">
         <v>2021.0</v>
@@ -2021,19 +2062,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F9" s="1">
         <v>2022.0</v>
@@ -2042,24 +2083,24 @@
         <v>10.0</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F10" s="1">
         <v>2022.0</v>
@@ -2070,19 +2111,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F11" s="1">
         <v>2022.0</v>
@@ -2093,19 +2134,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1">
         <v>2022.0</v>
@@ -2116,19 +2157,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F13" s="1">
         <v>2022.0</v>
@@ -2139,19 +2180,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1">
         <v>2023.0</v>
@@ -2160,24 +2201,24 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1">
         <v>2023.0</v>
@@ -2188,19 +2229,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F16" s="1">
         <v>2024.0</v>
@@ -2209,27 +2250,27 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F17" s="1">
         <v>2024.0</v>
@@ -2239,24 +2280,24 @@
       </c>
       <c r="H17" s="17"/>
       <c r="I17" s="22" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F18" s="1">
         <v>2024.0</v>
@@ -2267,19 +2308,19 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F19" s="1">
         <v>2024.0</v>
@@ -2290,19 +2331,19 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F20" s="1">
         <v>2024.0</v>
@@ -2311,24 +2352,24 @@
         <v>9.0</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F21" s="1">
         <v>2024.0</v>
@@ -2337,24 +2378,24 @@
         <v>9.0</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F22" s="1">
         <v>2024.0</v>
@@ -2365,19 +2406,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F23" s="1">
         <v>2024.0</v>
@@ -2388,19 +2429,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F24" s="1">
         <v>2024.0</v>
@@ -2411,19 +2452,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F25" s="1">
         <v>2024.0</v>
@@ -2434,19 +2475,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F26" s="1">
         <v>2024.0</v>
@@ -2457,19 +2498,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F27" s="1">
         <v>2025.0</v>
@@ -2478,24 +2519,24 @@
         <v>2.0</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F28" s="1">
         <v>2025.0</v>
@@ -2504,7 +2545,7 @@
         <v>2.0</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +2592,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2562,10 +2603,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -2573,10 +2614,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
@@ -2584,21 +2625,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -2629,10 +2670,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
@@ -2640,7 +2681,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2651,7 +2692,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -2662,7 +2703,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -2705,57 +2746,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -2763,8 +2804,8 @@
       <c r="C4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>281</v>
+      <c r="D4" s="30" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2808,7 +2849,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>70</v>
@@ -2818,12 +2859,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>70</v>
@@ -2833,7 +2874,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
@@ -2862,10 +2903,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -2876,86 +2917,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2980,39 +3021,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3020,19 +3061,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>314</v>
+        <v>324</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3040,19 +3081,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>316</v>
+        <v>326</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3060,19 +3101,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3080,19 +3121,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>324</v>
+        <v>334</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>335</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3100,19 +3141,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>315</v>
+        <v>338</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3120,19 +3161,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3140,19 +3181,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>334</v>
+        <v>344</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>345</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -3160,19 +3201,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3180,19 +3221,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -29145,267 +29186,313 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.63"/>
-    <col customWidth="1" min="4" max="4" width="15.5"/>
-    <col customWidth="1" min="5" max="5" width="18.5"/>
+    <col customWidth="1" min="2" max="2" width="45.63"/>
+    <col customWidth="1" min="5" max="5" width="15.5"/>
+    <col customWidth="1" min="6" max="6" width="18.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>116</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="25" t="s">
         <v>119</v>
       </c>
+      <c r="F1" s="25" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="25">
+        <v>4.9</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2.9</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="27">
+        <v>15.6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="26">
+        <v>7.6</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="26">
+        <v>8.9</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="25">
         <v>2.6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="25">
         <v>0.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F11" s="25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="26">
+        <v>7.6</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="25">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="13">
+      <c r="A13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2.6</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C15" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E15" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="25">
         <v>0.0</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="24">
-        <v>3.7</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="24">
-        <v>3.6</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="25">
-        <v>13.6</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="24">
-        <v>8.2</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="24">
-        <v>8.2</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4.6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$998"/>
+  <autoFilter ref="$A$1:$F$998"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3286,7 +3286,7 @@
         <v>14.0</v>
       </c>
       <c r="E2" s="2">
-        <v>45621.0</v>
+        <v>45630.0</v>
       </c>
     </row>
     <row r="3">
@@ -3303,7 +3303,7 @@
         <v>14.0</v>
       </c>
       <c r="E3" s="2">
-        <v>45621.0</v>
+        <v>45630.0</v>
       </c>
     </row>
     <row r="4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,7 +11,7 @@
     <sheet state="visible" name="training" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="teaching" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="awards" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="publication_metrics" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="publications" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="accepted_publications" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="preprint" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="conferences" sheetId="12" r:id="rId15"/>
@@ -19,13 +19,14 @@
     <sheet state="visible" name="reviews" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="terza_missione" sheetId="15" r:id="rId18"/>
     <sheet state="visible" name="other_academic" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="collaborations" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="dissertations" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="software" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="collaborations" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="dissertations" sheetId="19" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="6" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
-    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">publication_metrics!$A$1:$F$998</definedName>
+    <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">publications!$A$1:$H$15</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">preprint!$A$1:$G$6</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">conferences!$A$1:$K$29</definedName>
@@ -33,15 +34,15 @@
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">reviews!$A$1:$C$1001</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
-    <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">collaborations!$A$1:$D$1000</definedName>
-    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
+    <definedName hidden="1" localSheetId="17" name="_xlnm._FilterDatabase">collaborations!$A$1:$D$1000</definedName>
+    <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="407">
   <si>
     <t>what</t>
   </si>
@@ -286,6 +287,9 @@
     <t>I held the Generalized Linear Models course (Part A and B) within the PhD program in Psychological Sciences, University of Padova</t>
   </si>
   <si>
+    <t>https://github.com/stat-teaching/GLMphd</t>
+  </si>
+  <si>
     <t>Replicability Crisis in Science?</t>
   </si>
   <si>
@@ -295,6 +299,9 @@
     <t>I held a series of workshops about statistical methods to assess replicability during the summer school [Replicability Crisis in Science?](https://replicability.stat.unipd.it/) organized at the Department of Statistical Sciences (University of Padova)</t>
   </si>
   <si>
+    <t>https://github.com/replicability-stat-unipd/replicability-summer-school-2023</t>
+  </si>
+  <si>
     <t>Statistical Methods and Data Analysis in Developmental Psychology [PSIC-01/C ex M-PSI/03]</t>
   </si>
   <si>
@@ -386,9 +393,6 @@
   </si>
   <si>
     <t>Professor for the course within the PhD program in Psychological Sciences, University of Padova</t>
-  </si>
-  <si>
-    <t>Generalized Linear Models [planned]</t>
   </si>
   <si>
     <t>Statistical and Clinical Significance [italian]</t>
@@ -447,6 +451,9 @@
     <t>Equal Contribution</t>
   </si>
   <si>
+    <t>osf</t>
+  </si>
+  <si>
     <t>Toffalini2024-vp</t>
   </si>
   <si>
@@ -456,48 +463,84 @@
     <t>Q1</t>
   </si>
   <si>
+    <t>https://github.com/psicostat/clustersimulation</t>
+  </si>
+  <si>
     <t>Di-Rosa2024-ol</t>
   </si>
   <si>
     <t>Journal of affective disorders</t>
   </si>
   <si>
+    <t>https://osf.io/q962b/</t>
+  </si>
+  <si>
     <t>Del-Popolo-Cristaldi2024-dh</t>
   </si>
   <si>
     <t>PloS one</t>
   </si>
   <si>
+    <t>https://osf.io/gdr3b/</t>
+  </si>
+  <si>
+    <t>https://github.com/fiorelladelpopolocristaldi/ConEmo34</t>
+  </si>
+  <si>
     <t>Maffei2024-qw</t>
   </si>
   <si>
     <t>Cortex</t>
   </si>
   <si>
+    <t>https://osf.io/EV38Q/</t>
+  </si>
+  <si>
     <t>Gambarota2024-lp</t>
   </si>
   <si>
     <t>Advances in methods and practices in psychological science</t>
   </si>
   <si>
+    <t>https://osf.io/54djn/</t>
+  </si>
+  <si>
+    <t>https://github.com/shared-research/simulating-meta-analysis</t>
+  </si>
+  <si>
     <t>Pezzetta2024-uh</t>
   </si>
   <si>
     <t>Neuroscience and biobehavioral reviews</t>
   </si>
   <si>
+    <t>https://osf.io/a5tur/</t>
+  </si>
+  <si>
     <t>Montuori2023-ax</t>
   </si>
   <si>
     <t>Computers &amp; education</t>
   </si>
   <si>
+    <t>https://osf.io/uvbcd/</t>
+  </si>
+  <si>
+    <t>https://github.com/shared-research/meta-analysis-coding</t>
+  </si>
+  <si>
     <t>Del-Popolo-Cristaldi2023-rp</t>
   </si>
   <si>
     <t>Emotion</t>
   </si>
   <si>
+    <t>https://osf.io/ef9q7/</t>
+  </si>
+  <si>
+    <t>https://github.com/fiorelladelpopolocristaldi/ConEmo12</t>
+  </si>
+  <si>
     <t>Quettier2023-yx</t>
   </si>
   <si>
@@ -513,21 +556,42 @@
     <t>Frontiers in psychology</t>
   </si>
   <si>
+    <t>https://osf.io/e2kcw/</t>
+  </si>
+  <si>
+    <t>https://github.com/shared-research/face-mask-gew</t>
+  </si>
+  <si>
     <t>Gambarota2022-kr</t>
   </si>
   <si>
+    <t>https://osf.io/4bfnm/</t>
+  </si>
+  <si>
+    <t>https://github.com/filippogambarota/unconscious_wm_meta-analysis</t>
+  </si>
+  <si>
     <t>Quettier2021-bj</t>
   </si>
   <si>
     <t>Scientific Reports</t>
   </si>
   <si>
+    <t>https://osf.io/xk25b/</t>
+  </si>
+  <si>
     <t>Gambarota2019-jb</t>
   </si>
   <si>
     <t>Gambarota2024-cn</t>
   </si>
   <si>
+    <t>https://osf.io/93h5j/</t>
+  </si>
+  <si>
+    <t>https://github.com/shared-research/ordinalsim</t>
+  </si>
+  <si>
     <t>authors</t>
   </si>
   <si>
@@ -648,6 +712,9 @@
     <t>Bressanone, Italy</t>
   </si>
   <si>
+    <t>https://filippogambarota.github.io/vwm_moebius_csa/reporting/poster/VWM_Moebius_Poster.html</t>
+  </si>
+  <si>
     <t>Meta-analysis in Consciousness Research</t>
   </si>
   <si>
@@ -720,7 +787,7 @@
     <t>Padova, Italy</t>
   </si>
   <si>
-    <t>https://docs.google.com/presentation/d/1tl_iAEJQrMEUTUJe8jWasOXmTtK8Jn70JOETVQIj6u0/edit#slide=id.p</t>
+    <t>https://filippogambarota.github.io/slides/AIP-2022/AIP-2022.pdf</t>
   </si>
   <si>
     <t>Cross-modality effects in affective prediction construction: the role of past visual experience in subjective reactions to new affective pictures and sounds</t>
@@ -900,12 +967,18 @@
     <t>Invited talk at the International Winter School 4M, Department of General Psychology, University of Padova [https://winterschool4ms.dpg.unipd.it/](https://winterschool4ms.dpg.unipd.it/)</t>
   </si>
   <si>
+    <t>https://github.com/stat-teaching/open-science-starter-pack</t>
+  </si>
+  <si>
     <t>Music Ensemble: An Example of Multi-lab Investigating a Rare Population (Expert Musicians)</t>
   </si>
   <si>
     <t>Grassi, M., Gambarota, F.</t>
   </si>
   <si>
+    <t>https://psicostat.github.io/4ms-winter-school/</t>
+  </si>
+  <si>
     <t>Multiverse analysis in R: Exploratory and Inferential Approaches</t>
   </si>
   <si>
@@ -915,6 +988,9 @@
     <t>Invited workshop on multiverse analysis in R</t>
   </si>
   <si>
+    <t>https://github.com/psicostat/multiverseRworkshop</t>
+  </si>
+  <si>
     <t>society</t>
   </si>
   <si>
@@ -1021,6 +1097,27 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>trackdown</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>https://github.com/ClaudioZandonella/trackdown</t>
+  </si>
+  <si>
+    <t>criticalESvalue</t>
+  </si>
+  <si>
+    <t>https://github.com/psicostat/criticalESvalue</t>
+  </si>
+  <si>
+    <t>clustersimulation</t>
   </si>
   <si>
     <t>affiliation</t>
@@ -1439,6 +1536,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -1716,7 +1817,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -1725,44 +1826,44 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
@@ -1799,105 +1900,105 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="21" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1933,7 +2034,7 @@
     <col customWidth="1" min="4" max="4" width="14.63"/>
     <col customWidth="1" min="5" max="5" width="71.38"/>
     <col customWidth="1" min="6" max="6" width="15.13"/>
-    <col customWidth="1" min="9" max="9" width="67.88"/>
+    <col customWidth="1" min="9" max="9" width="136.13"/>
     <col customWidth="1" min="10" max="10" width="87.75"/>
     <col customWidth="1" min="11" max="11" width="64.13"/>
   </cols>
@@ -1943,16 +2044,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -1967,30 +2068,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2001,22 +2102,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2024,25 +2125,28 @@
       <c r="H3" s="1">
         <v>2.0</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2053,22 +2157,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2077,27 +2181,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2106,30 +2210,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2138,30 +2242,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2172,22 +2276,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2196,27 +2300,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2227,22 +2331,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2253,22 +2357,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2279,22 +2383,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2305,22 +2409,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2329,27 +2433,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -2360,22 +2464,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -2384,30 +2488,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -2417,27 +2521,27 @@
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="3" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -2448,22 +2552,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -2474,22 +2578,22 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -2498,27 +2602,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -2527,27 +2631,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -2558,22 +2662,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -2584,22 +2688,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -2610,22 +2714,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -2636,22 +2740,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -2662,22 +2766,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -2686,27 +2790,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>278</v>
+        <v>300</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -2715,27 +2822,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>278</v>
+        <v>300</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -2744,7 +2854,10 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>283</v>
+        <v>307</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2762,19 +2875,23 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="1" ref="J5"/>
-    <hyperlink r:id="rId2" location="1" ref="J6"/>
-    <hyperlink r:id="rId3" ref="K6"/>
-    <hyperlink r:id="rId4" location="1" ref="J7"/>
-    <hyperlink r:id="rId5" ref="K7"/>
-    <hyperlink r:id="rId6" location="slide=id.p" ref="J9"/>
-    <hyperlink r:id="rId7" ref="J14"/>
-    <hyperlink r:id="rId8" ref="J16"/>
-    <hyperlink r:id="rId9" location="slide=id.g2c0ea0b49a2_0_24" ref="J17"/>
-    <hyperlink r:id="rId10" ref="J20"/>
-    <hyperlink r:id="rId11" ref="J21"/>
+    <hyperlink r:id="rId1" ref="J3"/>
+    <hyperlink r:id="rId2" location="1" ref="J5"/>
+    <hyperlink r:id="rId3" location="1" ref="J6"/>
+    <hyperlink r:id="rId4" ref="K6"/>
+    <hyperlink r:id="rId5" location="1" ref="J7"/>
+    <hyperlink r:id="rId6" ref="K7"/>
+    <hyperlink r:id="rId7" ref="J9"/>
+    <hyperlink r:id="rId8" ref="J14"/>
+    <hyperlink r:id="rId9" ref="J16"/>
+    <hyperlink r:id="rId10" location="slide=id.g2c0ea0b49a2_0_24" ref="J17"/>
+    <hyperlink r:id="rId11" ref="J20"/>
+    <hyperlink r:id="rId12" ref="J21"/>
+    <hyperlink r:id="rId13" ref="J27"/>
+    <hyperlink r:id="rId14" ref="J28"/>
+    <hyperlink r:id="rId15" ref="J29"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2794,10 +2911,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -2805,10 +2922,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1">
         <v>2024.0</v>
@@ -2816,10 +2933,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -2827,21 +2944,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
@@ -2872,10 +2989,10 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
@@ -2883,7 +3000,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -2894,7 +3011,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -2905,7 +3022,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -2948,57 +3065,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3007,7 +3124,7 @@
         <v>75</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3051,7 +3168,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>75</v>
@@ -3061,12 +3178,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>75</v>
@@ -3076,21 +3193,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3109,6 +3226,77 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="13.38"/>
+    <col customWidth="1" min="3" max="3" width="36.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="C4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="15.88"/>
     <col customWidth="1" min="2" max="2" width="34.88"/>
     <col customWidth="1" min="4" max="4" width="69.5"/>
@@ -3116,10 +3304,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -3130,86 +3318,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3234,39 +3422,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3274,19 +3462,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3294,19 +3482,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3314,19 +3502,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -3334,19 +3522,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -3354,19 +3542,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -3374,19 +3562,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -3394,19 +3582,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -3414,19 +3602,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -3434,19 +3622,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -22864,17 +23052,19 @@
       <c r="I2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>77</v>
@@ -22890,13 +23080,15 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>75</v>
@@ -22920,21 +23112,21 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>77</v>
@@ -22950,21 +23142,21 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>77</v>
@@ -22980,21 +23172,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="20">
         <v>44866.0</v>
@@ -23007,10 +23199,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -23036,16 +23228,16 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E8" s="19">
         <v>44621.0</v>
@@ -23058,21 +23250,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E9" s="19">
         <v>44805.0</v>
@@ -23085,18 +23277,18 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>50</v>
@@ -23112,21 +23304,21 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>50</v>
@@ -23142,21 +23334,21 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>50</v>
@@ -23172,24 +23364,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -23200,21 +23392,21 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>56</v>
@@ -23230,10 +23422,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -23259,7 +23451,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>75</v>
@@ -23281,12 +23473,12 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>75</v>
@@ -23295,7 +23487,7 @@
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E16" s="20">
         <v>45689.0</v>
@@ -23310,12 +23502,12 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>75</v>
@@ -23324,7 +23516,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="20">
         <v>45717.0</v>
@@ -23339,12 +23531,12 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>75</v>
@@ -23353,7 +23545,7 @@
         <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E18" s="20">
         <v>45718.0</v>
@@ -23368,18 +23560,21 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>56</v>
@@ -23395,7 +23590,7 @@
         <v>1.0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -30301,16 +30496,19 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J4"/>
-    <hyperlink r:id="rId2" ref="J5"/>
-    <hyperlink r:id="rId3" ref="J7"/>
-    <hyperlink r:id="rId4" ref="J10"/>
-    <hyperlink r:id="rId5" ref="J11"/>
-    <hyperlink r:id="rId6" location="slide=id.gc96481fd19_0_343" ref="J12"/>
-    <hyperlink r:id="rId7" location="slide=id.g7375f48dcf_2_0" ref="J13"/>
-    <hyperlink r:id="rId8" ref="J14"/>
+    <hyperlink r:id="rId1" ref="J2"/>
+    <hyperlink r:id="rId2" ref="J3"/>
+    <hyperlink r:id="rId3" ref="J4"/>
+    <hyperlink r:id="rId4" ref="J5"/>
+    <hyperlink r:id="rId5" ref="J7"/>
+    <hyperlink r:id="rId6" ref="J10"/>
+    <hyperlink r:id="rId7" ref="J11"/>
+    <hyperlink r:id="rId8" location="slide=id.gc96481fd19_0_343" ref="J12"/>
+    <hyperlink r:id="rId9" location="slide=id.g7375f48dcf_2_0" ref="J13"/>
+    <hyperlink r:id="rId10" ref="J14"/>
+    <hyperlink r:id="rId11" ref="J18"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -30342,35 +30540,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="12">
         <v>2024.0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="12">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="12">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -30438,40 +30636,48 @@
     <col customWidth="1" min="2" max="2" width="45.63"/>
     <col customWidth="1" min="5" max="5" width="15.5"/>
     <col customWidth="1" min="6" max="6" width="18.5"/>
+    <col customWidth="1" min="7" max="7" width="16.25"/>
+    <col customWidth="1" min="8" max="8" width="51.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="25">
         <v>3.3</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" s="25">
         <v>0.0</v>
@@ -30479,19 +30685,23 @@
       <c r="F2" s="25">
         <v>0.0</v>
       </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C3" s="25">
         <v>4.9</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E3" s="25">
         <v>0.0</v>
@@ -30499,19 +30709,22 @@
       <c r="F3" s="25">
         <v>0.0</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C4" s="26">
         <v>2.9</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" s="25">
         <v>0.0</v>
@@ -30519,19 +30732,25 @@
       <c r="F4" s="25">
         <v>0.0</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C5" s="26">
         <v>3.3</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" s="25">
         <v>0.0</v>
@@ -30539,19 +30758,22 @@
       <c r="F5" s="25">
         <v>0.0</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C6" s="27">
         <v>15.6</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E6" s="25">
         <v>1.0</v>
@@ -30559,19 +30781,25 @@
       <c r="F6" s="25">
         <v>0.0</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="26">
         <v>7.6</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E7" s="25">
         <v>0.0</v>
@@ -30579,19 +30807,22 @@
       <c r="F7" s="25">
         <v>0.0</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C8" s="26">
         <v>8.9</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E8" s="25">
         <v>0.0</v>
@@ -30599,19 +30830,25 @@
       <c r="F8" s="25">
         <v>0.0</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C9" s="25">
         <v>3.4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" s="25">
         <v>0.0</v>
@@ -30619,19 +30856,25 @@
       <c r="F9" s="25">
         <v>0.0</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C10" s="25">
         <v>3.1</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E10" s="25">
         <v>0.0</v>
@@ -30642,16 +30885,16 @@
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C11" s="25">
         <v>2.6</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E11" s="25">
         <v>0.0</v>
@@ -30659,19 +30902,25 @@
       <c r="F11" s="25">
         <v>1.0</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C12" s="26">
         <v>7.6</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E12" s="25">
         <v>1.0</v>
@@ -30679,19 +30928,25 @@
       <c r="F12" s="25">
         <v>0.0</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C13" s="25">
         <v>3.8</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E13" s="25">
         <v>0.0</v>
@@ -30699,19 +30954,22 @@
       <c r="F13" s="25">
         <v>0.0</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C14" s="25">
         <v>2.6</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E14" s="25">
         <v>0.0</v>
@@ -30722,16 +30980,16 @@
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C15" s="25">
         <v>3.3</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" s="25">
         <v>1.0</v>
@@ -30739,9 +30997,36 @@
       <c r="F15" s="25">
         <v>0.0</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$998"/>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="$A$1:$H$15"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G4"/>
+    <hyperlink r:id="rId4" ref="H4"/>
+    <hyperlink r:id="rId5" ref="G5"/>
+    <hyperlink r:id="rId6" ref="G6"/>
+    <hyperlink r:id="rId7" ref="H6"/>
+    <hyperlink r:id="rId8" ref="G7"/>
+    <hyperlink r:id="rId9" ref="G8"/>
+    <hyperlink r:id="rId10" ref="H8"/>
+    <hyperlink r:id="rId11" ref="G9"/>
+    <hyperlink r:id="rId12" ref="H9"/>
+    <hyperlink r:id="rId13" ref="G11"/>
+    <hyperlink r:id="rId14" ref="H11"/>
+    <hyperlink r:id="rId15" ref="G12"/>
+    <hyperlink r:id="rId16" ref="H12"/>
+    <hyperlink r:id="rId17" ref="G13"/>
+    <hyperlink r:id="rId18" ref="G15"/>
+    <hyperlink r:id="rId19" ref="H15"/>
+  </hyperlinks>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -221,7 +221,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1 month, November-ongoing</t>
+    <t>1 month, November-December</t>
   </si>
   <si>
     <t>Research project about replicability in Psychology and Biomedical sciences. Supervisor: Professor Giovanni Parmigiani</t>
@@ -15882,7 +15882,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="44.88"/>
     <col customWidth="1" min="2" max="2" width="43.13"/>
-    <col customWidth="1" min="5" max="6" width="8.13"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
+    <col customWidth="1" min="6" max="6" width="8.13"/>
     <col customWidth="1" min="7" max="7" width="59.63"/>
   </cols>
   <sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$15</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$16</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$6</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$29</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="412">
   <si>
     <t>what</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>https://github.com/shared-research/ordinalsim</t>
+  </si>
+  <si>
+    <t>Dumitru2025-ys</t>
+  </si>
+  <si>
+    <t>Nature Human Behavior</t>
   </si>
   <si>
     <t>authors</t>
@@ -2198,8 +2204,28 @@
         <v>179</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$15"/>
+  <autoFilter ref="$A$1:$H$16"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
     <hyperlink r:id="rId2" ref="G3"/>
@@ -2245,7 +2271,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2254,44 +2280,44 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
@@ -2328,22 +2354,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>127</v>
@@ -2351,82 +2377,82 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7">
@@ -2472,16 +2498,16 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
@@ -2496,30 +2522,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2530,22 +2556,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2554,27 +2580,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2585,22 +2611,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2609,27 +2635,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2638,30 +2664,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2670,30 +2696,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2704,22 +2730,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2728,27 +2754,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2759,22 +2785,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2785,22 +2811,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2811,22 +2837,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2837,22 +2863,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2861,27 +2887,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -2892,22 +2918,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -2916,30 +2942,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -2949,27 +2975,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -2980,22 +3006,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3006,22 +3032,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3030,27 +3056,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3059,27 +3085,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3090,22 +3116,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3116,22 +3142,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3142,22 +3168,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3168,22 +3194,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3194,22 +3220,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3218,30 +3244,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3250,30 +3276,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3282,10 +3308,10 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3339,10 +3365,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3350,10 +3376,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1">
         <v>2024.0</v>
@@ -3361,10 +3387,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -3372,21 +3398,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -3417,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
@@ -3428,7 +3454,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3439,7 +3465,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3450,7 +3476,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3493,57 +3519,57 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3552,7 +3578,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3622,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>79</v>
@@ -3606,12 +3632,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>79</v>
@@ -3621,21 +3647,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3660,10 +3686,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3674,32 +3700,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>137</v>
@@ -3732,10 +3758,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3746,86 +3772,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3907,39 +3933,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3947,19 +3973,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="E3" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3967,19 +3993,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -3987,19 +4013,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4007,19 +4033,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4027,19 +4053,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4047,19 +4073,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4067,19 +4093,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4087,19 +4113,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4107,19 +4133,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="415">
   <si>
     <t>what</t>
   </si>
@@ -1092,6 +1092,15 @@
   </si>
   <si>
     <t>"Centra il bersaglio: tra misurazione, probabilità e incertezza". Activity organized by the Psicostat Research Group and proposed during the Science4All activity at the University of Padova (27-29th September 2024)</t>
+  </si>
+  <si>
+    <t>Replicabilità e riproducibilità. Buone pratiche per la scienza aperta</t>
+  </si>
+  <si>
+    <t>Webinar Per il ciclo di incontri Conversazioni sull’Open Science,  a cura del Sistema Bibliotecario - Gruppo supporto alla ricerca riguardo le buone pratiche per la scienza aperta tra riproducibilità e replicabilità</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1y4tjt8lm2eqrqbnBx804G6Umo20OONrAMFNkZ9up6Hw/edit?slide=id.g3501d3366ea_0_3#slide=id.g3501d3366ea_0_3</t>
   </si>
   <si>
     <t>MRInference Winter School</t>
@@ -3498,7 +3507,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.63"/>
+    <col customWidth="1" min="1" max="1" width="64.63"/>
     <col customWidth="1" min="2" max="2" width="24.75"/>
     <col customWidth="1" min="3" max="3" width="16.25"/>
     <col customWidth="1" min="4" max="4" width="230.0"/>
@@ -3524,7 +3533,9 @@
       <c r="F1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -3581,9 +3592,29 @@
         <v>342</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2025.0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$AA$1000"/>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="slide=id.g3501d3366ea_0_3" ref="G5"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3622,7 +3653,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>79</v>
@@ -3632,12 +3663,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>79</v>
@@ -3647,7 +3678,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
@@ -3655,13 +3686,13 @@
         <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3686,10 +3717,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3700,32 +3731,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>137</v>
@@ -3758,10 +3789,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3772,86 +3803,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3933,39 +3964,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -3973,19 +4004,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -3993,19 +4024,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4013,19 +4044,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4033,19 +4064,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4053,19 +4084,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4073,19 +4104,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4093,19 +4124,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4113,19 +4144,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4133,19 +4164,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="423">
   <si>
     <t>what</t>
   </si>
@@ -57,16 +57,34 @@
     <t>date</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>Brain Awareness Week</t>
   </si>
   <si>
+    <t>Article about the Brain Awareness Week organized at the University of Padova</t>
+  </si>
+  <si>
     <t>https://www.padovaoggi.it/eventi/brain-awareness-week-2024-padova-11-15-marzo.html</t>
   </si>
   <si>
-    <t>Meta-analysis</t>
+    <t>Meta-analysis about Death Anxiety</t>
+  </si>
+  <si>
+    <t>Article about the meta-analysis @Dumitru2025-ys</t>
   </si>
   <si>
     <t>https://www.unipd.it/news/nuova-analisi-dimostra-forte-legame-disturbi-mentali-ansia-morte</t>
+  </si>
+  <si>
+    <t>Replicabilità e riproducibilità. Buone pratiche per la scienza aperta.</t>
+  </si>
+  <si>
+    <t>Website with my talk about reproducibility and replicability for the University of Padova Library [in italian]</t>
+  </si>
+  <si>
+    <t>https://mediaspace.unipd.it/media/Replicabilit%C3%A0+e+riproducibilit%C3%A0.+Buone+pratiche+per+la+scienza+aperta./1_ech5lx7h</t>
   </si>
   <si>
     <t>service</t>
@@ -1049,12 +1067,18 @@
     <t>Neuroscience of Consciousness</t>
   </si>
   <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
     <t>responsabile</t>
   </si>
   <si>
     <t>iris_id</t>
   </si>
   <si>
+    <t>video</t>
+  </si>
+  <si>
     <t>Sito web [https://psicostat.dpss.psy.unipd.it/](https://psicostat.dpss.psy.unipd.it/) del gruppo di ricerca multidisciplinare "Psicostat".</t>
   </si>
   <si>
@@ -1100,7 +1124,7 @@
     <t>Webinar Per il ciclo di incontri Conversazioni sull’Open Science,  a cura del Sistema Bibliotecario - Gruppo supporto alla ricerca riguardo le buone pratiche per la scienza aperta tra riproducibilità e replicabilità</t>
   </si>
   <si>
-    <t>https://docs.google.com/presentation/d/1y4tjt8lm2eqrqbnBx804G6Umo20OONrAMFNkZ9up6Hw/edit?slide=id.g3501d3366ea_0_3#slide=id.g3501d3366ea_0_3</t>
+    <t>https://docs.google.com/presentation/d/e/2PACX-1vTaM5Pu8FzohOm99lYVaQh6brug6QV-tBi03h-s_buno9dIy59zsN9GhqVTHdANcisFxRx6jtdCDdON/pub?start=false&amp;loop=false&amp;delayms=60000</t>
   </si>
   <si>
     <t>MRInference Winter School</t>
@@ -1851,42 +1875,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C2" s="26">
         <v>3.3</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" s="26">
         <v>0.0</v>
@@ -1896,21 +1920,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C3" s="26">
         <v>4.9</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E3" s="26">
         <v>0.0</v>
@@ -1919,21 +1943,21 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C4" s="27">
         <v>2.9</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E4" s="26">
         <v>0.0</v>
@@ -1942,24 +1966,24 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" s="27">
         <v>3.3</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E5" s="26">
         <v>0.0</v>
@@ -1968,21 +1992,21 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C6" s="28">
         <v>15.6</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E6" s="26">
         <v>1.0</v>
@@ -1991,24 +2015,24 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C7" s="27">
         <v>7.6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E7" s="26">
         <v>0.0</v>
@@ -2017,21 +2041,21 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C8" s="27">
         <v>8.9</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E8" s="26">
         <v>0.0</v>
@@ -2040,24 +2064,24 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C9" s="26">
         <v>3.4</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E9" s="26">
         <v>0.0</v>
@@ -2066,24 +2090,24 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C10" s="26">
         <v>3.1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E10" s="26">
         <v>0.0</v>
@@ -2094,16 +2118,16 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C11" s="26">
         <v>2.6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E11" s="26">
         <v>0.0</v>
@@ -2112,24 +2136,24 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C12" s="27">
         <v>7.6</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E12" s="26">
         <v>1.0</v>
@@ -2138,24 +2162,24 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C13" s="26">
         <v>3.8</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E13" s="26">
         <v>0.0</v>
@@ -2164,21 +2188,21 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C14" s="26">
         <v>2.6</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E14" s="26">
         <v>0.0</v>
@@ -2189,16 +2213,16 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C15" s="26">
         <v>3.3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E15" s="26">
         <v>1.0</v>
@@ -2207,24 +2231,24 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C16" s="1">
         <v>22.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -2280,53 +2304,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -2363,105 +2387,105 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7">
@@ -2504,57 +2528,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2565,22 +2589,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2589,27 +2613,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2620,22 +2644,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2644,27 +2668,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2673,30 +2697,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2705,30 +2729,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2739,22 +2763,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2763,27 +2787,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2794,22 +2818,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2820,22 +2844,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2846,22 +2870,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2872,22 +2896,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2896,27 +2920,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -2927,22 +2951,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -2951,30 +2975,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -2984,27 +3008,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3015,22 +3039,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3041,22 +3065,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3065,27 +3089,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3094,27 +3118,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3125,22 +3149,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3151,22 +3175,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3177,22 +3201,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3203,22 +3227,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3229,22 +3253,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3253,30 +3277,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3285,30 +3309,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3317,10 +3341,10 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3374,10 +3398,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3385,10 +3409,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1">
         <v>2024.0</v>
@@ -3396,35 +3420,35 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3452,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -3463,7 +3487,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3474,7 +3498,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3485,9 +3509,20 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>2025.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -3512,109 +3547,118 @@
     <col customWidth="1" min="3" max="3" width="16.25"/>
     <col customWidth="1" min="4" max="4" width="230.0"/>
     <col customWidth="1" min="5" max="5" width="17.38"/>
+    <col customWidth="1" min="7" max="7" width="119.13"/>
+    <col customWidth="1" min="8" max="8" width="100.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$AA$1000"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="slide=id.g3501d3366ea_0_3" ref="G5"/>
+    <hyperlink r:id="rId1" ref="G5"/>
+    <hyperlink r:id="rId2" ref="H5"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3636,16 +3680,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3653,46 +3697,46 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3717,10 +3761,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3731,35 +3775,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3789,10 +3833,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3803,86 +3847,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3901,9 +3945,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.25"/>
+    <col customWidth="1" min="1" max="1" width="50.13"/>
     <col customWidth="1" min="2" max="2" width="9.5"/>
-    <col customWidth="1" min="3" max="3" width="68.0"/>
+    <col customWidth="1" min="3" max="4" width="68.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3914,37 +3958,61 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>45359.0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>45841.0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45771.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3964,39 +4032,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4004,19 +4072,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4024,19 +4092,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4044,19 +4112,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4064,19 +4132,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4084,19 +4152,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4104,19 +4172,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4124,19 +4192,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4144,19 +4212,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4164,19 +4232,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4203,19 +4271,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4223,7 +4291,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>71.0</v>
@@ -4238,12 +4306,12 @@
         <v>45712.0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>72.0</v>
@@ -4258,7 +4326,7 @@
         <v>45713.0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -4292,19 +4360,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -4312,38 +4380,38 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>2.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6">
         <v>1.0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -10310,19 +10378,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -10330,134 +10398,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>1.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
         <v>5.0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
         <v>7.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6">
         <v>8.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" s="6">
         <v>6.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6">
         <v>4.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6">
         <v>3.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -16431,22 +16499,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
@@ -16454,48 +16522,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6">
         <v>1.0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F3" s="6">
         <v>2.0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -23451,13 +23519,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -23468,30 +23536,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -23499,19 +23567,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -23539,48 +23607,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E2" s="12">
         <v>45231.0</v>
@@ -23593,24 +23661,24 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E3" s="12">
         <v>45170.0</v>
@@ -23623,24 +23691,24 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E4" s="12">
         <v>45017.0</v>
@@ -23655,24 +23723,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E5" s="12">
         <v>44986.0</v>
@@ -23685,24 +23753,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E6" s="20">
         <v>44986.0</v>
@@ -23715,21 +23783,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E7" s="21">
         <v>44866.0</v>
@@ -23742,10 +23810,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -23771,16 +23839,16 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E8" s="20">
         <v>44621.0</v>
@@ -23793,21 +23861,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E9" s="20">
         <v>44805.0</v>
@@ -23820,21 +23888,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E10" s="21">
         <v>44470.0</v>
@@ -23847,24 +23915,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E11" s="20">
         <v>44287.0</v>
@@ -23877,24 +23945,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" s="20">
         <v>44287.0</v>
@@ -23907,24 +23975,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -23935,24 +24003,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E14" s="21">
         <v>45352.0</v>
@@ -23965,10 +24033,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -23994,16 +24062,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E15" s="21">
         <v>45474.0</v>
@@ -24016,21 +24084,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E16" s="21">
         <v>45689.0</v>
@@ -24045,21 +24113,21 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E17" s="21">
         <v>45717.0</v>
@@ -24074,21 +24142,21 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E18" s="21">
         <v>45718.0</v>
@@ -24103,24 +24171,24 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E19" s="21">
         <v>45627.0</v>
@@ -24133,7 +24201,7 @@
         <v>1.0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20">
@@ -31072,7 +31140,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -31083,35 +31151,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B2" s="13">
         <v>2024.0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B3" s="13">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B4" s="13">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -30,7 +30,7 @@
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$16</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$6</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$29</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$30</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">reviews!$A$1:$C$1001</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="430">
   <si>
     <t>what</t>
   </si>
@@ -629,6 +629,9 @@
     <t>Nature Human Behavior</t>
   </si>
   <si>
+    <t>https://osf.io/a2yeh/</t>
+  </si>
+  <si>
     <t>authors</t>
   </si>
   <si>
@@ -767,6 +770,9 @@
     <t>Virtual</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O2XtcDBKODI</t>
+  </si>
+  <si>
     <t>trackdown - Collaborative writing through literate programming in R</t>
   </si>
   <si>
@@ -1023,6 +1029,21 @@
   </si>
   <si>
     <t>https://github.com/psicostat/multiverseRworkshop</t>
+  </si>
+  <si>
+    <t>Introduction to Multiverse Meta Analysis</t>
+  </si>
+  <si>
+    <t>Data Science Training Sessions, Dana Farber Cancer Institute</t>
+  </si>
+  <si>
+    <t>Boston, USA</t>
+  </si>
+  <si>
+    <t>Workshop about multiverse meta-analysis during the Data Science Training Sessions at the Dana Farber Cancer Institute</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mGGHeAKprjU&amp;t=276s</t>
   </si>
   <si>
     <t>society</t>
@@ -2256,6 +2277,9 @@
       <c r="F16" s="1">
         <v>0.0</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$H$16"/>
@@ -2279,8 +2303,9 @@
     <hyperlink r:id="rId17" ref="G13"/>
     <hyperlink r:id="rId18" ref="G15"/>
     <hyperlink r:id="rId19" ref="H15"/>
+    <hyperlink r:id="rId20" ref="G16"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2304,7 +2329,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2313,44 +2338,44 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
@@ -2387,22 +2412,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>133</v>
@@ -2410,82 +2435,82 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
@@ -2531,16 +2556,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2555,30 +2580,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2589,22 +2614,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2613,27 +2638,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2641,25 +2666,28 @@
       <c r="H4" s="1">
         <v>12.0</v>
       </c>
+      <c r="K4" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2668,27 +2696,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2697,30 +2725,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2729,30 +2757,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2763,22 +2791,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2787,27 +2815,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2818,22 +2846,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2844,22 +2872,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2870,22 +2898,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2896,22 +2924,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2920,27 +2948,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -2951,22 +2979,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -2975,30 +3003,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3008,27 +3036,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3039,22 +3067,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3065,22 +3093,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3089,27 +3117,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3118,27 +3146,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3149,22 +3177,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3175,22 +3203,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3201,22 +3229,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3227,22 +3255,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3253,22 +3281,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3277,30 +3305,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3309,30 +3337,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3341,44 +3369,78 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2024.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$29">
-    <sortState ref="A1:K29">
-      <sortCondition ref="G1:G29"/>
+  <autoFilter ref="$A$1:$K$30">
+    <sortState ref="A1:K30">
+      <sortCondition ref="G1:G30"/>
     </sortState>
   </autoFilter>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30">
       <formula1>"Poster,Talk,Invited,Symposium"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B30">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="J3"/>
-    <hyperlink r:id="rId2" location="1" ref="J5"/>
-    <hyperlink r:id="rId3" location="1" ref="J6"/>
-    <hyperlink r:id="rId4" ref="K6"/>
-    <hyperlink r:id="rId5" location="1" ref="J7"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="J9"/>
-    <hyperlink r:id="rId8" ref="J14"/>
-    <hyperlink r:id="rId9" ref="J16"/>
-    <hyperlink r:id="rId10" location="slide=id.g2c0ea0b49a2_0_24" ref="J17"/>
-    <hyperlink r:id="rId11" ref="J20"/>
-    <hyperlink r:id="rId12" ref="J21"/>
-    <hyperlink r:id="rId13" ref="J27"/>
-    <hyperlink r:id="rId14" ref="J28"/>
-    <hyperlink r:id="rId15" ref="J29"/>
+    <hyperlink r:id="rId2" ref="K4"/>
+    <hyperlink r:id="rId3" location="1" ref="J5"/>
+    <hyperlink r:id="rId4" location="1" ref="J6"/>
+    <hyperlink r:id="rId5" ref="K6"/>
+    <hyperlink r:id="rId6" location="1" ref="J7"/>
+    <hyperlink r:id="rId7" ref="K7"/>
+    <hyperlink r:id="rId8" ref="J9"/>
+    <hyperlink r:id="rId9" ref="J14"/>
+    <hyperlink r:id="rId10" ref="J16"/>
+    <hyperlink r:id="rId11" location="slide=id.g2c0ea0b49a2_0_24" ref="J17"/>
+    <hyperlink r:id="rId12" ref="J20"/>
+    <hyperlink r:id="rId13" ref="J21"/>
+    <hyperlink r:id="rId14" ref="J27"/>
+    <hyperlink r:id="rId15" ref="J28"/>
+    <hyperlink r:id="rId16" ref="J29"/>
+    <hyperlink r:id="rId17" ref="K30"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -3398,10 +3460,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3409,10 +3471,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1">
         <v>2024.0</v>
@@ -3420,10 +3482,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
@@ -3431,21 +3493,21 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3476,10 +3538,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -3487,7 +3549,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3498,7 +3560,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3509,7 +3571,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3520,7 +3582,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3565,62 +3627,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3629,12 +3691,12 @@
         <v>85</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3643,10 +3705,10 @@
         <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3697,7 +3759,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -3707,12 +3769,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>85</v>
@@ -3722,21 +3784,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3761,10 +3823,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3775,32 +3837,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>143</v>
@@ -3833,10 +3895,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3847,86 +3909,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -4032,39 +4094,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4072,19 +4134,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4092,19 +4154,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4112,19 +4174,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4132,19 +4194,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4152,19 +4214,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4172,19 +4234,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4192,19 +4254,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4212,19 +4274,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4232,19 +4294,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="430">
   <si>
     <t>what</t>
   </si>
@@ -3476,8 +3476,8 @@
       <c r="B2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="1">
-        <v>2024.0</v>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -3487,7 +3487,7 @@
       <c r="B3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="B4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       <c r="B5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="433">
   <si>
     <t>what</t>
   </si>
@@ -142,7 +142,13 @@
     <t>Post-doctoral researcher (2 year research grant - type B)</t>
   </si>
   <si>
-    <t>2024 - ongoing</t>
+    <t>2024 - 2025</t>
+  </si>
+  <si>
+    <t>Assistant Professor (RTD-a) in Psychometrics [PSIC-01/C]</t>
+  </si>
+  <si>
+    <t>2025 - ongoing</t>
   </si>
   <si>
     <t>PhD in Psychological Sciences</t>
@@ -1074,6 +1080,9 @@
   </si>
   <si>
     <t>Associazione Italiana di Psicologia, Sezione Sviluppo</t>
+  </si>
+  <si>
+    <t>2024 - ongoing</t>
   </si>
   <si>
     <t>n</t>
@@ -1896,42 +1905,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="26">
         <v>3.3</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="26">
         <v>0.0</v>
@@ -1941,21 +1950,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="26">
         <v>4.9</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="26">
         <v>0.0</v>
@@ -1964,21 +1973,21 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="27">
         <v>2.9</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="26">
         <v>0.0</v>
@@ -1987,24 +1996,24 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" s="27">
         <v>3.3</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E5" s="26">
         <v>0.0</v>
@@ -2013,21 +2022,21 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="28">
         <v>15.6</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="26">
         <v>1.0</v>
@@ -2036,24 +2045,24 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="27">
         <v>7.6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" s="26">
         <v>0.0</v>
@@ -2062,21 +2071,21 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="27">
         <v>8.9</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" s="26">
         <v>0.0</v>
@@ -2085,24 +2094,24 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C9" s="26">
         <v>3.4</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E9" s="26">
         <v>0.0</v>
@@ -2111,24 +2120,24 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="26">
         <v>3.1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" s="26">
         <v>0.0</v>
@@ -2139,16 +2148,16 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C11" s="26">
         <v>2.6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E11" s="26">
         <v>0.0</v>
@@ -2157,24 +2166,24 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="27">
         <v>7.6</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E12" s="26">
         <v>1.0</v>
@@ -2183,24 +2192,24 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="26">
         <v>3.8</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E13" s="26">
         <v>0.0</v>
@@ -2209,21 +2218,21 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C14" s="26">
         <v>2.6</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E14" s="26">
         <v>0.0</v>
@@ -2234,16 +2243,16 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C15" s="26">
         <v>3.3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E15" s="26">
         <v>1.0</v>
@@ -2252,24 +2261,24 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1">
         <v>22.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -2278,7 +2287,7 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2338,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2338,44 +2347,44 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -2412,105 +2421,105 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
@@ -2556,16 +2565,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2574,36 +2583,36 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2614,22 +2623,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2638,27 +2647,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2667,27 +2676,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2696,27 +2705,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2725,30 +2734,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2757,30 +2766,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2791,22 +2800,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2815,27 +2824,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2846,22 +2855,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2872,22 +2881,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2898,22 +2907,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2924,22 +2933,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2948,27 +2957,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -2979,22 +2988,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3003,30 +3012,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3036,27 +3045,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3067,22 +3076,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3093,22 +3102,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3117,27 +3126,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3146,27 +3155,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3177,22 +3186,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3203,22 +3212,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3229,22 +3238,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3255,22 +3264,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3281,22 +3290,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3305,30 +3314,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3337,30 +3346,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3369,30 +3378,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3401,10 +3410,10 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3460,10 +3469,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3471,21 +3480,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3493,24 +3502,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3538,10 +3547,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -3549,7 +3558,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3560,7 +3569,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3571,7 +3580,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3582,7 +3591,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3627,88 +3636,88 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3759,46 +3768,46 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3823,10 +3832,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3837,35 +3846,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3895,10 +3904,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3909,86 +3918,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4094,39 +4103,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4134,19 +4143,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4154,19 +4163,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4174,19 +4183,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4194,19 +4203,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4214,19 +4223,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4234,19 +4243,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4254,19 +4263,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4274,19 +4283,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4294,19 +4303,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4452,7 +4461,7 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>30</v>
@@ -4470,16 +4479,26 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="8"/>
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6">
+        <v>1.0</v>
+      </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5">
@@ -10460,134 +10479,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>1.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
         <v>5.0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
         <v>7.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6">
         <v>8.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>6.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="6">
         <v>4.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6">
         <v>3.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -16567,7 +16586,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -16584,48 +16603,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6">
         <v>1.0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6">
         <v>2.0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -23598,30 +23617,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -23629,19 +23648,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -23675,19 +23694,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>26</v>
@@ -23696,21 +23715,21 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="12">
         <v>45231.0</v>
@@ -23723,24 +23742,24 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" s="12">
         <v>45170.0</v>
@@ -23753,24 +23772,24 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12">
         <v>45017.0</v>
@@ -23785,24 +23804,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E5" s="12">
         <v>44986.0</v>
@@ -23815,24 +23834,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="20">
         <v>44986.0</v>
@@ -23845,21 +23864,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="21">
         <v>44866.0</v>
@@ -23872,10 +23891,10 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
@@ -23901,16 +23920,16 @@
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="20">
         <v>44621.0</v>
@@ -23923,21 +23942,21 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E9" s="20">
         <v>44805.0</v>
@@ -23950,21 +23969,21 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="21">
         <v>44470.0</v>
@@ -23977,24 +23996,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="20">
         <v>44287.0</v>
@@ -24007,24 +24026,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="20">
         <v>44287.0</v>
@@ -24037,24 +24056,24 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -24065,24 +24084,24 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="21">
         <v>45352.0</v>
@@ -24095,10 +24114,10 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
@@ -24124,16 +24143,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="21">
         <v>45474.0</v>
@@ -24146,21 +24165,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E16" s="21">
         <v>45689.0</v>
@@ -24175,21 +24194,21 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E17" s="21">
         <v>45717.0</v>
@@ -24204,21 +24223,21 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E18" s="21">
         <v>45718.0</v>
@@ -24233,24 +24252,24 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="21">
         <v>45627.0</v>
@@ -24263,7 +24282,7 @@
         <v>1.0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -31213,35 +31232,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B2" s="13">
         <v>2024.0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="13">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B4" s="13">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -23,13 +23,14 @@
     <sheet state="visible" name="software" sheetId="18" r:id="rId21"/>
     <sheet state="visible" name="collaborations" sheetId="19" r:id="rId22"/>
     <sheet state="visible" name="dissertations" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="dissertations-controrelatore" sheetId="21" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$16</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
-    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$6</definedName>
+    <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$5</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$30</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">reviews!$A$1:$C$1001</definedName>
@@ -37,13 +38,14 @@
     <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
     <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">collaborations!$A$1:$D$1000</definedName>
     <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
+    <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">'dissertations-controrelatore'!$A$1:$I$1000</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="449">
   <si>
     <t>what</t>
   </si>
@@ -710,9 +712,6 @@
     <t>https://osf.io/preprints/osf/rpw4s_v1</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
     <t>presenter</t>
   </si>
   <si>
@@ -1362,6 +1361,57 @@
   </si>
   <si>
     <t>Unconscious processing of some face dimensions: a systematic review</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>course-short</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>academic-year</t>
+  </si>
+  <si>
+    <t>Chiara</t>
+  </si>
+  <si>
+    <t>Occhilupo</t>
+  </si>
+  <si>
+    <t>Potenziare le funzioni esecutive in bambini con Sindrome di Down attraverso il progetto EXPO: Analisi di casi</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Psicologia Clinica dello Sviluppo</t>
+  </si>
+  <si>
+    <t>MPCS</t>
+  </si>
+  <si>
+    <t>Silvia Lanfranchi</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Grida</t>
+  </si>
+  <si>
+    <t>Impatto dei fattori ambientali sulle traiettorie di sviluppo nel disturbo dello spettro autistico. Una rassegna sistematica.</t>
+  </si>
+  <si>
+    <t>Neuroscienze e Riabilitazione Neuropsicologica</t>
+  </si>
+  <si>
+    <t>M1C</t>
   </si>
 </sst>
 </file>
@@ -1631,6 +1681,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -2509,27 +2563,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="30"/>
+      <c r="A7" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$6"/>
+  <autoFilter ref="$A$1:$G$5"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
     <hyperlink r:id="rId2" ref="E4"/>
@@ -2565,7 +2605,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>191</v>
@@ -2574,7 +2614,7 @@
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2589,30 +2629,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2623,22 +2663,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2647,27 +2687,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2676,27 +2716,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2705,27 +2745,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2734,30 +2774,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2766,30 +2806,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2800,22 +2840,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2824,27 +2864,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>259</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2855,22 +2895,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2881,22 +2921,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2907,22 +2947,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2933,22 +2973,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2957,27 +2997,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -2988,22 +3028,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3012,30 +3052,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3045,27 +3085,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3076,22 +3116,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3102,22 +3142,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3126,27 +3166,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3155,27 +3195,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3186,22 +3226,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3212,22 +3252,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3238,22 +3278,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3264,22 +3304,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3290,22 +3330,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3314,30 +3354,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3346,30 +3386,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3378,30 +3418,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3410,10 +3450,10 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3469,10 +3509,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3480,10 +3520,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -3491,10 +3531,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3502,24 +3542,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3590,7 @@
         <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -3558,7 +3598,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3569,7 +3609,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3580,7 +3620,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3591,7 +3631,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3636,62 +3676,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3700,12 +3740,12 @@
         <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3714,10 +3754,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3768,7 +3808,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -3778,12 +3818,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -3793,21 +3833,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3832,10 +3872,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3846,32 +3886,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>145</v>
@@ -3904,10 +3944,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3918,86 +3958,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4103,39 +4143,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4143,19 +4183,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>405</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4163,19 +4203,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4183,19 +4223,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4203,19 +4243,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4223,19 +4263,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4243,19 +4283,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4263,19 +4303,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4283,19 +4323,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4303,19 +4343,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4323,6 +4363,109 @@
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$11"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45853.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45853.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="$A$1:$I$1000"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$16</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$17</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$5</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$30</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="450">
   <si>
     <t>what</t>
   </si>
@@ -638,6 +638,9 @@
   </si>
   <si>
     <t>https://osf.io/a2yeh/</t>
+  </si>
+  <si>
+    <t>Perugini2025-ju</t>
   </si>
   <si>
     <t>authors</t>
@@ -2344,8 +2347,28 @@
         <v>190</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="28">
+        <v>15.6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$16"/>
+  <autoFilter ref="$A$1:$H$17"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
     <hyperlink r:id="rId2" ref="G3"/>
@@ -2392,7 +2415,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2401,44 +2424,44 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -2475,22 +2498,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>135</v>
@@ -2498,68 +2521,68 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -2605,16 +2628,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2629,30 +2652,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2663,22 +2686,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2687,27 +2710,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2716,27 +2739,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2745,27 +2768,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2774,30 +2797,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2806,30 +2829,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2840,22 +2863,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2864,27 +2887,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2895,22 +2918,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2921,22 +2944,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2947,22 +2970,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2973,22 +2996,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -2997,27 +3020,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -3028,22 +3051,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3052,30 +3075,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3085,27 +3108,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3116,22 +3139,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3142,22 +3165,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3166,27 +3189,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3195,27 +3218,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3226,22 +3249,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3252,22 +3275,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3278,22 +3301,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3304,22 +3327,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3330,22 +3353,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3354,30 +3377,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3386,30 +3409,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3418,30 +3441,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3450,10 +3473,10 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3509,10 +3532,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3520,10 +3543,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -3531,10 +3554,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3542,24 +3565,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3587,10 +3610,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -3598,7 +3621,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3609,7 +3632,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3620,7 +3643,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3631,7 +3654,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3676,62 +3699,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3740,12 +3763,12 @@
         <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3754,10 +3777,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3808,7 +3831,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -3818,12 +3841,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -3833,21 +3856,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3872,10 +3895,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3886,32 +3909,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>145</v>
@@ -3944,10 +3967,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3958,86 +3981,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4143,39 +4166,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4183,19 +4206,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4203,19 +4226,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4223,19 +4246,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4243,19 +4266,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4263,19 +4286,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4283,19 +4306,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4303,19 +4326,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4323,19 +4346,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4343,19 +4366,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4379,28 +4402,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -4408,28 +4431,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I2" s="2">
         <v>45853.0</v>
@@ -4437,28 +4460,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="I3" s="2">
         <v>45853.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName hidden="1" localSheetId="7" name="_xlnm._FilterDatabase">teaching!$A$1:$J$1004</definedName>
     <definedName hidden="1" localSheetId="8" name="_xlnm._FilterDatabase">awards!$A$1:$C$1006</definedName>
-    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$17</definedName>
+    <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$18</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$5</definedName>
     <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$30</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="449">
   <si>
     <t>what</t>
   </si>
@@ -643,6 +643,15 @@
     <t>Perugini2025-ju</t>
   </si>
   <si>
+    <t>Calderan2025-sl</t>
+  </si>
+  <si>
+    <t>Collabra: Psychology</t>
+  </si>
+  <si>
+    <t>https://osf.io/d43vs/</t>
+  </si>
+  <si>
     <t>authors</t>
   </si>
   <si>
@@ -662,18 +671,6 @@
   </si>
   <si>
     <t>Registered Replication Report - Provisional Acceptance</t>
-  </si>
-  <si>
-    <t>Dimitru, E., [...] Gambarota, F., [...]</t>
-  </si>
-  <si>
-    <t>The Pain of Death. A Meta-Analysis of the Association of Death Anxiety with Psychological Distress And Psychopathology</t>
-  </si>
-  <si>
-    <t>Nature Human Behaviour</t>
-  </si>
-  <si>
-    <t>In press</t>
   </si>
   <si>
     <t>preprint</t>
@@ -2367,8 +2364,31 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$17"/>
+  <autoFilter ref="$A$1:$H$18"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="H2"/>
     <hyperlink r:id="rId2" ref="G3"/>
@@ -2390,8 +2410,9 @@
     <hyperlink r:id="rId18" ref="G15"/>
     <hyperlink r:id="rId19" ref="H15"/>
     <hyperlink r:id="rId20" ref="G16"/>
+    <hyperlink r:id="rId21" ref="G18"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -2415,7 +2436,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2424,44 +2445,27 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -2498,22 +2502,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>135</v>
@@ -2521,68 +2525,68 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
@@ -2628,16 +2632,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2652,30 +2656,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2686,22 +2690,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2710,27 +2714,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2739,27 +2743,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2768,27 +2772,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2797,30 +2801,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2829,30 +2833,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2863,22 +2867,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2887,27 +2891,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>259</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2918,22 +2922,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2944,22 +2948,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2970,22 +2974,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -2996,22 +3000,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -3020,27 +3024,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -3051,22 +3055,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3075,30 +3079,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3108,27 +3112,27 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3139,22 +3143,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3165,22 +3169,22 @@
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3189,27 +3193,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3218,27 +3222,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3249,22 +3253,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3275,22 +3279,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3301,22 +3305,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3327,22 +3331,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3353,22 +3357,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3377,30 +3381,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3409,30 +3413,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3441,30 +3445,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3473,10 +3477,10 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3532,10 +3536,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3543,10 +3547,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -3554,10 +3558,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3565,24 +3569,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3610,10 +3614,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -3621,7 +3625,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3632,7 +3636,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3643,7 +3647,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3654,7 +3658,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3699,62 +3703,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3763,12 +3767,12 @@
         <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3777,10 +3781,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3831,7 +3835,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -3841,12 +3845,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -3856,21 +3860,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3895,10 +3899,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3909,32 +3913,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>145</v>
@@ -3967,10 +3971,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3981,86 +3985,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4166,39 +4170,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4206,19 +4210,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>404</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>405</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4226,19 +4230,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>408</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4246,19 +4250,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="C5" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4266,19 +4270,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4286,19 +4290,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4306,19 +4310,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>422</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4326,19 +4330,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4346,19 +4350,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4366,19 +4370,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4402,28 +4406,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -4431,28 +4435,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="I2" s="2">
         <v>45853.0</v>
@@ -4460,28 +4464,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="I3" s="2">
         <v>45853.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -37,7 +37,7 @@
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
     <definedName hidden="1" localSheetId="16" name="_xlnm._FilterDatabase">other_academic!$A$1:$E$4</definedName>
     <definedName hidden="1" localSheetId="18" name="_xlnm._FilterDatabase">collaborations!$A$1:$D$1000</definedName>
-    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$11</definedName>
+    <definedName hidden="1" localSheetId="19" name="_xlnm._FilterDatabase">dissertations!$A$1:$F$12</definedName>
     <definedName hidden="1" localSheetId="20" name="_xlnm._FilterDatabase">'dissertations-controrelatore'!$A$1:$I$1000</definedName>
   </definedNames>
   <calcPr/>
@@ -4389,7 +4389,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$F$11"/>
+  <autoFilter ref="$A$1:$F$12"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="450">
   <si>
     <t>what</t>
   </si>
@@ -311,13 +311,58 @@
     <t>materials</t>
   </si>
   <si>
+    <t>Psicometria per le Neuroscienze Cognitive</t>
+  </si>
+  <si>
+    <t>University of Padova</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Professor (titolare del corso) for the Master's degree in Statistical Sciences, Department of Statistical Sciences, University of Padova</t>
+  </si>
+  <si>
+    <t>Crafting effective scientific presentations</t>
+  </si>
+  <si>
+    <t>phd</t>
+  </si>
+  <si>
+    <t>Professor for the course within the PhD program in Psychological Sciences, University of Padova</t>
+  </si>
+  <si>
     <t>Generalized Linear Models - PhD Course in Psychological Sciences</t>
   </si>
   <si>
-    <t>University of Padova</t>
-  </si>
-  <si>
-    <t>phd</t>
+    <t>https://github.com/stat-teaching/GLMphd</t>
+  </si>
+  <si>
+    <t>Introduction to R</t>
+  </si>
+  <si>
+    <t>seminars</t>
+  </si>
+  <si>
+    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
+  </si>
+  <si>
+    <t>https://github.com/filippogambarota/corsoR</t>
+  </si>
+  <si>
+    <t>Replicability crisis in science?</t>
+  </si>
+  <si>
+    <t>[Specialist Course](https://www.stat.unipd.it/sites/stat.unipd.it/files/Parmigiani-Fitelson-Gambarota%20July2024.pdf) for the XXXIX Cycle of the PhD course in Statistics, Department of Statistical Sciences, University of Padova</t>
+  </si>
+  <si>
+    <t>Statistical and Clinical Significance [italian]</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>Professor for the Master (2nd level) in Psicologia delle Micro e Maxi Emergenze</t>
   </si>
   <si>
     <t>2023</t>
@@ -326,9 +371,6 @@
     <t>I held the Generalized Linear Models course (Part A and B) within the PhD program in Psychological Sciences, University of Padova</t>
   </si>
   <si>
-    <t>https://github.com/stat-teaching/GLMphd</t>
-  </si>
-  <si>
     <t>Replicability Crisis in Science?</t>
   </si>
   <si>
@@ -350,18 +392,6 @@
     <t>https://github.com/stat-teaching/SMDA-2023</t>
   </si>
   <si>
-    <t>Introduction to R</t>
-  </si>
-  <si>
-    <t>seminars</t>
-  </si>
-  <si>
-    <t>Intensive course about programming in R as part of the [ARCA (Applied Research Course Academy)](https://www.dpss.unipd.it/applied-research-courses-academy-arca) courses, Department of Developmental Psychology and Socialization, University of Padova</t>
-  </si>
-  <si>
-    <t>https://github.com/filippogambarota/corsoR</t>
-  </si>
-  <si>
     <t>Data Analysis in Developmental Psychology [PSIC-01/C ex M-PSI/03]</t>
   </si>
   <si>
@@ -383,9 +413,6 @@
     <t>Introduction to Visual Consciousness [M-PSI/01]</t>
   </si>
   <si>
-    <t>lecture</t>
-  </si>
-  <si>
     <t>Lecture during the course "General Psychology" (Prof. Roberto Dell'Acqua), Bachelor's degree in Developmental, Personality and Interpersonal Relationships Psychology, University of Padova</t>
   </si>
   <si>
@@ -413,31 +440,7 @@
     <t>https://docs.google.com/presentation/d/1hRqtLqWsM4qi7SeMOmPYG1HsRrcnDrTzhluVk-neSB8/edit#slide=id.g7375f48dcf_2_0</t>
   </si>
   <si>
-    <t>Replicability crisis in science?</t>
-  </si>
-  <si>
-    <t>[Specialist Course](https://www.stat.unipd.it/sites/stat.unipd.it/files/Parmigiani-Fitelson-Gambarota%20July2024.pdf) for the XXXIX Cycle of the PhD course in Statistics, Department of Statistical Sciences, University of Padova</t>
-  </si>
-  <si>
-    <t>Psicometria per le Neuroscienze Cognitive [planned]</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>Professor (titolare del corso) for the Master's degree in Statistical Sciences, Department of Statistical Sciences, University of Padova</t>
-  </si>
-  <si>
-    <t>Crafting effective scientific presentations [planned]</t>
-  </si>
-  <si>
-    <t>Professor for the course within the PhD program in Psychological Sciences, University of Padova</t>
-  </si>
-  <si>
-    <t>Statistical and Clinical Significance [italian]</t>
-  </si>
-  <si>
-    <t>Professor for the Master (2nd level) in Psicologia delle Micro e Maxi Emergenze</t>
+    <t>Methodological school about replicability in science organized from the PhD course in Statistical Sciences and Psychological Sciences, University of Padova</t>
   </si>
   <si>
     <t>Award for the best scientific article of 2024 - Italian Psychological Association (AIP), Developmental and Educational Psychology</t>
@@ -1420,8 +1423,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm"/>
-    <numFmt numFmtId="166" formatCode="yyyy-m"/>
+    <numFmt numFmtId="165" formatCode="yyyy-m"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1444,17 +1447,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1464,6 +1457,16 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1546,50 +1549,50 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1959,25 +1962,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>85</v>
@@ -1985,16 +1988,16 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" s="26">
         <v>3.3</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="26">
         <v>0.0</v>
@@ -2004,21 +2007,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="26">
         <v>4.9</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" s="26">
         <v>0.0</v>
@@ -2027,21 +2030,21 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="27">
         <v>2.9</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" s="26">
         <v>0.0</v>
@@ -2050,24 +2053,24 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="27">
         <v>3.3</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="26">
         <v>0.0</v>
@@ -2076,21 +2079,21 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="28">
         <v>15.6</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="26">
         <v>1.0</v>
@@ -2099,24 +2102,24 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" s="27">
         <v>7.6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E7" s="26">
         <v>0.0</v>
@@ -2125,21 +2128,21 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="27">
         <v>8.9</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="26">
         <v>0.0</v>
@@ -2148,24 +2151,24 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C9" s="26">
         <v>3.4</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" s="26">
         <v>0.0</v>
@@ -2174,24 +2177,24 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="26">
         <v>3.1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E10" s="26">
         <v>0.0</v>
@@ -2202,16 +2205,16 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="26">
         <v>2.6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E11" s="26">
         <v>0.0</v>
@@ -2220,24 +2223,24 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="27">
         <v>7.6</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E12" s="26">
         <v>1.0</v>
@@ -2246,24 +2249,24 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" s="26">
         <v>3.8</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E13" s="26">
         <v>0.0</v>
@@ -2272,21 +2275,21 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="26">
         <v>2.6</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E14" s="26">
         <v>0.0</v>
@@ -2297,16 +2300,16 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="26">
         <v>3.3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="26">
         <v>1.0</v>
@@ -2315,24 +2318,24 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1">
         <v>22.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -2341,21 +2344,21 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="28">
         <v>15.6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1">
         <v>0.0</v>
@@ -2366,16 +2369,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="1">
         <v>3.2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -2384,7 +2387,7 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2439,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2445,31 +2448,31 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
@@ -2502,91 +2505,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -2632,16 +2635,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2656,30 +2659,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2690,22 +2693,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2714,27 +2717,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2743,27 +2746,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2771,28 +2774,28 @@
       <c r="H5" s="1">
         <v>3.0</v>
       </c>
-      <c r="J5" s="22" t="s">
-        <v>240</v>
+      <c r="J5" s="15" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2800,31 +2803,31 @@
       <c r="H6" s="1">
         <v>6.0</v>
       </c>
-      <c r="J6" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="15" t="s">
         <v>244</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2832,31 +2835,31 @@
       <c r="H7" s="1">
         <v>7.0</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="K7" s="22" t="s">
+      <c r="J7" s="15" t="s">
         <v>248</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2867,22 +2870,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2891,27 +2894,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>257</v>
+      <c r="A10" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>258</v>
+        <v>223</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2922,22 +2925,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2948,22 +2951,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2974,22 +2977,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -3000,22 +3003,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -3024,27 +3027,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -3055,84 +3058,84 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="12">
         <v>2.0</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>276</v>
+      <c r="I16" s="12" t="s">
+        <v>277</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="12">
         <v>3.0</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3143,22 +3146,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3168,23 +3171,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="s">
-        <v>288</v>
+      <c r="A20" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3192,28 +3195,28 @@
       <c r="H20" s="1">
         <v>9.0</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>293</v>
+      <c r="J20" s="15" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3221,28 +3224,28 @@
       <c r="H21" s="1">
         <v>9.0</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>298</v>
+      <c r="J21" s="15" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3253,22 +3256,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3279,22 +3282,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3305,22 +3308,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3331,22 +3334,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3357,22 +3360,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3380,31 +3383,31 @@
       <c r="H27" s="1">
         <v>2.0</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>314</v>
+      <c r="I27" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3412,31 +3415,31 @@
       <c r="H28" s="1">
         <v>2.0</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>314</v>
+      <c r="I28" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3444,31 +3447,31 @@
       <c r="H29" s="1">
         <v>2.0</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>321</v>
+      <c r="I29" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3477,10 +3480,10 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3536,10 +3539,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3547,10 +3550,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -3558,10 +3561,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3569,24 +3572,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3614,10 +3617,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -3625,7 +3628,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3636,7 +3639,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3647,7 +3650,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3658,7 +3661,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3703,62 +3706,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3767,12 +3770,12 @@
         <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3781,10 +3784,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3835,7 +3838,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -3845,12 +3848,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -3860,21 +3863,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>228</v>
+      <c r="A4" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3899,10 +3902,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3913,35 +3916,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3971,10 +3974,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3985,86 +3988,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4170,39 +4173,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4210,19 +4213,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4230,19 +4233,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4250,19 +4253,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4270,19 +4273,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4290,19 +4293,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4310,19 +4313,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4330,19 +4333,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4350,19 +4353,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4370,19 +4373,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4406,28 +4409,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -4435,28 +4438,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I2" s="2">
         <v>45853.0</v>
@@ -4464,28 +4467,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="I3" s="2">
         <v>45853.0</v>
@@ -23889,83 +23892,81 @@
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="12">
-        <v>45231.0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>15.0</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="E2" s="10">
+        <v>45689.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>6.0</v>
+      </c>
       <c r="H2" s="6">
         <v>1.0</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="26.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" ht="26.25" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="12">
-        <v>45170.0</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="D3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="10">
+        <v>45717.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>5.0</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>1.0</v>
+      </c>
       <c r="H3" s="6">
         <v>1.0</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>95</v>
+      <c r="I3" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="12">
-        <v>45017.0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>21.0</v>
+      <c r="C4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10">
+        <v>45718.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15.0</v>
       </c>
       <c r="G4" s="6">
         <v>3.0</v>
@@ -23973,30 +23974,30 @@
       <c r="H4" s="6">
         <v>1.0</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>98</v>
+      <c r="I4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="12">
-        <v>44986.0</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="C5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="10">
+        <v>45352.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>20.0</v>
       </c>
       <c r="G5" s="6"/>
@@ -24004,277 +24005,281 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>103</v>
+      <c r="A6" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="20">
-        <v>44986.0</v>
+        <v>68</v>
+      </c>
+      <c r="E6" s="10">
+        <v>45474.0</v>
       </c>
       <c r="F6" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="6">
         <v>1.0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>99</v>
+      <c r="A7" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>100</v>
+      <c r="C7" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="21">
-        <v>44866.0</v>
+        <v>68</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45627.0</v>
       </c>
       <c r="F7" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="6">
         <v>1.0</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
+      <c r="I7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="20">
-        <v>44621.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20.0</v>
+      <c r="E8" s="18">
+        <v>45231.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>15.0</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
         <v>1.0</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="14" t="s">
         <v>105</v>
       </c>
+      <c r="J8" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="20">
-        <v>44805.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>14.0</v>
+      <c r="E9" s="18">
+        <v>45170.0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>5.0</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
         <v>1.0</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="14" t="s">
         <v>108</v>
       </c>
+      <c r="J9" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="21">
-        <v>44470.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="C10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="18">
+        <v>45017.0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3.0</v>
+      </c>
       <c r="H10" s="6">
         <v>1.0</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>102</v>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="20">
-        <v>44287.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.0</v>
+      <c r="C11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="18">
+        <v>44986.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>20.0</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
         <v>1.0</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>112</v>
+      <c r="I11" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="20">
-        <v>44287.0</v>
+        <v>104</v>
+      </c>
+      <c r="E12" s="23">
+        <v>44986.0</v>
       </c>
       <c r="F12" s="1">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
         <v>1.0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>116</v>
+      <c r="A13" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
+      <c r="C13" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="E13" s="10">
+        <v>44866.0</v>
+      </c>
       <c r="F13" s="1">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>119</v>
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>99</v>
+      <c r="A14" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>100</v>
+      <c r="C14" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="21">
-        <v>45352.0</v>
+        <v>116</v>
+      </c>
+      <c r="E14" s="23">
+        <v>44621.0</v>
       </c>
       <c r="F14" s="1">
         <v>20.0</v>
@@ -24283,185 +24288,200 @@
       <c r="H14" s="6">
         <v>1.0</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
+      <c r="I14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="21">
-        <v>45474.0</v>
+        <v>116</v>
+      </c>
+      <c r="E15" s="23">
+        <v>44805.0</v>
       </c>
       <c r="F15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>14.0</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6">
         <v>1.0</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>121</v>
+      <c r="I15" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>122</v>
+      <c r="A16" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
+      <c r="C16" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="21">
-        <v>45689.0</v>
+        <v>62</v>
+      </c>
+      <c r="E16" s="10">
+        <v>44470.0</v>
       </c>
       <c r="F16" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>6.0</v>
-      </c>
+        <v>20.0</v>
+      </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6">
         <v>1.0</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>124</v>
+      <c r="I16" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="21">
-        <v>45717.0</v>
+        <v>62</v>
+      </c>
+      <c r="E17" s="23">
+        <v>44287.0</v>
       </c>
       <c r="F17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6">
         <v>1.0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>86</v>
+      <c r="A18" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="21">
-        <v>45718.0</v>
+        <v>62</v>
+      </c>
+      <c r="E18" s="23">
+        <v>44287.0</v>
       </c>
       <c r="F18" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>3.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6">
         <v>1.0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="21">
-        <v>45627.0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="G19" s="7"/>
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="23">
+        <v>45809.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21">
       <c r="C21" s="8"/>
@@ -31358,17 +31378,17 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="J3"/>
-    <hyperlink r:id="rId3" ref="J4"/>
-    <hyperlink r:id="rId4" ref="J5"/>
-    <hyperlink r:id="rId5" ref="J7"/>
-    <hyperlink r:id="rId6" ref="J10"/>
-    <hyperlink r:id="rId7" ref="J11"/>
-    <hyperlink r:id="rId8" location="slide=id.gc96481fd19_0_343" ref="J12"/>
-    <hyperlink r:id="rId9" location="slide=id.g7375f48dcf_2_0" ref="J13"/>
-    <hyperlink r:id="rId10" ref="J14"/>
-    <hyperlink r:id="rId11" ref="J18"/>
+    <hyperlink r:id="rId1" ref="J4"/>
+    <hyperlink r:id="rId2" ref="J5"/>
+    <hyperlink r:id="rId3" ref="J8"/>
+    <hyperlink r:id="rId4" ref="J9"/>
+    <hyperlink r:id="rId5" ref="J10"/>
+    <hyperlink r:id="rId6" ref="J11"/>
+    <hyperlink r:id="rId7" ref="J13"/>
+    <hyperlink r:id="rId8" ref="J16"/>
+    <hyperlink r:id="rId9" ref="J17"/>
+    <hyperlink r:id="rId10" location="slide=id.gc96481fd19_0_343" ref="J18"/>
+    <hyperlink r:id="rId11" location="slide=id.g7375f48dcf_2_0" ref="J19"/>
   </hyperlinks>
   <drawing r:id="rId12"/>
 </worksheet>
@@ -31401,78 +31421,78 @@
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="19">
         <v>2024.0</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>130</v>
+      <c r="C2" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="13">
+      <c r="A3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="19">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="19">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="19"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
+      <c r="A8" s="13"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
     </row>
     <row r="9">
-      <c r="A9" s="19"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
+      <c r="A11" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$C$1006"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="454">
   <si>
     <t>what</t>
   </si>
@@ -441,6 +441,18 @@
   </si>
   <si>
     <t>Methodological school about replicability in science organized from the PhD course in Statistical Sciences and Psychological Sciences, University of Padova</t>
+  </si>
+  <si>
+    <t>Introduction to Bayesian Statistics with R and STAN</t>
+  </si>
+  <si>
+    <t>CEUB (Bertinoro)</t>
+  </si>
+  <si>
+    <t>Intensive course organized by the Italian Psychological Association (AIP) about Bayesian Statistics.</t>
+  </si>
+  <si>
+    <t>https://stat-teaching.github.io/intro-bayesian-statistics-bertinoro/</t>
   </si>
   <si>
     <t>Award for the best scientific article of 2024 - Italian Psychological Association (AIP), Developmental and Educational Psychology</t>
@@ -1962,25 +1974,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>85</v>
@@ -1988,16 +2000,16 @@
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="26">
         <v>3.3</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E2" s="26">
         <v>0.0</v>
@@ -2007,21 +2019,21 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C3" s="26">
         <v>4.9</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="26">
         <v>0.0</v>
@@ -2030,21 +2042,21 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C4" s="27">
         <v>2.9</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E4" s="26">
         <v>0.0</v>
@@ -2053,24 +2065,24 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C5" s="27">
         <v>3.3</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E5" s="26">
         <v>0.0</v>
@@ -2079,21 +2091,21 @@
         <v>0.0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C6" s="28">
         <v>15.6</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E6" s="26">
         <v>1.0</v>
@@ -2102,24 +2114,24 @@
         <v>0.0</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C7" s="27">
         <v>7.6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E7" s="26">
         <v>0.0</v>
@@ -2128,21 +2140,21 @@
         <v>0.0</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C8" s="27">
         <v>8.9</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E8" s="26">
         <v>0.0</v>
@@ -2151,24 +2163,24 @@
         <v>0.0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C9" s="26">
         <v>3.4</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E9" s="26">
         <v>0.0</v>
@@ -2177,24 +2189,24 @@
         <v>0.0</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C10" s="26">
         <v>3.1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E10" s="26">
         <v>0.0</v>
@@ -2205,16 +2217,16 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C11" s="26">
         <v>2.6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E11" s="26">
         <v>0.0</v>
@@ -2223,24 +2235,24 @@
         <v>1.0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C12" s="27">
         <v>7.6</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E12" s="26">
         <v>1.0</v>
@@ -2249,24 +2261,24 @@
         <v>0.0</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C13" s="26">
         <v>3.8</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E13" s="26">
         <v>0.0</v>
@@ -2275,21 +2287,21 @@
         <v>0.0</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C14" s="26">
         <v>2.6</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E14" s="26">
         <v>0.0</v>
@@ -2300,16 +2312,16 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C15" s="26">
         <v>3.3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E15" s="26">
         <v>1.0</v>
@@ -2318,24 +2330,24 @@
         <v>0.0</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1">
         <v>22.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -2344,21 +2356,21 @@
         <v>0.0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C17" s="28">
         <v>15.6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E17" s="1">
         <v>0.0</v>
@@ -2369,16 +2381,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1">
         <v>3.2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -2387,7 +2399,7 @@
         <v>0.0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2451,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -2448,27 +2460,27 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -2505,91 +2517,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6">
@@ -2635,16 +2647,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
@@ -2659,30 +2671,30 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2693,22 +2705,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2717,27 +2729,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2746,27 +2758,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2775,27 +2787,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2804,30 +2816,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2836,30 +2848,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2870,22 +2882,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2894,27 +2906,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2925,22 +2937,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2951,22 +2963,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2977,22 +2989,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -3003,22 +3015,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -3027,27 +3039,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -3058,22 +3070,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3082,30 +3094,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3115,27 +3127,27 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3146,22 +3158,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3172,22 +3184,22 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3196,27 +3208,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3225,27 +3237,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3256,22 +3268,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3282,22 +3294,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3308,22 +3320,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3334,22 +3346,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3360,22 +3372,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3384,30 +3396,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3416,30 +3428,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3448,30 +3460,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3480,10 +3492,10 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3539,10 +3551,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3550,10 +3562,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -3561,10 +3573,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3572,24 +3584,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3617,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
@@ -3628,7 +3640,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3639,7 +3651,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3650,7 +3662,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3661,7 +3673,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3706,62 +3718,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3770,12 +3782,12 @@
         <v>87</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3784,10 +3796,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3838,7 +3850,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -3848,12 +3860,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -3863,21 +3875,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3902,10 +3914,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3916,35 +3928,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3974,10 +3986,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3988,86 +4000,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4173,39 +4185,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4213,19 +4225,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4233,19 +4245,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="E4" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4253,19 +4265,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4273,19 +4285,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4293,19 +4305,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4313,19 +4325,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4333,19 +4345,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4353,19 +4365,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4373,19 +4385,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4409,28 +4421,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -4438,28 +4450,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I2" s="2">
         <v>45853.0</v>
@@ -4467,28 +4479,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="I3" s="2">
         <v>45853.0</v>
@@ -24484,11 +24496,32 @@
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="23">
+        <v>45839.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>30.0</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" s="8"/>
@@ -31389,8 +31422,9 @@
     <hyperlink r:id="rId9" ref="J17"/>
     <hyperlink r:id="rId10" location="slide=id.gc96481fd19_0_343" ref="J18"/>
     <hyperlink r:id="rId11" location="slide=id.g7375f48dcf_2_0" ref="J19"/>
+    <hyperlink r:id="rId12" ref="J21"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -31422,35 +31456,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" s="19">
         <v>2024.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" s="19">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" s="19">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -31,7 +31,7 @@
     <definedName hidden="1" localSheetId="9" name="_xlnm._FilterDatabase">publications!$A$1:$H$18</definedName>
     <definedName hidden="1" localSheetId="10" name="_xlnm._FilterDatabase">accepted_publications!$A$1:$E$3</definedName>
     <definedName hidden="1" localSheetId="11" name="_xlnm._FilterDatabase">preprint!$A$1:$G$5</definedName>
-    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$K$30</definedName>
+    <definedName hidden="1" localSheetId="12" name="_xlnm._FilterDatabase">conferences!$A$1:$L$1000</definedName>
     <definedName hidden="1" localSheetId="13" name="_xlnm._FilterDatabase">memberships!$A$1:$C$5</definedName>
     <definedName hidden="1" localSheetId="14" name="_xlnm._FilterDatabase">reviews!$A$1:$C$1001</definedName>
     <definedName hidden="1" localSheetId="15" name="_xlnm._FilterDatabase">terza_missione!$A$1:$AA$1000</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="459">
   <si>
     <t>what</t>
   </si>
@@ -739,6 +739,9 @@
     <t>link_talk</t>
   </si>
   <si>
+    <t>proof</t>
+  </si>
+  <si>
     <t>Look at others’ smile: Sensorimotor modulation of visual awareness</t>
   </si>
   <si>
@@ -1064,6 +1067,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mGGHeAKprjU&amp;t=276s</t>
+  </si>
+  <si>
+    <t>‘The More the Trials, the Stronger the Effect’: Fact or Myth? Evidence From Classical Experimental Psychology Paradigms</t>
+  </si>
+  <si>
+    <t>Bruno, G., Gambarota, F., Sellaro, R., Cutini, S.</t>
+  </si>
+  <si>
+    <t>Budapest, HUN</t>
+  </si>
+  <si>
+    <t>sips-2025-boa.pdf</t>
   </si>
   <si>
     <t>society</t>
@@ -1438,7 +1453,7 @@
     <numFmt numFmtId="165" formatCode="yyyy-m"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1499,6 +1514,12 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF1A1923"/>
       <name val="Arial"/>
@@ -1535,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1627,13 +1648,16 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2637,9 +2661,10 @@
     <col customWidth="1" min="4" max="4" width="14.63"/>
     <col customWidth="1" min="5" max="5" width="71.38"/>
     <col customWidth="1" min="6" max="6" width="15.13"/>
-    <col customWidth="1" min="9" max="9" width="136.13"/>
+    <col customWidth="1" min="9" max="9" width="64.88"/>
     <col customWidth="1" min="10" max="10" width="87.75"/>
     <col customWidth="1" min="11" max="11" width="64.13"/>
+    <col customWidth="1" min="12" max="12" width="17.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2676,25 +2701,28 @@
       <c r="K1" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2705,22 +2733,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2729,27 +2757,27 @@
         <v>2.0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2758,27 +2786,27 @@
         <v>12.0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2787,27 +2815,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2816,30 +2844,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2848,30 +2876,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2882,22 +2910,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2906,27 +2934,27 @@
         <v>10.0</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2937,22 +2965,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -2963,22 +2991,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -2989,22 +3017,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -3015,22 +3043,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -3039,27 +3067,27 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -3070,22 +3098,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3094,30 +3122,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3127,27 +3155,27 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3158,22 +3186,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3184,22 +3212,22 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3208,27 +3236,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3237,27 +3265,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3268,22 +3296,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3294,22 +3322,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3320,22 +3348,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3346,22 +3374,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3372,22 +3400,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3396,30 +3424,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3428,30 +3456,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3460,30 +3488,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3492,23 +3520,48 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2025.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$30">
-    <sortState ref="A1:K30">
-      <sortCondition ref="G1:G30"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="$A$1:$L$1000"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D31">
       <formula1>"Poster,Talk,Invited,Symposium"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B30">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B31">
       <formula1>"no,yes"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3530,8 +3583,9 @@
     <hyperlink r:id="rId15" ref="J28"/>
     <hyperlink r:id="rId16" ref="J29"/>
     <hyperlink r:id="rId17" ref="K30"/>
+    <hyperlink r:id="rId18" ref="L31"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3551,10 +3605,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -3562,10 +3616,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -3573,10 +3627,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -3584,24 +3638,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +3686,7 @@
         <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -3640,7 +3694,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3651,7 +3705,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3662,7 +3716,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3673,7 +3727,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3718,62 +3772,62 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
@@ -3781,13 +3835,13 @@
       <c r="C4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>364</v>
+      <c r="D4" s="32" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
@@ -3796,10 +3850,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
@@ -3850,7 +3904,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -3860,12 +3914,12 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -3875,21 +3929,21 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3914,10 +3968,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3928,32 +3982,32 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>150</v>
@@ -3986,10 +4040,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -4000,86 +4054,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4185,39 +4239,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4225,19 +4279,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>409</v>
+        <v>413</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>414</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4245,19 +4299,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4265,19 +4319,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>414</v>
+        <v>418</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>419</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4285,19 +4339,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>419</v>
+        <v>423</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>424</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4305,19 +4359,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>410</v>
+        <v>427</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>415</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4325,19 +4379,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4345,19 +4399,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>429</v>
+        <v>433</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>434</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4365,19 +4419,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4385,19 +4439,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4421,28 +4475,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -4450,28 +4504,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="I2" s="2">
         <v>45853.0</v>
@@ -4479,28 +4533,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="I3" s="2">
         <v>45853.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="462">
   <si>
     <t>what</t>
   </si>
@@ -1393,6 +1393,18 @@
     <t>Unconscious processing of some face dimensions: a systematic review</t>
   </si>
   <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Manente</t>
+  </si>
+  <si>
+    <t>Multiverse Meta-Analysis: Proposal of a New Inferential Approach with an Application to Depression Psychotherapy</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
     <t>course</t>
   </si>
   <si>
@@ -1424,9 +1436,6 @@
   </si>
   <si>
     <t>Silvia Lanfranchi</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
   </si>
   <si>
     <t>Cristina</t>
@@ -4457,6 +4466,26 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$12"/>
   <drawing r:id="rId1"/>
@@ -4487,16 +4516,16 @@
         <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -4504,28 +4533,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="I2" s="2">
         <v>45853.0</v>
@@ -4533,28 +4562,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="I3" s="2">
         <v>45853.0</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="465">
   <si>
     <t>what</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>paper grassi</t>
+  </si>
+  <si>
+    <t>articolo aip psicostat</t>
+  </si>
+  <si>
+    <t>https://aipass.org/psicostat-un-laboratorio-aperto-tra-dati-idee-e-cultura-della-ricerca/</t>
   </si>
   <si>
     <t>date</t>
@@ -1572,10 +1581,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1981,8 +1990,24 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2007,42 +2032,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C2" s="26">
         <v>3.3</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E2" s="26">
         <v>0.0</v>
@@ -2051,22 +2076,22 @@
         <v>0.0</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
-        <v>150</v>
+      <c r="H2" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C3" s="26">
         <v>4.9</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E3" s="26">
         <v>0.0</v>
@@ -2074,22 +2099,22 @@
       <c r="F3" s="26">
         <v>0.0</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>153</v>
+      <c r="G3" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C4" s="27">
         <v>2.9</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E4" s="26">
         <v>0.0</v>
@@ -2097,25 +2122,25 @@
       <c r="F4" s="26">
         <v>0.0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>157</v>
+      <c r="G4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C5" s="27">
         <v>3.3</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E5" s="26">
         <v>0.0</v>
@@ -2123,22 +2148,22 @@
       <c r="F5" s="26">
         <v>0.0</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>160</v>
+      <c r="G5" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C6" s="28">
         <v>15.6</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" s="26">
         <v>1.0</v>
@@ -2146,25 +2171,25 @@
       <c r="F6" s="26">
         <v>0.0</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>164</v>
+      <c r="G6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C7" s="27">
         <v>7.6</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E7" s="26">
         <v>0.0</v>
@@ -2172,22 +2197,22 @@
       <c r="F7" s="26">
         <v>0.0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>167</v>
+      <c r="G7" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C8" s="27">
         <v>8.9</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E8" s="26">
         <v>0.0</v>
@@ -2195,25 +2220,25 @@
       <c r="F8" s="26">
         <v>0.0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>171</v>
+      <c r="G8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="26" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C9" s="26">
         <v>3.4</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E9" s="26">
         <v>0.0</v>
@@ -2221,25 +2246,25 @@
       <c r="F9" s="26">
         <v>0.0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>175</v>
+      <c r="G9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C10" s="26">
         <v>3.1</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E10" s="26">
         <v>0.0</v>
@@ -2250,16 +2275,16 @@
     </row>
     <row r="11">
       <c r="A11" s="26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C11" s="26">
         <v>2.6</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E11" s="26">
         <v>0.0</v>
@@ -2267,25 +2292,25 @@
       <c r="F11" s="26">
         <v>1.0</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>182</v>
+      <c r="G11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C12" s="27">
         <v>7.6</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E12" s="26">
         <v>1.0</v>
@@ -2293,25 +2318,25 @@
       <c r="F12" s="26">
         <v>0.0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>185</v>
+      <c r="G12" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C13" s="26">
         <v>3.8</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="26">
         <v>0.0</v>
@@ -2319,22 +2344,22 @@
       <c r="F13" s="26">
         <v>0.0</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>188</v>
+      <c r="G13" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C14" s="26">
         <v>2.6</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E14" s="26">
         <v>0.0</v>
@@ -2345,16 +2370,16 @@
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C15" s="26">
         <v>3.3</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E15" s="26">
         <v>1.0</v>
@@ -2362,25 +2387,25 @@
       <c r="F15" s="26">
         <v>0.0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>192</v>
+      <c r="G15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1">
         <v>22.3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -2388,22 +2413,22 @@
       <c r="F16" s="1">
         <v>0.0</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>195</v>
+      <c r="G16" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C17" s="28">
         <v>15.6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1">
         <v>0.0</v>
@@ -2414,16 +2439,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1">
         <v>3.2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -2431,8 +2456,8 @@
       <c r="F18" s="1">
         <v>0.0</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>199</v>
+      <c r="G18" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2484,36 +2509,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1">
         <v>2023.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
@@ -2550,91 +2575,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
@@ -2678,60 +2703,60 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G2" s="1">
         <v>2019.0</v>
@@ -2742,22 +2767,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G3" s="1">
         <v>2020.0</v>
@@ -2765,28 +2790,28 @@
       <c r="H3" s="1">
         <v>2.0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>236</v>
+      <c r="J3" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G4" s="1">
         <v>2021.0</v>
@@ -2794,28 +2819,28 @@
       <c r="H4" s="1">
         <v>12.0</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>242</v>
+      <c r="K4" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G5" s="1">
         <v>2021.0</v>
@@ -2824,27 +2849,27 @@
         <v>3.0</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G6" s="1">
         <v>2021.0</v>
@@ -2853,30 +2878,30 @@
         <v>6.0</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="G7" s="1">
         <v>2021.0</v>
@@ -2885,30 +2910,30 @@
         <v>7.0</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" s="1">
         <v>2021.0</v>
@@ -2919,22 +2944,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G9" s="1">
         <v>2022.0</v>
@@ -2942,28 +2967,28 @@
       <c r="H9" s="1">
         <v>10.0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>262</v>
+      <c r="J9" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G10" s="1">
         <v>2022.0</v>
@@ -2974,22 +2999,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G11" s="1">
         <v>2022.0</v>
@@ -3000,22 +3025,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G12" s="1">
         <v>2022.0</v>
@@ -3026,22 +3051,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G13" s="1">
         <v>2022.0</v>
@@ -3052,22 +3077,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G14" s="1">
         <v>2023.0</v>
@@ -3075,28 +3100,28 @@
       <c r="H14" s="1">
         <v>1.0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>275</v>
+      <c r="J14" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G15" s="1">
         <v>2023.0</v>
@@ -3107,22 +3132,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G16" s="1">
         <v>2024.0</v>
@@ -3131,30 +3156,30 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G17" s="1">
         <v>2024.0</v>
@@ -3163,28 +3188,28 @@
         <v>3.0</v>
       </c>
       <c r="I17" s="12"/>
-      <c r="J17" s="3" t="s">
-        <v>286</v>
+      <c r="J17" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G18" s="1">
         <v>2024.0</v>
@@ -3195,22 +3220,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G19" s="1">
         <v>2024.0</v>
@@ -3221,22 +3246,22 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G20" s="1">
         <v>2024.0</v>
@@ -3245,27 +3270,27 @@
         <v>9.0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G21" s="1">
         <v>2024.0</v>
@@ -3274,27 +3299,27 @@
         <v>9.0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G22" s="1">
         <v>2024.0</v>
@@ -3305,22 +3330,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G23" s="1">
         <v>2024.0</v>
@@ -3331,22 +3356,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G24" s="1">
         <v>2024.0</v>
@@ -3357,22 +3382,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G25" s="1">
         <v>2024.0</v>
@@ -3383,22 +3408,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G26" s="1">
         <v>2024.0</v>
@@ -3409,22 +3434,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G27" s="1">
         <v>2025.0</v>
@@ -3433,30 +3458,30 @@
         <v>2.0</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G28" s="1">
         <v>2025.0</v>
@@ -3465,30 +3490,30 @@
         <v>2.0</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G29" s="1">
         <v>2025.0</v>
@@ -3497,30 +3522,30 @@
         <v>2.0</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G30" s="1">
         <v>2024.0</v>
@@ -3529,30 +3554,30 @@
         <v>11.0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G31" s="1">
         <v>2025.0</v>
@@ -3561,7 +3586,7 @@
         <v>7.0</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3614,57 +3639,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3689,13 +3714,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
@@ -3703,7 +3728,7 @@
         <v>2024.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C2" s="1">
         <v>2.0</v>
@@ -3714,7 +3739,7 @@
         <v>2023.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
@@ -3725,7 +3750,7 @@
         <v>2023.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C4" s="1">
         <v>1.0</v>
@@ -3736,7 +3761,7 @@
         <v>2025.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -3769,103 +3794,103 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B4" s="1">
         <v>2024.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B5" s="1">
         <v>2025.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>374</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3896,16 +3921,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3913,46 +3938,46 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>2021.0</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>2022.0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C4" s="1">
         <v>2025.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3977,10 +4002,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -3991,35 +4016,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>385</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>385</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4049,13 +4074,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4063,86 +4088,86 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C2" s="1">
         <v>2020.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1">
         <v>2021.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C4" s="1">
         <v>2023.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C5" s="1">
         <v>2024.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1">
         <v>2024.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C7" s="1">
         <v>2024.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4171,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4182,44 +4207,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
         <v>45359.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
         <v>45841.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
         <v>45771.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4248,39 +4273,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -4288,19 +4313,19 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F3" s="1">
         <v>1.0</v>
@@ -4308,19 +4333,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="F4" s="1">
         <v>1.0</v>
@@ -4328,19 +4353,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
@@ -4348,19 +4373,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F6" s="1">
         <v>1.0</v>
@@ -4368,19 +4393,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F7" s="1">
         <v>1.0</v>
@@ -4388,19 +4413,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -4408,19 +4433,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F9" s="1">
         <v>1.0</v>
@@ -4428,19 +4453,19 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="F10" s="1">
         <v>1.0</v>
@@ -4448,19 +4473,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -4468,19 +4493,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F12" s="1">
         <v>1.0</v>
@@ -4504,88 +4529,88 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I2" s="2">
+        <v>448</v>
+      </c>
+      <c r="I2" s="3">
         <v>45853.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I3" s="2">
+        <v>448</v>
+      </c>
+      <c r="I3" s="3">
         <v>45853.0</v>
       </c>
     </row>
@@ -4610,19 +4635,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -4630,7 +4655,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>71.0</v>
@@ -4644,13 +4669,13 @@
       <c r="E2" s="4">
         <v>45712.0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>72.0</v>
@@ -4664,8 +4689,8 @@
       <c r="E3" s="4">
         <v>45713.0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -4699,19 +4724,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -4719,49 +4744,49 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>3.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="6">
         <v>2.0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="6">
@@ -10727,19 +10752,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -10747,134 +10772,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
         <v>1.0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6">
         <v>5.0</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
         <v>7.0</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E5" s="6">
         <v>8.0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" s="6">
         <v>6.0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E7" s="6">
         <v>4.0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="6">
         <v>3.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -16848,22 +16873,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>1</v>
@@ -16871,48 +16896,48 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" s="6">
         <v>1.0</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3" s="6">
         <v>2.0</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -23868,16 +23893,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -23885,30 +23910,30 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1">
         <v>2020.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="1">
         <v>2019.0</v>
@@ -23916,19 +23941,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1">
         <v>2021.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -23956,48 +23981,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E2" s="10">
         <v>45689.0</v>
@@ -24012,21 +24037,21 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="10">
         <v>45717.0</v>
@@ -24041,21 +24066,21 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E4" s="10">
         <v>45718.0</v>
@@ -24070,24 +24095,24 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="10">
         <v>45352.0</v>
@@ -24100,24 +24125,24 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E6" s="10">
         <v>45474.0</v>
@@ -24130,21 +24155,21 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="10">
         <v>45627.0</v>
@@ -24157,7 +24182,7 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -24183,16 +24208,16 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E8" s="18">
         <v>45231.0</v>
@@ -24205,24 +24230,24 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="E9" s="18">
         <v>45170.0</v>
@@ -24235,24 +24260,24 @@
         <v>1.0</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E10" s="18">
         <v>45017.0</v>
@@ -24267,24 +24292,24 @@
         <v>1.0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E11" s="18">
         <v>44986.0</v>
@@ -24297,24 +24322,24 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E12" s="23">
         <v>44986.0</v>
@@ -24327,21 +24352,21 @@
         <v>1.0</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E13" s="10">
         <v>44866.0</v>
@@ -24354,24 +24379,24 @@
         <v>1.0</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E14" s="23">
         <v>44621.0</v>
@@ -24384,7 +24409,7 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -24410,16 +24435,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E15" s="23">
         <v>44805.0</v>
@@ -24432,21 +24457,21 @@
         <v>1.0</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10">
         <v>44470.0</v>
@@ -24459,24 +24484,24 @@
         <v>1.0</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="23">
         <v>44287.0</v>
@@ -24489,24 +24514,24 @@
         <v>1.0</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" s="23">
         <v>44287.0</v>
@@ -24519,24 +24544,24 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -24547,24 +24572,24 @@
         <v>2.0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E20" s="23">
         <v>45809.0</v>
@@ -24575,21 +24600,21 @@
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E21" s="23">
         <v>45839.0</v>
@@ -24600,10 +24625,10 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="22">
@@ -31528,10 +31553,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -31539,35 +31564,35 @@
     </row>
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B2" s="19">
         <v>2024.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" ht="26.25" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B3" s="19">
         <v>2024.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" ht="26.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B4" s="19">
         <v>2023.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
